--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="9555" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>budget3</t>
+  </si>
+  <si>
+    <t>CreateNewBudget</t>
   </si>
 </sst>
 </file>
@@ -125,12 +129,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,9 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +177,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -205,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,171 +492,191 @@
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>2015</v>
-      </c>
-      <c r="G2">
-        <v>2015</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>1000000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>2015</v>
       </c>
       <c r="G3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>254452.55249999999</v>
+        <v>1000000</v>
       </c>
       <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4">
         <v>2015</v>
       </c>
       <c r="G4">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>30000</v>
+        <v>254452.55249999999</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
       <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>2015</v>
+      </c>
+      <c r="G5">
+        <v>2017</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>30000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -70,43 +70,43 @@
     <t>Dec</t>
   </si>
   <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>budget2</t>
+  </si>
+  <si>
+    <t>budget3</t>
+  </si>
+  <si>
+    <t>CreateNewBudget</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>ILS</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>budget2</t>
-  </si>
-  <si>
-    <t>budget3</t>
-  </si>
-  <si>
-    <t>CreateNewBudget</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,9 +492,9 @@
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -509,7 +509,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -573,39 +573,39 @@
         <v>2015</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
       <c r="J3">
         <v>1000000</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>2015</v>
@@ -614,30 +614,30 @@
         <v>2016</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>254452.55249999999</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -655,22 +655,22 @@
         <v>2017</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>30000</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="3255"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I24"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20970" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -107,13 +106,136 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>InvitationCode</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>PasswordVerify</t>
+  </si>
+  <si>
+    <t>ShouldPass</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+  </si>
+  <si>
+    <t>trybydgeta</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>galil.com</t>
+  </si>
+  <si>
+    <t>trybudgeta</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>galil4@galil.com</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>galil_123@galil.com</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>ErrorField</t>
+  </si>
+  <si>
+    <t>SignUpError</t>
+  </si>
+  <si>
+    <t>ShouldPAss</t>
+  </si>
+  <si>
+    <t>budget4</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>budget!@$</t>
+  </si>
+  <si>
+    <t>BugNumber</t>
+  </si>
+  <si>
+    <t>BUD-1866</t>
+  </si>
+  <si>
+    <t>budget5</t>
+  </si>
+  <si>
+    <t>budget6</t>
+  </si>
+  <si>
+    <t>budget7</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>budget8</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>budget9</t>
+  </si>
+  <si>
+    <t>budget10</t>
+  </si>
+  <si>
+    <t>AUD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +250,48 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -144,12 +301,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -157,19 +314,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,9 +432,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -472,15 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
@@ -490,26 +742,30 @@
     <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,8 +805,14 @@
       <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -561,25 +823,25 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2015</v>
       </c>
       <c r="G3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -590,22 +852,22 @@
       <c r="M3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>2015</v>
@@ -614,83 +876,648 @@
         <v>2016</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>254452.55249999999</v>
+        <v>5000000</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5">
         <v>2015</v>
       </c>
       <c r="G5">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>2015</v>
+      </c>
+      <c r="G6">
+        <v>2015</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>1000000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2015</v>
+      </c>
+      <c r="G7">
+        <v>2016</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>254452.55249999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>2015</v>
+      </c>
+      <c r="G8">
         <v>2017</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>30000</v>
       </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
         <v>28</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>2015</v>
+      </c>
+      <c r="G9">
+        <v>2017</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>30000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>2015</v>
+      </c>
+      <c r="G10">
+        <v>2017</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>525200001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>2015</v>
+      </c>
+      <c r="G11">
+        <v>2017</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11">
+        <v>525200002</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>2015</v>
+      </c>
+      <c r="G12">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>1000000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>2015</v>
+      </c>
+      <c r="G13">
+        <v>2016</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>254452.55249999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20970" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="20970" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ViewTab" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -159,18 +159,12 @@
     <t>user4</t>
   </si>
   <si>
-    <t>galil_123@galil.com</t>
-  </si>
-  <si>
     <t>user5</t>
   </si>
   <si>
     <t>ErrorField</t>
   </si>
   <si>
-    <t>SignUpError</t>
-  </si>
-  <si>
     <t>ShouldPAss</t>
   </si>
   <si>
@@ -229,6 +223,60 @@
   </si>
   <si>
     <t>AUD</t>
+  </si>
+  <si>
+    <t>galil_1234@galil.com</t>
+  </si>
+  <si>
+    <t>SignUpErrorPass</t>
+  </si>
+  <si>
+    <t>SignUpErrorUser</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>CostValue</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Thousands</t>
+  </si>
+  <si>
+    <t>Millions</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>ViewDetails</t>
+  </si>
+  <si>
+    <t>P &amp; L</t>
+  </si>
+  <si>
+    <t>ExistEmail</t>
   </si>
 </sst>
 </file>
@@ -275,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +450,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -405,6 +459,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,12 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -726,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,23 +806,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -806,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -823,10 +882,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>2015</v>
@@ -835,10 +894,10 @@
         <v>2014</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>5000000</v>
@@ -864,10 +923,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>2015</v>
@@ -876,10 +935,10 @@
         <v>2016</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>5000000</v>
@@ -925,8 +984,8 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>58</v>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
@@ -941,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -993,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1037,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1081,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1125,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1143,7 +1202,7 @@
         <v>2017</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -1169,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1187,10 +1246,10 @@
         <v>2017</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11">
         <v>525200002</v>
@@ -1213,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -1231,7 +1290,7 @@
         <v>2015</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1257,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1310,33 +1369,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1353,19 +1414,22 @@
         <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1379,20 +1443,23 @@
       <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="b">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1408,20 +1475,23 @@
       <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3">
-        <v>2</v>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="b">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1437,20 +1507,23 @@
       <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="b">
+      <c r="I5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1464,20 +1537,23 @@
         <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="b">
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1485,30 +1561,36 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="b">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="J7" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
@@ -1523,12 +1605,319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="20970" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="ViewTab" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +278,9 @@
   </si>
   <si>
     <t>ExistEmail</t>
+  </si>
+  <si>
+    <t>ContinueShouldPass</t>
   </si>
 </sst>
 </file>
@@ -460,6 +464,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -475,8 +481,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,6 +495,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -539,7 +546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,7 +581,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,35 +803,37 @@
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,31 +856,34 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -893,29 +905,32 @@
       <c r="G3">
         <v>2014</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5000000</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="b">
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -934,29 +949,32 @@
       <c r="G4">
         <v>2016</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5000000</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="b">
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -978,17 +996,17 @@
       <c r="G5">
         <v>2015</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>29</v>
@@ -996,14 +1014,17 @@
       <c r="M5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" t="b">
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1025,29 +1046,32 @@
       <c r="G6">
         <v>2015</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1000000</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1069,29 +1093,32 @@
       <c r="G7">
         <v>2016</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>254452.55249999999</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1113,29 +1140,32 @@
       <c r="G8">
         <v>2017</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>30000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1157,29 +1187,32 @@
       <c r="G9">
         <v>2017</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>30000</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>28</v>
       </c>
       <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1201,17 +1234,17 @@
       <c r="G10">
         <v>2017</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>525200001</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
       </c>
       <c r="L10" t="s">
         <v>28</v>
@@ -1219,11 +1252,14 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1245,29 +1281,32 @@
       <c r="G11">
         <v>2017</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>525200002</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
       </c>
       <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1289,17 +1328,17 @@
       <c r="G12">
         <v>2015</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1000000</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -1307,11 +1346,14 @@
       <c r="M12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1333,34 +1375,37 @@
       <c r="G13">
         <v>2016</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>254452.55249999999</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>28</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>29</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>28</v>
       </c>
-      <c r="N13" t="b">
+      <c r="O13" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1371,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1384,18 +1429,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1633,22 +1678,22 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="4" t="s">

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="20970" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
     <sheet name="ViewTab" sheetId="3" r:id="rId3"/>
+    <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -278,6 +278,162 @@
   </si>
   <si>
     <t>ExistEmail</t>
+  </si>
+  <si>
+    <t>OnDate</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>AtDate</t>
+  </si>
+  <si>
+    <t>SpraedDate</t>
+  </si>
+  <si>
+    <t>GrowthPercent</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>PaymentAfter</t>
+  </si>
+  <si>
+    <t>SupportPercentage</t>
+  </si>
+  <si>
+    <t>SupportPeriod</t>
+  </si>
+  <si>
+    <t>Churn</t>
+  </si>
+  <si>
+    <t>DateRange_from_month</t>
+  </si>
+  <si>
+    <t>DateRange_to_month</t>
+  </si>
+  <si>
+    <t>DateRange_from_year</t>
+  </si>
+  <si>
+    <t>DateRange_to_year</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Revenues Form</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>DepartmentPercentage</t>
+  </si>
+  <si>
+    <t>CostOfSale</t>
+  </si>
+  <si>
+    <t>BenefitsPercentage</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>YearlyVactaionDayes</t>
+  </si>
+  <si>
+    <t>AvgAccruedVacation_Percentage</t>
+  </si>
+  <si>
+    <t>MaxAccruedVacation_Percentage</t>
+  </si>
+  <si>
+    <t>YearlyIncrease_Percentage</t>
+  </si>
+  <si>
+    <t>CostOfSale_Salary&amp;wages</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>BaseSalary</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>BonusPercentage</t>
+  </si>
+  <si>
+    <t>YearlyVactaionDays</t>
+  </si>
+  <si>
+    <t>AvgAccruedVactaion_Percentage</t>
+  </si>
+  <si>
+    <t>MaxAccruedVactaionDays</t>
+  </si>
+  <si>
+    <t>YeralyIncreasePercentage</t>
+  </si>
+  <si>
+    <t>HireDate_from_month</t>
+  </si>
+  <si>
+    <t>HireDate_to_month</t>
+  </si>
+  <si>
+    <t>HireDate_from_year</t>
+  </si>
+  <si>
+    <t>HireDate_to_year</t>
+  </si>
+  <si>
+    <t>EmployeeForm</t>
+  </si>
+  <si>
+    <t>ContractorName</t>
+  </si>
+  <si>
+    <t>ContractPeriod</t>
+  </si>
+  <si>
+    <t>ContractRole</t>
+  </si>
+  <si>
+    <t>ContractRate</t>
+  </si>
+  <si>
+    <t>ContractPer</t>
+  </si>
+  <si>
+    <t>ContractHoursPerMonth</t>
+  </si>
+  <si>
+    <t>GeneralProfessionalServices</t>
+  </si>
+  <si>
+    <t>Occurs</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>GrowthPercentage</t>
   </si>
   <si>
     <t>ContinueShouldPass</t>
@@ -454,7 +610,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -466,6 +622,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -495,9 +654,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -546,7 +702,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,7 +737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,24 +970,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -856,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -950,7 +1106,7 @@
         <v>2016</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>53</v>
@@ -1429,18 +1585,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1667,15 +1823,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -1965,4 +2121,488 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X56"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" customWidth="1"/>
+    <col min="13" max="13" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R29" t="s">
+        <v>102</v>
+      </c>
+      <c r="S29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>126</v>
+      </c>
+      <c r="R37" t="s">
+        <v>127</v>
+      </c>
+      <c r="S37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" t="s">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s">
+        <v>101</v>
+      </c>
+      <c r="V37" t="s">
+        <v>75</v>
+      </c>
+      <c r="W37" t="s">
+        <v>102</v>
+      </c>
+      <c r="X37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>102</v>
+      </c>
+      <c r="R46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A45:R45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="20970" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21390" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="304">
   <si>
     <t>id</t>
   </si>
@@ -280,9 +281,6 @@
     <t>ExistEmail</t>
   </si>
   <si>
-    <t>OnDate</t>
-  </si>
-  <si>
     <t>Spread</t>
   </si>
   <si>
@@ -331,9 +329,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Revenues Form</t>
-  </si>
-  <si>
     <t>Departments</t>
   </si>
   <si>
@@ -403,15 +398,9 @@
     <t>HireDate_to_year</t>
   </si>
   <si>
-    <t>EmployeeForm</t>
-  </si>
-  <si>
     <t>ContractorName</t>
   </si>
   <si>
-    <t>ContractPeriod</t>
-  </si>
-  <si>
     <t>ContractRole</t>
   </si>
   <si>
@@ -424,19 +413,523 @@
     <t>ContractHoursPerMonth</t>
   </si>
   <si>
-    <t>GeneralProfessionalServices</t>
-  </si>
-  <si>
     <t>Occurs</t>
   </si>
   <si>
-    <t>On</t>
-  </si>
-  <si>
     <t>GrowthPercentage</t>
   </si>
   <si>
     <t>ContinueShouldPass</t>
+  </si>
+  <si>
+    <t>DepreciationExpense</t>
+  </si>
+  <si>
+    <t>DepreciateOverYears</t>
+  </si>
+  <si>
+    <t>CostOfSale_GeneralProfessionalServices</t>
+  </si>
+  <si>
+    <t>CostOfSale_ProfessionalServicesDetails</t>
+  </si>
+  <si>
+    <t>CostOfSale_Salary&amp;wages_EmployeeForm</t>
+  </si>
+  <si>
+    <t>AccountNumbar</t>
+  </si>
+  <si>
+    <t>GrossProfit</t>
+  </si>
+  <si>
+    <t>Operating profit/loss</t>
+  </si>
+  <si>
+    <t>NetIncome</t>
+  </si>
+  <si>
+    <t>OnDate_Month</t>
+  </si>
+  <si>
+    <t>OnDate_Year</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Revenues Form_Details</t>
+  </si>
+  <si>
+    <t>GeneralRevenues</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>first Note</t>
+  </si>
+  <si>
+    <t>First Comment</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>Second Note</t>
+  </si>
+  <si>
+    <t>Second Comment</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>First Note</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Geo1</t>
+  </si>
+  <si>
+    <t>Account1</t>
+  </si>
+  <si>
+    <t>Account2</t>
+  </si>
+  <si>
+    <t>Geo2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Same amount each billing</t>
+  </si>
+  <si>
+    <t>ServicePeriod</t>
+  </si>
+  <si>
+    <t>SubscriptionPeriod</t>
+  </si>
+  <si>
+    <t>Account3</t>
+  </si>
+  <si>
+    <t>Geo3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Third Comnent</t>
+  </si>
+  <si>
+    <t>Third Note</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Account4</t>
+  </si>
+  <si>
+    <t>Geo4</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Fourth Comnent</t>
+  </si>
+  <si>
+    <t>Fourth Note</t>
+  </si>
+  <si>
+    <t>at the beginning</t>
+  </si>
+  <si>
+    <t>at the end</t>
+  </si>
+  <si>
+    <t>spread evenly</t>
+  </si>
+  <si>
+    <t>Account5</t>
+  </si>
+  <si>
+    <t>Geo5</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Account6</t>
+  </si>
+  <si>
+    <t>Geo6</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>Account7</t>
+  </si>
+  <si>
+    <t>Geo7</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>Account8</t>
+  </si>
+  <si>
+    <t>Geo8</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>Account9</t>
+  </si>
+  <si>
+    <t>Geo9</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>Account10</t>
+  </si>
+  <si>
+    <t>Geo10</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>Fifth Note</t>
+  </si>
+  <si>
+    <t>Fifth Comnent</t>
+  </si>
+  <si>
+    <t>Sixth Note</t>
+  </si>
+  <si>
+    <t>Sixth Comnent</t>
+  </si>
+  <si>
+    <t>seventh Note</t>
+  </si>
+  <si>
+    <t>seventh Comnent</t>
+  </si>
+  <si>
+    <t>eighth Note</t>
+  </si>
+  <si>
+    <t>eighth Comnent</t>
+  </si>
+  <si>
+    <t>ninth Note</t>
+  </si>
+  <si>
+    <t>ninth Comnent</t>
+  </si>
+  <si>
+    <t>tenth Note</t>
+  </si>
+  <si>
+    <t>tenth Comnent</t>
+  </si>
+  <si>
+    <t>Account11</t>
+  </si>
+  <si>
+    <t>Geo11</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Account12</t>
+  </si>
+  <si>
+    <t>Geo12</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>Account13</t>
+  </si>
+  <si>
+    <t>Geo13</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>Account14</t>
+  </si>
+  <si>
+    <t>Geo14</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>Account15</t>
+  </si>
+  <si>
+    <t>Geo15</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>Account16</t>
+  </si>
+  <si>
+    <t>Geo16</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>Note 11</t>
+  </si>
+  <si>
+    <t>comment 11</t>
+  </si>
+  <si>
+    <t>Note 12</t>
+  </si>
+  <si>
+    <t>comment 12</t>
+  </si>
+  <si>
+    <t>Note 13</t>
+  </si>
+  <si>
+    <t>comment 13</t>
+  </si>
+  <si>
+    <t>Note 14</t>
+  </si>
+  <si>
+    <t>comment 14</t>
+  </si>
+  <si>
+    <t>Note 15</t>
+  </si>
+  <si>
+    <t>comment 15</t>
+  </si>
+  <si>
+    <t>Note 16</t>
+  </si>
+  <si>
+    <t>comment 16</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>Comment1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>Comment2</t>
+  </si>
+  <si>
+    <t>isreal</t>
+  </si>
+  <si>
+    <t>Same month</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>comment 1</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>comment 2</t>
+  </si>
+  <si>
+    <t>comment 3</t>
+  </si>
+  <si>
+    <t>Note 3</t>
+  </si>
+  <si>
+    <t>Next month</t>
+  </si>
+  <si>
+    <t>Note 4</t>
+  </si>
+  <si>
+    <t>comment 4</t>
+  </si>
+  <si>
+    <t>Note 5</t>
+  </si>
+  <si>
+    <t>comment 5</t>
+  </si>
+  <si>
+    <t>Note 6</t>
+  </si>
+  <si>
+    <t>comment 6</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>Comment 2</t>
+  </si>
+  <si>
+    <t>contractor1</t>
+  </si>
+  <si>
+    <t>ContractPeriod_Month</t>
+  </si>
+  <si>
+    <t>ContractPeriod_Year</t>
+  </si>
+  <si>
+    <t>Role1</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note1 </t>
+  </si>
+  <si>
+    <t>DepreciateStartUsage_Month</t>
+  </si>
+  <si>
+    <t>DepreciateStartUsage_year</t>
+  </si>
+  <si>
+    <t>Note2</t>
+  </si>
+  <si>
+    <t>at the beginning of the quarter</t>
+  </si>
+  <si>
+    <t>at the end of the quarter</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Note4</t>
+  </si>
+  <si>
+    <t>Comment 4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Note5</t>
+  </si>
+  <si>
+    <t>Comment 5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Note6</t>
+  </si>
+  <si>
+    <t>Comment 6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Note7</t>
+  </si>
+  <si>
+    <t>Comment 7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Note8</t>
+  </si>
+  <si>
+    <t>Comment 8</t>
+  </si>
+  <si>
+    <t>Note9</t>
+  </si>
+  <si>
+    <t>Note10</t>
+  </si>
+  <si>
+    <t>Note11</t>
+  </si>
+  <si>
+    <t>Note12</t>
+  </si>
+  <si>
+    <t>Note13</t>
+  </si>
+  <si>
+    <t>Comment 9</t>
+  </si>
+  <si>
+    <t>Comment 10</t>
+  </si>
+  <si>
+    <t>Comment 11</t>
+  </si>
+  <si>
+    <t>Comment 12</t>
+  </si>
+  <si>
+    <t>Comment 13</t>
   </si>
 </sst>
 </file>
@@ -520,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -604,13 +1097,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -622,9 +1144,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -641,6 +1169,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -949,7 +1492,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,24 +1513,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1012,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -1585,18 +2128,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1823,15 +2366,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2125,482 +2668,4676 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.625" customWidth="1"/>
+    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.625" customWidth="1"/>
+    <col min="24" max="24" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>300</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>500</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S13" s="3">
+        <v>2015</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2018</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2015</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3">
+        <v>22222</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>330</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>330</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>330</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>330</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>330</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>330</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>500</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>600</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3">
+        <v>25352</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36" s="3">
+        <v>70</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N36" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="3">
+        <v>70</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N37" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="3">
+        <v>50</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="3">
+        <v>-12</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="S44" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="3">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2013</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="S45" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="3">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-12</v>
+      </c>
+      <c r="F46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="S46" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="3">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2013</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S47" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="3">
+        <v>50</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="S48" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="3">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="S49" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="3">
+        <v>123</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="3">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-12</v>
+      </c>
+      <c r="J56" s="3">
+        <v>-30</v>
+      </c>
+      <c r="K56" s="3">
+        <v>-6</v>
+      </c>
+      <c r="L56" s="3">
+        <v>-2</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>2</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="3">
+        <v>123</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-12</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-30</v>
+      </c>
+      <c r="K57" s="3">
+        <v>-6</v>
+      </c>
+      <c r="L57" s="3">
+        <v>-2</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="3">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12</v>
+      </c>
+      <c r="J58" s="3">
+        <v>30</v>
+      </c>
+      <c r="K58" s="3">
+        <v>6</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="3">
+        <v>123</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
+        <v>12</v>
+      </c>
+      <c r="J59" s="3">
+        <v>30</v>
+      </c>
+      <c r="K59" s="3">
+        <v>6</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>2015</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="X59" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1234</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3">
+        <v>12</v>
+      </c>
+      <c r="J60" s="3">
+        <v>30</v>
+      </c>
+      <c r="K60" s="3">
+        <v>6</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2015</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="X60" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>2014</v>
+      </c>
+      <c r="E66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66">
+        <v>2015</v>
+      </c>
+      <c r="L66">
+        <v>2014</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>2014</v>
+      </c>
+      <c r="E67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67">
+        <v>2015</v>
+      </c>
+      <c r="L67">
+        <v>2015</v>
+      </c>
+      <c r="N67" t="s">
+        <v>241</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P67" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>158</v>
+      </c>
+      <c r="R67" t="s">
+        <v>251</v>
+      </c>
+      <c r="S67" t="s">
+        <v>265</v>
+      </c>
+      <c r="T67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G75" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="N75" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R2" t="s">
+      <c r="O75" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S2" t="s">
+      <c r="P75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R75" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z75" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>4</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="3">
+        <v>2</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N80" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O80" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>6</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="3">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W81" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X81" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z81" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>7</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O82" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z82" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O83" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
+      <c r="B85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3">
+        <v>5</v>
+      </c>
+      <c r="I86" s="3">
+        <v>300</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O86" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W86" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X86" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y86" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z86" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3">
+        <v>250</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>13</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3">
+        <v>100</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O88" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z88" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3">
         <v>101</v>
       </c>
-      <c r="V2" t="s">
+      <c r="J89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W89" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X89" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z89" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>15</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3">
+        <v>2</v>
+      </c>
+      <c r="I90" s="3">
+        <v>102</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O90" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="W90" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X90" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y90" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z90" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>16</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3">
+        <v>20</v>
+      </c>
+      <c r="I91" s="3">
+        <v>102</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O91" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W91" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X91" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z91" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>17</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3">
+        <v>102</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O92" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z92" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>18</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3">
+        <v>250</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="3">
+        <v>6</v>
+      </c>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>19</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O94" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z94" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>20</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3">
+        <v>101</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O95" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W95" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X95" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z95" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>21</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3">
+        <v>2</v>
+      </c>
+      <c r="I96" s="3">
+        <v>102</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N96" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O96" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="W96" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X96" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z96" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>22</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3">
+        <v>102</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="3">
+        <v>2017</v>
+      </c>
+      <c r="O97" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W97" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X97" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y97" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z97" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>23</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3">
+        <v>2</v>
+      </c>
+      <c r="I98" s="3">
+        <v>102</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O98" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z98" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="X2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="L103" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>1</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L104" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>2</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L105" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D113" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E113" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H113" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I113" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>1</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L114" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>2</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L115" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="G121" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J121" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="K121" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="L121" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>1</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L122" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" t="s">
-        <v>99</v>
-      </c>
-      <c r="M29" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>75</v>
-      </c>
-      <c r="R29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" t="s">
-        <v>120</v>
-      </c>
-      <c r="J37" t="s">
-        <v>121</v>
-      </c>
-      <c r="K37" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" t="s">
-        <v>123</v>
-      </c>
-      <c r="N37" t="s">
-        <v>109</v>
-      </c>
-      <c r="O37" t="s">
-        <v>124</v>
-      </c>
-      <c r="P37" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>126</v>
-      </c>
-      <c r="R37" t="s">
-        <v>127</v>
-      </c>
-      <c r="S37" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s">
-        <v>101</v>
-      </c>
-      <c r="V37" t="s">
-        <v>75</v>
-      </c>
-      <c r="W37" t="s">
-        <v>102</v>
-      </c>
-      <c r="X37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J46" t="s">
-        <v>99</v>
-      </c>
-      <c r="K46" t="s">
-        <v>100</v>
-      </c>
-      <c r="L46" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" t="s">
-        <v>74</v>
-      </c>
-      <c r="O46" t="s">
-        <v>101</v>
-      </c>
-      <c r="P46" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>102</v>
-      </c>
-      <c r="R46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" t="s">
-        <v>93</v>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>2</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L123" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A45:R45"/>
+  <mergeCells count="10">
+    <mergeCell ref="A74:Z74"/>
+    <mergeCell ref="A102:L102"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="A120:L120"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="A64:T64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21390" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22305" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K26"/>
+  <oleSize ref="A85:H99"/>
 </workbook>
 </file>
 
@@ -1491,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2670,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="X89" sqref="X89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galil1\Documents\GitHub\Budgeta\src\main\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="22305" windowHeight="4725" activeTab="3"/>
   </bookViews>
@@ -13,12 +18,11 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A85:H99"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="304">
   <si>
     <t>id</t>
   </si>
@@ -1198,6 +1202,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1245,7 +1252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,7 +1287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2670,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2768,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>2015</v>
@@ -2796,7 +2803,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3">
         <v>2015</v>
@@ -2965,8 +2972,12 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2016</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2990,7 +3001,7 @@
         <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <v>2012</v>
@@ -3180,10 +3191,10 @@
         <v>16</v>
       </c>
       <c r="R14" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S14" s="3">
         <v>2018</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2015</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>161</v>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:X54"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galil1\Documents\GitHub\Budgeta\src\main\java\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="22305" windowHeight="4725" activeTab="3"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="318">
   <si>
     <t>id</t>
   </si>
@@ -934,6 +929,48 @@
   </si>
   <si>
     <t>Comment 13</t>
+  </si>
+  <si>
+    <t>OperationalExpenses</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>OperationalExpenses_Contractor</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Per_Time</t>
+  </si>
+  <si>
+    <t>HoursPerMonth</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Extras_percent</t>
+  </si>
+  <si>
+    <t>YearlyIncrease_percent</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>OperationalExpenses_Research&amp;Development_department</t>
+  </si>
+  <si>
+    <t>OperationalExpenses_Research&amp;Development_Professional services_department</t>
+  </si>
+  <si>
+    <t>OperationalExpenses_Geography</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1130,13 +1167,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1157,6 +1207,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1252,7 +1304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1287,7 +1339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1520,24 +1572,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2135,18 +2187,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2373,15 +2425,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2675,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE123"/>
+  <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="F129" workbookViewId="0">
+      <selection activeCell="O160" sqref="O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2705,25 +2757,25 @@
     <col min="22" max="23" width="19.625" customWidth="1"/>
     <col min="24" max="24" width="17.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2831,33 +2883,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -4209,22 +4261,22 @@
       <c r="AC31" s="12"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="16"/>
@@ -4362,27 +4414,27 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
@@ -4867,32 +4919,32 @@
       <c r="S52" s="12"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
@@ -5304,28 +5356,28 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
@@ -5493,34 +5545,34 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="24"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="24"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="26"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="26"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -6948,20 +7000,20 @@
       <c r="W100" s="12"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
@@ -7077,278 +7129,2448 @@
         <v>1</v>
       </c>
     </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A110" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="M111" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N111" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="3">
+        <v>1</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>2</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N113" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J118" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="M118" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N118" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>1</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N119" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>2</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N120" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="14"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I124" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L124" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="M124" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N124" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>1</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>2</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N126" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="14"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="14"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="14"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="14"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A132" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="25"/>
+      <c r="P132" s="25"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="25"/>
+      <c r="S132" s="25"/>
+      <c r="T132" s="25"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P133" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R133" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="S133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T133" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F134" s="3">
+        <v>8</v>
+      </c>
+      <c r="G134" s="3">
+        <v>10</v>
+      </c>
+      <c r="H134" s="3">
+        <v>5</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J134" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K134" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L134" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3">
+        <v>10</v>
+      </c>
+      <c r="H135" s="3">
+        <v>2</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L135" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N135" s="3"/>
+      <c r="O135" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P135" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T135" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="14"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="14"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="14"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A139" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="25"/>
+      <c r="T139" s="25"/>
+      <c r="U139" s="25"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R140" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S140" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T140" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U140" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>1</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3">
+        <v>200</v>
+      </c>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V141" s="3"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>2</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3">
+        <v>300</v>
+      </c>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V142" s="3"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3">
+        <v>500</v>
+      </c>
+      <c r="J143" s="3">
+        <v>2</v>
+      </c>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V143" s="3"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>4</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3">
+        <v>500</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N144" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S144" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="U144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V144" s="3"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3">
+        <v>500</v>
+      </c>
+      <c r="J145" s="3">
+        <v>2</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N145" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U145" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V145" s="3"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>6</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3">
+        <v>200</v>
+      </c>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V146" s="3"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>7</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V147" s="3"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>8</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J148" s="3">
+        <v>1</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M148" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N148" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T148" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="U148" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V148" s="3"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>9</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3">
+        <v>10</v>
+      </c>
+      <c r="I149" s="3">
+        <v>22222</v>
+      </c>
+      <c r="J149" s="3">
+        <v>2</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N149" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S149" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T149" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="U149" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V149" s="3"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>10</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3">
+        <v>330</v>
+      </c>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M150" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N150" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T150" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="U150" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V150" s="3"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>11</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3">
+        <v>330</v>
+      </c>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M151" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N151" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T151" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="U151" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V151" s="3"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>12</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3">
+        <v>330</v>
+      </c>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M152" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N152" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="T152" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="U152" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V152" s="3"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>13</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3">
+        <v>5</v>
+      </c>
+      <c r="I153" s="3">
+        <v>330</v>
+      </c>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M153" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N153" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="T153" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="U153" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V153" s="3"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>14</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3">
+        <v>2</v>
+      </c>
+      <c r="I154" s="3">
+        <v>330</v>
+      </c>
+      <c r="J154" s="3">
+        <v>5</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M154" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N154" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R154" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T154" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="U154" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V154" s="3"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>15</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3">
+        <v>330</v>
+      </c>
+      <c r="J155" s="3">
+        <v>3</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M155" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N155" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="S155" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="T155" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="U155" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V155" s="3"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>16</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3">
+        <v>500</v>
+      </c>
+      <c r="J156" s="3">
+        <v>2</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M156" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N156" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="S156" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="T156" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="U156" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V156" s="3"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>17</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3">
+        <v>600</v>
+      </c>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M157" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N157" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="S157" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="T157" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="U157" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V157" s="3"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>18</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M158" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N158" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="T158" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="U158" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V158" s="3"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>19</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M159" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N159" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T159" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="U159" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V159" s="3"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>20</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3">
+        <v>10</v>
+      </c>
+      <c r="I160" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N160" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="T160" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="U160" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V160" s="3"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>21</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3">
+        <v>20</v>
+      </c>
+      <c r="I161" s="3">
+        <v>25352</v>
+      </c>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N161" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="T161" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="U161" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V161" s="3"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="14"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="14"/>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="14"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="14"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="14"/>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="14"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="14"/>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="14"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="14"/>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="14"/>
+    </row>
+    <row r="173" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A175" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="25"/>
+      <c r="K175" s="25"/>
+      <c r="L175" s="25"/>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A176" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B176" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D176" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E176" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="F176" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G176" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="H176" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I176" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J176" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K113" s="10" t="s">
+      <c r="K176" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L113" s="4" t="s">
+      <c r="L176" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>1</v>
-      </c>
-      <c r="B114" s="3" t="s">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D114" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E114" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="D177" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E177" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="I177" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J177" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K177" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L114" s="7" t="b">
+      <c r="L177" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
         <v>2</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D178" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E178" s="3">
         <v>2016</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H178" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I178" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J178" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K115" s="3" t="s">
+      <c r="K178" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L115" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="s">
+      <c r="L178" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="25"/>
+      <c r="L183" s="25"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B184" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D184" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E184" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F184" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G184" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="H184" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="I184" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J184" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K121" s="10" t="s">
+      <c r="K184" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="L184" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
-        <v>1</v>
-      </c>
-      <c r="B122" s="3" t="s">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>1</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D122" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E122" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="D185" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E185" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H185" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I185" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J185" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K185" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L122" s="7" t="b">
+      <c r="L185" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
         <v>2</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D186" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E186" s="3">
         <v>2016</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H186" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="I186" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="J186" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K186" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L123" s="7" t="b">
+      <c r="L186" s="7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A74:Z74"/>
-    <mergeCell ref="A102:L102"/>
-    <mergeCell ref="A112:L112"/>
-    <mergeCell ref="A120:L120"/>
+  <mergeCells count="15">
+    <mergeCell ref="A64:T64"/>
+    <mergeCell ref="A117:N117"/>
+    <mergeCell ref="A123:N123"/>
+    <mergeCell ref="A132:T132"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A42:S42"/>
     <mergeCell ref="A54:X54"/>
-    <mergeCell ref="A64:T64"/>
+    <mergeCell ref="A183:L183"/>
+    <mergeCell ref="A175:L175"/>
+    <mergeCell ref="A110:N110"/>
+    <mergeCell ref="A74:Z74"/>
+    <mergeCell ref="A102:L102"/>
+    <mergeCell ref="A139:U139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -12,12 +12,12 @@
     <sheet name="ViewTab" sheetId="3" r:id="rId3"/>
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -436,9 +436,6 @@
     <t>CostOfSale_Salary&amp;wages_EmployeeForm</t>
   </si>
   <si>
-    <t>AccountNumbar</t>
-  </si>
-  <si>
     <t>GrossProfit</t>
   </si>
   <si>
@@ -971,6 +968,18 @@
   </si>
   <si>
     <t>OperationalExpenses_Geography</t>
+  </si>
+  <si>
+    <t>OtherIncomeAndExpenses</t>
+  </si>
+  <si>
+    <t>OtherIncomeAndExpenses_SubLines</t>
+  </si>
+  <si>
+    <t>OperationalExpenses_NoGrouping</t>
+  </si>
+  <si>
+    <t>Nov</t>
   </si>
 </sst>
 </file>
@@ -2727,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE186"/>
+  <dimension ref="A1:AE257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F129" workbookViewId="0">
-      <selection activeCell="O160" sqref="O160"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245:XFD245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2764,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2832,16 +2841,16 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="K3" s="7" t="b">
         <v>0</v>
@@ -2867,16 +2876,16 @@
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="K4" s="7" t="b">
         <v>1</v>
@@ -2884,7 +2893,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -2923,10 +2932,10 @@
         <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>87</v>
@@ -2956,10 +2965,10 @@
         <v>95</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>96</v>
@@ -3003,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -3050,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -3093,10 +3102,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3">
         <v>2016</v>
@@ -3142,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -3182,19 +3191,19 @@
         <v>2015</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y13" s="3" t="b">
         <v>0</v>
@@ -3209,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
@@ -3249,19 +3258,19 @@
         <v>2018</v>
       </c>
       <c r="T14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="W14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="Y14" s="3" t="b">
         <v>1</v>
@@ -3276,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -3324,7 +3333,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3365,7 +3374,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3396,19 +3405,19 @@
         <v>2016</v>
       </c>
       <c r="T17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="Y17" s="7" t="b">
         <v>1</v>
@@ -3428,7 +3437,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3461,19 +3470,19 @@
         <v>2016</v>
       </c>
       <c r="T18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="Y18" s="7" t="b">
         <v>1</v>
@@ -3493,10 +3502,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3522,19 +3531,19 @@
         <v>2016</v>
       </c>
       <c r="T19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="W19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Y19" s="7" t="b">
         <v>1</v>
@@ -3554,10 +3563,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3583,19 +3592,19 @@
         <v>2016</v>
       </c>
       <c r="T20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="W20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="Y20" s="7" t="b">
         <v>1</v>
@@ -3615,10 +3624,10 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3644,19 +3653,19 @@
         <v>2016</v>
       </c>
       <c r="T21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="W21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="Y21" s="7" t="b">
         <v>1</v>
@@ -3676,10 +3685,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
@@ -3707,19 +3716,19 @@
         <v>2016</v>
       </c>
       <c r="T22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="W22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="Y22" s="7" t="b">
         <v>1</v>
@@ -3739,10 +3748,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
@@ -3772,19 +3781,19 @@
         <v>2016</v>
       </c>
       <c r="T23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="W23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="X23" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="Y23" s="7" t="b">
         <v>1</v>
@@ -3804,10 +3813,10 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3835,19 +3844,19 @@
         <v>2016</v>
       </c>
       <c r="T24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="W24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="Y24" s="7" t="b">
         <v>1</v>
@@ -3867,10 +3876,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3898,19 +3907,19 @@
         <v>2016</v>
       </c>
       <c r="T25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U25" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="V25" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="W25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="X25" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Y25" s="7" t="b">
         <v>1</v>
@@ -3930,10 +3939,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3959,19 +3968,19 @@
         <v>2016</v>
       </c>
       <c r="T26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="U26" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="W26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="X26" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="Y26" s="7" t="b">
         <v>1</v>
@@ -3991,10 +4000,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -4020,19 +4029,19 @@
         <v>2016</v>
       </c>
       <c r="T27" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="W27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="X27" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="Y27" s="7" t="b">
         <v>1</v>
@@ -4052,10 +4061,10 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -4081,19 +4090,19 @@
         <v>2016</v>
       </c>
       <c r="T28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="U28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="V28" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="W28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="X28" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="Y28" s="7" t="b">
         <v>1</v>
@@ -4113,10 +4122,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
@@ -4144,19 +4153,19 @@
         <v>2016</v>
       </c>
       <c r="T29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="W29" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="X29" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="Y29" s="7" t="b">
         <v>1</v>
@@ -4176,10 +4185,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -4207,19 +4216,19 @@
         <v>2016</v>
       </c>
       <c r="T30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="U30" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V30" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="W30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="X30" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="Y30" s="7" t="b">
         <v>1</v>
@@ -4345,25 +4354,25 @@
         <v>20</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="I36" s="3">
         <v>70</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L36" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="N36" s="3" t="b">
         <v>0</v>
@@ -4389,25 +4398,25 @@
         <v>20</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I37" s="3">
         <v>70</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="L37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="N37" s="3" t="b">
         <v>1</v>
@@ -4506,13 +4515,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="3">
         <v>50</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44" s="3">
         <v>-12</v>
@@ -4539,22 +4548,22 @@
         <v>2015</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N44" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="S44" s="3" t="b">
         <v>0</v>
@@ -4565,13 +4574,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="3">
         <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E45" s="3">
         <v>12</v>
@@ -4598,22 +4607,22 @@
         <v>2013</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q45" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="S45" s="3" t="b">
         <v>0</v>
@@ -4624,13 +4633,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="3">
         <v>50</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E46" s="3">
         <v>-12</v>
@@ -4657,22 +4666,22 @@
         <v>2015</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S46" s="3" t="b">
         <v>0</v>
@@ -4683,13 +4692,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="3">
         <v>50</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E47" s="3">
         <v>12</v>
@@ -4716,22 +4725,22 @@
         <v>2013</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q47" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="S47" s="3" t="b">
         <v>0</v>
@@ -4742,13 +4751,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="3">
         <v>50</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
@@ -4775,22 +4784,22 @@
         <v>2015</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q48" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="S48" s="3" t="b">
         <v>1</v>
@@ -4801,13 +4810,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="3">
         <v>50</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E49" s="3">
         <v>12</v>
@@ -4834,22 +4843,22 @@
         <v>2015</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q49" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="S49" s="3" t="b">
         <v>1</v>
@@ -5030,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="3">
         <v>123</v>
@@ -5063,7 +5072,7 @@
         <v>-2</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5084,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="3">
         <v>123</v>
@@ -5117,7 +5126,7 @@
         <v>-2</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>15</v>
@@ -5132,7 +5141,7 @@
         <v>2014</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -5148,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" s="3">
         <v>123</v>
@@ -5181,7 +5190,7 @@
         <v>2</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>15</v>
@@ -5196,7 +5205,7 @@
         <v>2014</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -5212,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="3">
         <v>123</v>
@@ -5245,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>15</v>
@@ -5260,22 +5269,22 @@
         <v>2015</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T59" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="U59" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="U59" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="V59" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W59" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X59" s="3" t="b">
         <v>1</v>
@@ -5286,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="3">
         <v>1234</v>
@@ -5319,13 +5328,13 @@
         <v>2</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="P60" s="3">
         <v>2015</v>
@@ -5334,110 +5343,110 @@
         <v>2015</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S60" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V60" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="T60" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="U60" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="V60" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="W60" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X60" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M65" s="10" t="s">
+      <c r="M65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N65" s="10" t="s">
+      <c r="N65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O65" s="10" t="s">
+      <c r="O65" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P65" s="10" t="s">
+      <c r="P65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q65" s="10" t="s">
+      <c r="Q65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R65" s="10" t="s">
+      <c r="R65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S65" s="10" t="s">
+      <c r="S65" s="4" t="s">
         <v>102</v>
       </c>
       <c r="T65" s="4" t="s">
@@ -5445,102 +5454,110 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>267</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>2014</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F66">
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2014</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="3">
         <v>100</v>
       </c>
-      <c r="G66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H66">
+      <c r="G67" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H67" s="3">
         <v>3</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K66">
-        <v>2015</v>
-      </c>
-      <c r="L66">
-        <v>2014</v>
-      </c>
-      <c r="T66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67">
-        <v>2014</v>
-      </c>
-      <c r="E67" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67">
-        <v>100</v>
-      </c>
-      <c r="G67" t="s">
-        <v>271</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67" t="s">
-        <v>55</v>
-      </c>
-      <c r="J67" t="s">
-        <v>55</v>
-      </c>
-      <c r="K67">
-        <v>2015</v>
-      </c>
-      <c r="L67">
-        <v>2015</v>
-      </c>
-      <c r="N67" t="s">
-        <v>241</v>
+      <c r="K67" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="O67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R67" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="P67" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>158</v>
-      </c>
-      <c r="R67" t="s">
-        <v>251</v>
-      </c>
-      <c r="S67" t="s">
-        <v>265</v>
-      </c>
-      <c r="T67" t="b">
+      <c r="S67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="T67" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5582,10 +5599,10 @@
         <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>87</v>
@@ -5639,10 +5656,10 @@
         <v>134</v>
       </c>
       <c r="V75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="W75" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="W75" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="X75" s="4" t="s">
         <v>135</v>
@@ -5659,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>24</v>
@@ -5697,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>64</v>
@@ -5735,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="3">
         <v>2016</v>
@@ -5773,7 +5790,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>18</v>
@@ -5811,7 +5828,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>52</v>
@@ -5863,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>52</v>
@@ -5897,19 +5914,19 @@
         <v>2015</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="T81" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>28</v>
@@ -5924,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="Y81" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z81" s="3" t="b">
         <v>1</v>
@@ -5935,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>52</v>
@@ -5969,19 +5986,19 @@
         <v>2015</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R82" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="S82" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="T82" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U82" s="3" t="s">
         <v>29</v>
@@ -5990,7 +6007,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z82" s="3" t="b">
         <v>1</v>
@@ -6006,7 +6023,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -6052,7 +6069,7 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -6090,7 +6107,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -6128,7 +6145,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -6155,19 +6172,19 @@
         <v>2015</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S86" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S86" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="T86" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U86" s="3" t="s">
         <v>28</v>
@@ -6182,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="Y86" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z86" s="3" t="b">
         <v>1</v>
@@ -6198,10 +6215,10 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -6217,7 +6234,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -6244,10 +6261,10 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -6271,17 +6288,17 @@
         <v>2015</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S88" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="T88" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U88" s="3" t="s">
         <v>29</v>
@@ -6290,7 +6307,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z88" s="3" t="b">
         <v>1</v>
@@ -6306,10 +6323,10 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -6333,17 +6350,17 @@
         <v>2015</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S89" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="T89" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>28</v>
@@ -6358,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z89" s="3" t="b">
         <v>1</v>
@@ -6374,10 +6391,10 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3">
@@ -6403,23 +6420,23 @@
         <v>2015</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S90" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="S90" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="T90" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U90" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W90" s="3">
         <v>2016</v>
@@ -6428,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z90" s="3" t="b">
         <v>1</v>
@@ -6444,10 +6461,10 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3">
@@ -6473,17 +6490,17 @@
         <v>2015</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="T91" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>28</v>
@@ -6498,7 +6515,7 @@
         <v>5</v>
       </c>
       <c r="Y91" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z91" s="3" t="b">
         <v>1</v>
@@ -6514,10 +6531,10 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -6541,17 +6558,17 @@
         <v>2015</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="S92" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="T92" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U92" s="3" t="s">
         <v>29</v>
@@ -6560,7 +6577,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
@@ -6576,10 +6593,10 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -6597,7 +6614,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -6624,10 +6641,10 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6651,17 +6668,17 @@
         <v>2015</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="T94" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>29</v>
@@ -6670,7 +6687,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z94" s="3" t="b">
         <v>1</v>
@@ -6686,10 +6703,10 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -6713,17 +6730,17 @@
         <v>2015</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S95" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S95" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="T95" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U95" s="3" t="s">
         <v>28</v>
@@ -6738,7 +6755,7 @@
         <v>5</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
@@ -6754,10 +6771,10 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
@@ -6783,23 +6800,23 @@
         <v>2015</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S96" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="S96" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="T96" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U96" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W96" s="3">
         <v>2016</v>
@@ -6808,7 +6825,7 @@
         <v>5</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z96" s="3" t="b">
         <v>1</v>
@@ -6824,10 +6841,10 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -6851,17 +6868,17 @@
         <v>2015</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S97" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="S97" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="T97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U97" s="3" t="s">
         <v>28</v>
@@ -6876,7 +6893,7 @@
         <v>5</v>
       </c>
       <c r="Y97" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z97" s="3" t="b">
         <v>1</v>
@@ -6892,10 +6909,10 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
@@ -6921,17 +6938,17 @@
         <v>2015</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S98" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="S98" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="T98" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U98" s="3" t="s">
         <v>29</v>
@@ -6940,7 +6957,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z98" s="3" t="b">
         <v>1</v>
@@ -7001,7 +7018,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -7035,7 +7052,7 @@
         <v>7</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>100</v>
@@ -7061,7 +7078,7 @@
         <v>55</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D104" s="3">
         <v>2015</v>
@@ -7073,19 +7090,19 @@
         <v>19</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I104" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J104" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="L104" s="7" t="b">
         <v>0</v>
@@ -7111,19 +7128,19 @@
         <v>19</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I105" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="L105" s="7" t="b">
         <v>1</v>
@@ -7131,7 +7148,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
@@ -7167,7 +7184,7 @@
         <v>7</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>74</v>
@@ -7182,7 +7199,7 @@
         <v>101</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M111" s="18" t="s">
         <v>102</v>
@@ -7198,8 +7215,8 @@
       <c r="B112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>156</v>
+      <c r="C112" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D112" s="3">
         <v>2015</v>
@@ -7211,21 +7228,21 @@
         <v>19</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J112" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N112" s="7" t="b">
         <v>0</v>
@@ -7251,21 +7268,21 @@
         <v>19</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J113" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N113" s="7" t="b">
         <v>1</v>
@@ -7273,7 +7290,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
@@ -7309,7 +7326,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>74</v>
@@ -7324,7 +7341,7 @@
         <v>101</v>
       </c>
       <c r="L118" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M118" s="18" t="s">
         <v>102</v>
@@ -7340,8 +7357,8 @@
       <c r="B119" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>156</v>
+      <c r="C119" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D119" s="3">
         <v>2015</v>
@@ -7353,21 +7370,21 @@
         <v>19</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J119" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N119" s="7" t="b">
         <v>0</v>
@@ -7393,21 +7410,21 @@
         <v>19</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N120" s="7" t="b">
         <v>1</v>
@@ -7447,7 +7464,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -7483,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>74</v>
@@ -7498,7 +7515,7 @@
         <v>101</v>
       </c>
       <c r="L124" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M124" s="18" t="s">
         <v>102</v>
@@ -7515,7 +7532,7 @@
         <v>55</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D125" s="3">
         <v>2015</v>
@@ -7527,21 +7544,21 @@
         <v>19</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J125" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N125" s="7" t="b">
         <v>0</v>
@@ -7567,21 +7584,21 @@
         <v>19</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J126" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="L126" s="3"/>
       <c r="M126" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N126" s="7" t="b">
         <v>1</v>
@@ -7669,7 +7686,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -7699,22 +7716,22 @@
         <v>113</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="G133" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H133" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>96</v>
@@ -7729,7 +7746,7 @@
         <v>99</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="N133" s="4" t="s">
         <v>74</v>
@@ -7744,7 +7761,7 @@
         <v>101</v>
       </c>
       <c r="R133" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S133" s="4" t="s">
         <v>102</v>
@@ -7758,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C134" s="3">
         <v>1000</v>
@@ -7767,7 +7784,7 @@
         <v>19</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F134" s="3">
         <v>8</v>
@@ -7782,7 +7799,7 @@
         <v>55</v>
       </c>
       <c r="J134" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K134" s="3">
         <v>2015</v>
@@ -7791,21 +7808,21 @@
         <v>2015</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N134" s="3"/>
       <c r="O134" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P134" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q134" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="Q134" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="R134" s="3"/>
       <c r="S134" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T134" s="7" t="b">
         <v>0</v>
@@ -7816,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="3">
         <v>200000</v>
@@ -7825,7 +7842,7 @@
         <v>19</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3">
@@ -7847,21 +7864,21 @@
         <v>2016</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N135" s="3"/>
       <c r="O135" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P135" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q135" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="Q135" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="R135" s="3"/>
       <c r="S135" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T135" s="7" t="b">
         <v>1</v>
@@ -7917,7 +7934,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -7945,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>87</v>
@@ -8010,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>24</v>
@@ -8050,7 +8067,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>17</v>
@@ -8086,10 +8103,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" s="3">
         <v>2016</v>
@@ -8124,7 +8141,7 @@
         <v>4</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>18</v>
@@ -8155,20 +8172,20 @@
         <v>2015</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R144" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T144" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U144" s="3" t="b">
         <v>0</v>
@@ -8180,7 +8197,7 @@
         <v>5</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>18</v>
@@ -8211,20 +8228,20 @@
         <v>2018</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P145" s="3"/>
       <c r="Q145" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R145" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="R145" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="S145" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T145" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="T145" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="U145" s="3" t="b">
         <v>1</v>
@@ -8236,7 +8253,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>16</v>
@@ -8277,7 +8294,7 @@
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -8311,7 +8328,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -8335,20 +8352,20 @@
         <v>2016</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R148" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R148" s="3" t="s">
+      <c r="S148" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T148" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="S148" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="T148" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="U148" s="7" t="b">
         <v>1</v>
@@ -8365,7 +8382,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -8391,20 +8408,20 @@
         <v>2016</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P149" s="3"/>
       <c r="Q149" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R149" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="R149" s="3" t="s">
+      <c r="S149" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T149" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="S149" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T149" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="U149" s="7" t="b">
         <v>1</v>
@@ -8421,10 +8438,10 @@
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -8445,20 +8462,20 @@
         <v>2016</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P150" s="3"/>
       <c r="Q150" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R150" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="R150" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="S150" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T150" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="T150" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="U150" s="7" t="b">
         <v>1</v>
@@ -8475,10 +8492,10 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -8499,20 +8516,20 @@
         <v>2016</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P151" s="3"/>
       <c r="Q151" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R151" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="R151" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="S151" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T151" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="T151" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="U151" s="7" t="b">
         <v>1</v>
@@ -8529,10 +8546,10 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -8553,20 +8570,20 @@
         <v>2016</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R152" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R152" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="S152" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T152" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="T152" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="U152" s="7" t="b">
         <v>1</v>
@@ -8583,10 +8600,10 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
@@ -8609,20 +8626,20 @@
         <v>2016</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P153" s="3"/>
       <c r="Q153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R153" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R153" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="S153" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T153" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="T153" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="U153" s="7" t="b">
         <v>1</v>
@@ -8639,10 +8656,10 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
@@ -8667,20 +8684,20 @@
         <v>2016</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P154" s="3"/>
       <c r="Q154" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R154" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="R154" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="S154" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="T154" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="T154" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="U154" s="7" t="b">
         <v>1</v>
@@ -8697,10 +8714,10 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -8723,20 +8740,20 @@
         <v>2016</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P155" s="3"/>
       <c r="Q155" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R155" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="R155" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="S155" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T155" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="T155" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="U155" s="7" t="b">
         <v>1</v>
@@ -8753,10 +8770,10 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -8779,20 +8796,20 @@
         <v>2016</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P156" s="3"/>
       <c r="Q156" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R156" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="R156" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="S156" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T156" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="T156" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="U156" s="7" t="b">
         <v>1</v>
@@ -8809,10 +8826,10 @@
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -8833,20 +8850,20 @@
         <v>2016</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P157" s="3"/>
       <c r="Q157" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="R157" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="R157" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="S157" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T157" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="T157" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="U157" s="7" t="b">
         <v>1</v>
@@ -8863,10 +8880,10 @@
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -8887,20 +8904,20 @@
         <v>2016</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="R158" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R158" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="S158" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="T158" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="T158" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="U158" s="7" t="b">
         <v>1</v>
@@ -8917,10 +8934,10 @@
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -8941,20 +8958,20 @@
         <v>2016</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P159" s="3"/>
       <c r="Q159" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R159" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="R159" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="S159" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="T159" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="T159" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="U159" s="7" t="b">
         <v>1</v>
@@ -8971,10 +8988,10 @@
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3">
@@ -8997,20 +9014,20 @@
         <v>2016</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P160" s="3"/>
       <c r="Q160" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R160" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="R160" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="S160" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="T160" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="T160" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="U160" s="7" t="b">
         <v>1</v>
@@ -9027,10 +9044,10 @@
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3">
@@ -9053,20 +9070,20 @@
         <v>2016</v>
       </c>
       <c r="O161" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P161" s="3"/>
       <c r="Q161" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R161" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="R161" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="S161" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T161" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="T161" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="U161" s="7" t="b">
         <v>1</v>
@@ -9286,291 +9303,3102 @@
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
-      <c r="I171" s="14"/>
+      <c r="I171" s="12"/>
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
-      <c r="N171" s="14"/>
-    </row>
-    <row r="173" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="14"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="14"/>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A172" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="25"/>
+      <c r="N172" s="25"/>
+      <c r="O172" s="25"/>
+      <c r="P172" s="25"/>
+      <c r="Q172" s="25"/>
+      <c r="R172" s="25"/>
+      <c r="S172" s="25"/>
+      <c r="T172" s="25"/>
+      <c r="U172" s="25"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N173" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P173" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R173" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S173" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T173" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U173" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>1</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3">
+        <v>200</v>
+      </c>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L174" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="3">
+        <v>2</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3">
+        <v>300</v>
+      </c>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>3</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3">
+        <v>500</v>
+      </c>
+      <c r="J176" s="3">
+        <v>2</v>
+      </c>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>4</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3">
+        <v>500</v>
+      </c>
+      <c r="J177" s="3">
+        <v>2</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M177" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N177" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S177" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T177" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U177" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>5</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3">
+        <v>500</v>
+      </c>
+      <c r="J178" s="3">
+        <v>2</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M178" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N178" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S178" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="U178" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>6</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3">
+        <v>200</v>
+      </c>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+      <c r="U179" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>7</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>8</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J181" s="3">
+        <v>1</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M181" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N181" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S181" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T181" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U181" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>9</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3">
+        <v>10</v>
+      </c>
+      <c r="I182" s="3">
+        <v>22222</v>
+      </c>
+      <c r="J182" s="3">
+        <v>2</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M182" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N182" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S182" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T182" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U182" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>10</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3">
+        <v>330</v>
+      </c>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M183" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N183" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S183" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T183" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="U183" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>11</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3">
+        <v>330</v>
+      </c>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M184" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N184" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S184" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T184" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="U184" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>12</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3">
+        <v>330</v>
+      </c>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M185" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N185" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S185" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T185" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="U185" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>13</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3">
+        <v>5</v>
+      </c>
+      <c r="I186" s="3">
+        <v>330</v>
+      </c>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M186" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N186" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O186" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S186" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T186" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="U186" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>14</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3">
+        <v>2</v>
+      </c>
+      <c r="I187" s="3">
+        <v>330</v>
+      </c>
+      <c r="J187" s="3">
+        <v>5</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M187" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N187" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O187" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S187" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="T187" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="U187" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>15</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3">
+        <v>330</v>
+      </c>
+      <c r="J188" s="3">
+        <v>3</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M188" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N188" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="S188" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T188" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="U188" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>16</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3">
+        <v>500</v>
+      </c>
+      <c r="J189" s="3">
+        <v>2</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M189" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N189" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O189" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S189" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T189" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="U189" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>17</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3">
+        <v>600</v>
+      </c>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M190" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N190" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="R190" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="S190" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T190" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="U190" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>18</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M191" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N191" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="R191" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="S191" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="T191" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="U191" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>19</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M192" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N192" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R192" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="S192" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="T192" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="U192" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>20</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3">
+        <v>10</v>
+      </c>
+      <c r="I193" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M193" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N193" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R193" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S193" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="T193" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="U193" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>21</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3">
+        <v>20</v>
+      </c>
+      <c r="I194" s="3">
+        <v>25352</v>
+      </c>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M194" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N194" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S194" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T194" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="U194" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="14"/>
+    </row>
+    <row r="200" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A202" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202" s="25"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="25"/>
+      <c r="G202" s="25"/>
+      <c r="H202" s="25"/>
+      <c r="I202" s="25"/>
+      <c r="J202" s="25"/>
+      <c r="K202" s="25"/>
+      <c r="L202" s="25"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K203" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>1</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L204" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>2</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L205" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-      <c r="J175" s="25"/>
-      <c r="K175" s="25"/>
-      <c r="L175" s="25"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A176" s="10" t="s">
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="25"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B211" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C211" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D211" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E176" s="10" t="s">
+      <c r="E211" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F176" s="10" t="s">
+      <c r="F211" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G176" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H176" s="10" t="s">
+      <c r="G211" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I176" s="10" t="s">
+      <c r="I211" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J176" s="10" t="s">
+      <c r="J211" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K176" s="10" t="s">
+      <c r="K211" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L176" s="4" t="s">
+      <c r="L211" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
-        <v>1</v>
-      </c>
-      <c r="B177" s="3" t="s">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>1</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C212" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D177" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E177" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F177" s="3" t="s">
+      <c r="D212" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I177" s="3" t="s">
+      <c r="G212" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J212" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="K212" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K177" s="3" t="s">
+      <c r="L212" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>2</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L213" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="25"/>
+      <c r="L218" s="25"/>
+      <c r="M218" s="25"/>
+      <c r="N218" s="25"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F219" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G219" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I219" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J219" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K219" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L219" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="M219" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N219" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>1</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C220" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L177" s="7" t="b">
+      <c r="D220" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E220" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H220" s="3"/>
+      <c r="I220" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N220" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" s="3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
         <v>2</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E221" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H221" s="3"/>
+      <c r="I221" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N221" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A232" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B232" s="26"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="26"/>
+      <c r="I232" s="26"/>
+      <c r="J232" s="26"/>
+      <c r="K232" s="26"/>
+      <c r="L232" s="26"/>
+      <c r="M232" s="26"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="26"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+      <c r="T232" s="26"/>
+      <c r="U232" s="26"/>
+      <c r="V232" s="26"/>
+      <c r="W232" s="26"/>
+      <c r="X232" s="26"/>
+      <c r="Y232" s="26"/>
+      <c r="Z232" s="26"/>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M233" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O233" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q233" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R233" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S233" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T233" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U233" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V233" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="W233" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="X233" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y233" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z233" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>1</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+      <c r="Y234" s="3"/>
+      <c r="Z234" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>2</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D178" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E178" s="3">
+      <c r="D235" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
+      <c r="Y235" s="3"/>
+      <c r="Z235" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>3</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+      <c r="Y236" s="3"/>
+      <c r="Z236" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>4</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="3"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+      <c r="Y237" s="3"/>
+      <c r="Z237" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K238" s="3">
+        <v>2</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N238" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O238" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="3"/>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+      <c r="Y238" s="3"/>
+      <c r="Z238" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>6</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K239" s="3">
+        <v>3</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N239" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O239" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R239" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S239" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T239" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W239" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X239" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y239" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z239" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>7</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K240" s="3">
+        <v>1</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N240" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O240" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P240" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q240" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R240" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S240" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T240" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z240" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>8</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N241" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O241" s="3">
+        <v>2014</v>
+      </c>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
+      <c r="Z241" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>9</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N242" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O242" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+      <c r="Y242" s="3"/>
+      <c r="Z242" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>10</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="3"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
+      <c r="Y243" s="3"/>
+      <c r="Z243" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>11</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3">
+        <v>5</v>
+      </c>
+      <c r="I244" s="3">
+        <v>300</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N244" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O244" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R244" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="U244" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W244" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X244" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y244" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z244" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>12</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3">
+        <v>250</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q245" s="3"/>
+      <c r="R245" s="3"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+      <c r="Y245" s="3"/>
+      <c r="Z245" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>13</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3">
+        <v>100</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N246" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O246" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P246" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S246" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T246" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z246" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>14</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3">
+        <v>101</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N247" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O247" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P247" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S247" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T247" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="U247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W247" s="3">
         <v>2016</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="X247" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y247" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z247" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>15</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3">
+        <v>2</v>
+      </c>
+      <c r="I248" s="3">
+        <v>102</v>
+      </c>
+      <c r="J248" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G178" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L178" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
-      <c r="J183" s="25"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H184" s="10" t="s">
+      <c r="K248" s="3"/>
+      <c r="L248" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N248" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O248" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P248" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S248" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T248" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="U248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V248" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W248" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X248" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y248" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z248" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>16</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3">
+        <v>20</v>
+      </c>
+      <c r="I249" s="3">
+        <v>102</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N249" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O249" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S249" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T249" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="U249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W249" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X249" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y249" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z249" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>17</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3">
+        <v>102</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N250" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O250" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P250" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S250" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T250" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="U250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
+      <c r="Y250" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z250" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>18</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3">
+        <v>250</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="3">
+        <v>6</v>
+      </c>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>19</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3">
         <v>100</v>
       </c>
-      <c r="I184" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J184" s="10" t="s">
+      <c r="J252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O252" s="3">
+        <v>2017</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S252" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T252" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="U252" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+      <c r="Y252" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z252" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>20</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3">
         <v>101</v>
       </c>
-      <c r="K184" s="10" t="s">
+      <c r="J253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N253" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O253" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P253" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S253" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T253" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="U253" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W253" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X253" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y253" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z253" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>21</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3">
+        <v>2</v>
+      </c>
+      <c r="I254" s="3">
         <v>102</v>
       </c>
-      <c r="L184" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
-        <v>1</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D185" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E185" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F185" s="3" t="s">
+      <c r="J254" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G185" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K185" s="3" t="s">
+      <c r="K254" s="3"/>
+      <c r="L254" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N254" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O254" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P254" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S254" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T254" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="U254" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V254" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L185" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
+      <c r="W254" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X254" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y254" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z254" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>22</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3">
+        <v>102</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N255" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O255" s="3">
+        <v>2017</v>
+      </c>
+      <c r="P255" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S255" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T255" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U255" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V255" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W255" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X255" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y255" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z255" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>23</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3">
         <v>2</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" s="3" t="s">
+      <c r="I256" s="3">
+        <v>102</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D186" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E186" s="3">
+      <c r="M256" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N256" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O256" s="3">
         <v>2016</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K186" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L186" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="P256" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S256" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T256" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="U256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V256" s="3"/>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
+      <c r="Y256" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z256" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="3"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
+      <c r="V257" s="3"/>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
+      <c r="Y257" s="3"/>
+      <c r="Z257" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A64:T64"/>
-    <mergeCell ref="A117:N117"/>
-    <mergeCell ref="A123:N123"/>
-    <mergeCell ref="A132:T132"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A42:S42"/>
     <mergeCell ref="A54:X54"/>
-    <mergeCell ref="A183:L183"/>
-    <mergeCell ref="A175:L175"/>
+    <mergeCell ref="A218:N218"/>
+    <mergeCell ref="A232:Z232"/>
+    <mergeCell ref="A64:T64"/>
+    <mergeCell ref="A117:N117"/>
+    <mergeCell ref="A123:N123"/>
+    <mergeCell ref="A132:T132"/>
+    <mergeCell ref="A210:L210"/>
+    <mergeCell ref="A202:L202"/>
     <mergeCell ref="A110:N110"/>
     <mergeCell ref="A74:Z74"/>
     <mergeCell ref="A102:L102"/>
     <mergeCell ref="A139:U139"/>
+    <mergeCell ref="A172:U172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22305" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21840" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -1236,9 +1236,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,6 +1243,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2738,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245:XFD245"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2772,19 +2772,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2892,33 +2892,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -5060,32 +5060,52 @@
         <v>3</v>
       </c>
       <c r="I56" s="3">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="J56" s="3">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="K56" s="3">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="L56" s="3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>2015</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="X56" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -5128,21 +5148,11 @@
       <c r="M57" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2015</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -5178,16 +5188,16 @@
         <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="J58" s="3">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="K58" s="3">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="L58" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>248</v>
@@ -5254,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>15</v>
@@ -5266,28 +5276,18 @@
         <v>2015</v>
       </c>
       <c r="Q59" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="U59" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="W59" s="7" t="s">
-        <v>265</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
       <c r="X59" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -5562,34 +5562,34 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="26"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="26"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -10601,7 +10601,7 @@
         <v>55</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D204" s="3">
         <v>2015</v>
@@ -10731,7 +10731,7 @@
         <v>55</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D212" s="3">
         <v>2015</v>
@@ -10942,34 +10942,34 @@
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A232" s="26" t="s">
+      <c r="A232" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="26"/>
-      <c r="G232" s="26"/>
-      <c r="H232" s="26"/>
-      <c r="I232" s="26"/>
-      <c r="J232" s="26"/>
-      <c r="K232" s="26"/>
-      <c r="L232" s="26"/>
-      <c r="M232" s="26"/>
-      <c r="N232" s="26"/>
-      <c r="O232" s="26"/>
-      <c r="P232" s="26"/>
-      <c r="Q232" s="26"/>
-      <c r="R232" s="26"/>
-      <c r="S232" s="26"/>
-      <c r="T232" s="26"/>
-      <c r="U232" s="26"/>
-      <c r="V232" s="26"/>
-      <c r="W232" s="26"/>
-      <c r="X232" s="26"/>
-      <c r="Y232" s="26"/>
-      <c r="Z232" s="26"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="29"/>
+      <c r="H232" s="29"/>
+      <c r="I232" s="29"/>
+      <c r="J232" s="29"/>
+      <c r="K232" s="29"/>
+      <c r="L232" s="29"/>
+      <c r="M232" s="29"/>
+      <c r="N232" s="29"/>
+      <c r="O232" s="29"/>
+      <c r="P232" s="29"/>
+      <c r="Q232" s="29"/>
+      <c r="R232" s="29"/>
+      <c r="S232" s="29"/>
+      <c r="T232" s="29"/>
+      <c r="U232" s="29"/>
+      <c r="V232" s="29"/>
+      <c r="W232" s="29"/>
+      <c r="X232" s="29"/>
+      <c r="Y232" s="29"/>
+      <c r="Z232" s="29"/>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
@@ -12381,11 +12381,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="A54:X54"/>
     <mergeCell ref="A218:N218"/>
     <mergeCell ref="A232:Z232"/>
     <mergeCell ref="A64:T64"/>
@@ -12399,6 +12394,11 @@
     <mergeCell ref="A102:L102"/>
     <mergeCell ref="A139:U139"/>
     <mergeCell ref="A172:U172"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A54:X54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -1236,6 +1236,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1243,12 +1249,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2736,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE257"/>
+  <dimension ref="A1:AE256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="J230" workbookViewId="0">
+      <selection activeCell="L240" sqref="L240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2772,19 +2772,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2892,33 +2892,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -3009,45 +3009,63 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
       <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S10" s="3">
         <v>2016</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="b">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y10" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -3056,23 +3074,23 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3080,8 +3098,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2016</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -3099,34 +3121,28 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -3148,16 +3164,16 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D13" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3172,39 +3188,21 @@
       <c r="K13" s="3">
         <v>10</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>2</v>
       </c>
-      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S13" s="3">
-        <v>2015</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
       <c r="Y13" s="3" t="b">
         <v>0</v>
       </c>
@@ -3215,7 +3213,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>144</v>
@@ -3255,25 +3253,25 @@
         <v>2015</v>
       </c>
       <c r="S14" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -3282,39 +3280,63 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>200</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="Y15" s="3" t="b">
         <v>1</v>
       </c>
@@ -3325,21 +3347,23 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3366,7 +3390,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>78</v>
@@ -3380,46 +3404,24 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y17" s="7" t="b">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Z17" s="12"/>
@@ -3429,7 +3431,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>78</v>
@@ -3437,24 +3439,22 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>10</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>22222</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
@@ -3470,19 +3470,19 @@
         <v>2016</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Y18" s="7" t="b">
         <v>1</v>
@@ -3494,29 +3494,33 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
       <c r="I19" s="3">
-        <v>330</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>22222</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
         <v>55</v>
@@ -3531,19 +3535,19 @@
         <v>2016</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="Y19" s="7" t="b">
         <v>1</v>
@@ -3555,7 +3559,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>82</v>
@@ -3566,7 +3570,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3592,19 +3596,19 @@
         <v>2016</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y20" s="7" t="b">
         <v>1</v>
@@ -3616,7 +3620,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>82</v>
@@ -3627,7 +3631,7 @@
         <v>163</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3653,19 +3657,19 @@
         <v>2016</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y21" s="7" t="b">
         <v>1</v>
@@ -3677,7 +3681,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>82</v>
@@ -3685,15 +3689,13 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>5</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>330</v>
       </c>
@@ -3716,19 +3718,19 @@
         <v>2016</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y22" s="7" t="b">
         <v>1</v>
@@ -3740,7 +3742,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>82</v>
@@ -3751,18 +3753,16 @@
         <v>171</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" s="3">
         <v>330</v>
       </c>
-      <c r="J23" s="3">
-        <v>5</v>
-      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -3781,19 +3781,19 @@
         <v>2016</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y23" s="7" t="b">
         <v>1</v>
@@ -4270,22 +4270,22 @@
       <c r="AC31" s="12"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="16"/>
@@ -4423,27 +4423,27 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
@@ -4928,32 +4928,32 @@
       <c r="S52" s="12"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
@@ -5365,28 +5365,28 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
@@ -5562,34 +5562,34 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="26"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="26"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -10942,34 +10942,34 @@
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A232" s="29" t="s">
+      <c r="A232" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="29"/>
-      <c r="J232" s="29"/>
-      <c r="K232" s="29"/>
-      <c r="L232" s="29"/>
-      <c r="M232" s="29"/>
-      <c r="N232" s="29"/>
-      <c r="O232" s="29"/>
-      <c r="P232" s="29"/>
-      <c r="Q232" s="29"/>
-      <c r="R232" s="29"/>
-      <c r="S232" s="29"/>
-      <c r="T232" s="29"/>
-      <c r="U232" s="29"/>
-      <c r="V232" s="29"/>
-      <c r="W232" s="29"/>
-      <c r="X232" s="29"/>
-      <c r="Y232" s="29"/>
-      <c r="Z232" s="29"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="26"/>
+      <c r="I232" s="26"/>
+      <c r="J232" s="26"/>
+      <c r="K232" s="26"/>
+      <c r="L232" s="26"/>
+      <c r="M232" s="26"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="26"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+      <c r="T232" s="26"/>
+      <c r="U232" s="26"/>
+      <c r="V232" s="26"/>
+      <c r="W232" s="26"/>
+      <c r="X232" s="26"/>
+      <c r="Y232" s="26"/>
+      <c r="Z232" s="26"/>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
@@ -11053,236 +11053,356 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D234" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
+      <c r="I234" s="3">
+        <v>250</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="3">
+        <v>6</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N234" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O234" s="3">
+        <v>2017</v>
+      </c>
+      <c r="P234" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
       <c r="S234" s="3"/>
       <c r="T234" s="3"/>
-      <c r="U234" s="3"/>
+      <c r="U234" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
       <c r="Z234" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D235" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
+      <c r="I235" s="3">
+        <v>100</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
+      <c r="L235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N235" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O235" s="3">
+        <v>2017</v>
+      </c>
+      <c r="P235" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="Q235" s="3"/>
-      <c r="R235" s="3"/>
-      <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
+      <c r="R235" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S235" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T235" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="U235" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
-      <c r="Y235" s="3"/>
+      <c r="Y235" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="Z235" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D236" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
+      <c r="I236" s="3">
+        <v>101</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3"/>
+      <c r="L236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N236" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O236" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P236" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="Q236" s="3"/>
-      <c r="R236" s="3"/>
-      <c r="S236" s="3"/>
-      <c r="T236" s="3"/>
-      <c r="U236" s="3"/>
-      <c r="V236" s="3"/>
-      <c r="W236" s="3"/>
-      <c r="X236" s="3"/>
-      <c r="Y236" s="3"/>
+      <c r="R236" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S236" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T236" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="U236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W236" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X236" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y236" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="Z236" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D237" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
+      <c r="H237" s="3">
+        <v>2</v>
+      </c>
+      <c r="I237" s="3">
+        <v>102</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
+      <c r="L237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N237" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O237" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P237" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="Q237" s="3"/>
-      <c r="R237" s="3"/>
-      <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
-      <c r="U237" s="3"/>
-      <c r="V237" s="3"/>
-      <c r="W237" s="3"/>
-      <c r="X237" s="3"/>
-      <c r="Y237" s="3"/>
+      <c r="R237" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S237" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T237" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="U237" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V237" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W237" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X237" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y237" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="Z237" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D238" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K238" s="3">
-        <v>2</v>
-      </c>
+      <c r="K238" s="3"/>
       <c r="L238" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N238" s="3">
         <v>2015</v>
       </c>
       <c r="O238" s="3">
-        <v>2014</v>
-      </c>
-      <c r="P238" s="3"/>
+        <v>2017</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="Q238" s="3"/>
-      <c r="R238" s="3"/>
-      <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
-      <c r="U238" s="3"/>
-      <c r="V238" s="3"/>
-      <c r="W238" s="3"/>
-      <c r="X238" s="3"/>
-      <c r="Y238" s="3"/>
+      <c r="R238" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S238" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T238" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W238" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X238" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y238" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="Z238" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D239" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="H239" s="3">
+        <v>2</v>
+      </c>
       <c r="I239" s="3">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K239" s="3">
-        <v>3</v>
-      </c>
+      <c r="K239" s="3"/>
       <c r="L239" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M239" s="3" t="s">
         <v>16</v>
@@ -11291,70 +11411,60 @@
         <v>2015</v>
       </c>
       <c r="O239" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q239" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="Q239" s="3"/>
       <c r="R239" s="3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="T239" s="3" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V239" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W239" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X239" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
       <c r="Y239" s="3" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="Z239" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D240" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K240" s="3">
-        <v>1</v>
-      </c>
+      <c r="K240" s="3"/>
       <c r="L240" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M240" s="3" t="s">
         <v>16</v>
@@ -11363,104 +11473,114 @@
         <v>2015</v>
       </c>
       <c r="O240" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q240" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="R240" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S240" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T240" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
       <c r="U240" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
-      <c r="Y240" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="Y240" s="3"/>
       <c r="Z240" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F241" s="3"/>
+      <c r="F241" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J241" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N241" s="3">
         <v>2015</v>
       </c>
       <c r="O241" s="3">
-        <v>2014</v>
-      </c>
-      <c r="P241" s="3"/>
+        <v>2015</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="Q241" s="3"/>
-      <c r="R241" s="3"/>
-      <c r="S241" s="3"/>
-      <c r="T241" s="3"/>
-      <c r="U241" s="3"/>
+      <c r="R241" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S241" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T241" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U241" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
-      <c r="Y241" s="3"/>
+      <c r="Y241" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="Z241" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F242" s="3"/>
+      <c r="F242" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J242" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M242" s="3" t="s">
         <v>16</v>
@@ -11471,77 +11591,129 @@
       <c r="O242" s="3">
         <v>2015</v>
       </c>
-      <c r="P242" s="3"/>
+      <c r="P242" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="Q242" s="3"/>
-      <c r="R242" s="3"/>
-      <c r="S242" s="3"/>
-      <c r="T242" s="3"/>
-      <c r="U242" s="3"/>
-      <c r="V242" s="3"/>
-      <c r="W242" s="3"/>
-      <c r="X242" s="3"/>
-      <c r="Y242" s="3"/>
+      <c r="R242" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S242" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T242" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="U242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W242" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X242" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y242" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="Z242" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F243" s="3"/>
+      <c r="F243" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
+      <c r="H243" s="3">
+        <v>2</v>
+      </c>
       <c r="I243" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J243" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
+      <c r="L243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N243" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O243" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="Q243" s="3"/>
-      <c r="R243" s="3"/>
-      <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
-      <c r="U243" s="3"/>
-      <c r="V243" s="3"/>
-      <c r="W243" s="3"/>
-      <c r="X243" s="3"/>
-      <c r="Y243" s="3"/>
+      <c r="R243" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T243" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="U243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V243" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W243" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X243" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y243" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="Z243" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F244" s="3"/>
+      <c r="F244" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I244" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>19</v>
@@ -11560,34 +11732,32 @@
         <v>2015</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q244" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="Q244" s="3"/>
       <c r="R244" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="S244" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="T244" s="3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="U244" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V244" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W244" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="X244" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y244" s="3" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z244" s="3" t="b">
         <v>1</v>
@@ -11595,7 +11765,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>82</v>
@@ -11603,448 +11773,362 @@
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
-      <c r="O245" s="3"/>
+      <c r="L245" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N245" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O245" s="3">
+        <v>2015</v>
+      </c>
       <c r="P245" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="Q245" s="3"/>
-      <c r="R245" s="3"/>
-      <c r="S245" s="3"/>
-      <c r="T245" s="3"/>
+      <c r="R245" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S245" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T245" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="U245" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
-      <c r="Y245" s="3"/>
+      <c r="Y245" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="Z245" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
-      <c r="I246" s="3">
-        <v>100</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
       <c r="K246" s="3"/>
-      <c r="L246" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M246" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N246" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O246" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P246" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
-      <c r="R246" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S246" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T246" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="U246" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
-      <c r="Y246" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="Y246" s="3"/>
       <c r="Z246" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
-      <c r="I247" s="3">
-        <v>101</v>
-      </c>
-      <c r="J247" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
       <c r="K247" s="3"/>
-      <c r="L247" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M247" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N247" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O247" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P247" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
-      <c r="R247" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="S247" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T247" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="U247" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V247" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W247" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X247" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y247" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+      <c r="Y247" s="3"/>
       <c r="Z247" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
       <c r="G248" s="3"/>
-      <c r="H248" s="3">
-        <v>2</v>
-      </c>
-      <c r="I248" s="3">
-        <v>102</v>
-      </c>
-      <c r="J248" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
       <c r="K248" s="3"/>
-      <c r="L248" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M248" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N248" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O248" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P248" s="3" t="s">
-        <v>284</v>
-      </c>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
-      <c r="R248" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S248" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="T248" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="U248" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V248" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W248" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X248" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y248" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="R248" s="3"/>
+      <c r="S248" s="3"/>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
+      <c r="Y248" s="3"/>
       <c r="Z248" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
       <c r="G249" s="3"/>
-      <c r="H249" s="3">
-        <v>20</v>
-      </c>
-      <c r="I249" s="3">
-        <v>102</v>
-      </c>
-      <c r="J249" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
       <c r="K249" s="3"/>
-      <c r="L249" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M249" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N249" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O249" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P249" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
-      <c r="R249" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S249" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="T249" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="U249" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V249" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W249" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X249" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y249" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
+      <c r="Y249" s="3"/>
       <c r="Z249" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3">
-        <v>102</v>
+        <v>1000</v>
       </c>
       <c r="J250" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K250" s="3"/>
+      <c r="K250" s="3">
+        <v>2</v>
+      </c>
       <c r="L250" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N250" s="3">
         <v>2015</v>
       </c>
       <c r="O250" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P250" s="3" t="s">
-        <v>290</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
-      <c r="R250" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S250" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="T250" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="U250" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
-      <c r="Y250" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="Y250" s="3"/>
       <c r="Z250" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J251" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K251" s="3">
-        <v>6</v>
-      </c>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N251" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O251" s="3">
+        <v>2015</v>
+      </c>
       <c r="P251" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q251" s="3"/>
-      <c r="R251" s="3"/>
-      <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="Q251" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R251" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S251" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T251" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="U251" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V251" s="3"/>
-      <c r="W251" s="3"/>
-      <c r="X251" s="3"/>
-      <c r="Y251" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W251" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X251" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y251" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Z251" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J252" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K252" s="3"/>
+      <c r="K252" s="3">
+        <v>1</v>
+      </c>
       <c r="L252" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M252" s="3" t="s">
         <v>16</v>
@@ -12053,20 +12137,22 @@
         <v>2015</v>
       </c>
       <c r="O252" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P252" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q252" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="Q252" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="R252" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S252" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="T252" s="3" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="U252" s="3" t="s">
         <v>29</v>
@@ -12075,7 +12161,7 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
       <c r="Y252" s="3" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="Z252" s="3" t="b">
         <v>1</v>
@@ -12083,100 +12169,72 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F253" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3">
-        <v>101</v>
-      </c>
-      <c r="J253" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N253" s="3">
         <v>2015</v>
       </c>
       <c r="O253" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P253" s="3" t="s">
-        <v>281</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
-      <c r="R253" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="S253" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T253" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="U253" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V253" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W253" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X253" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y253" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+      <c r="Y253" s="3"/>
       <c r="Z253" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F254" s="3"/>
       <c r="G254" s="3"/>
-      <c r="H254" s="3">
-        <v>2</v>
-      </c>
+      <c r="H254" s="3"/>
       <c r="I254" s="3">
-        <v>102</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M254" s="3" t="s">
         <v>16</v>
@@ -12187,127 +12245,77 @@
       <c r="O254" s="3">
         <v>2015</v>
       </c>
-      <c r="P254" s="3" t="s">
-        <v>284</v>
-      </c>
+      <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
-      <c r="R254" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S254" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="T254" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="U254" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V254" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W254" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X254" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y254" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="R254" s="3"/>
+      <c r="S254" s="3"/>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+      <c r="Y254" s="3"/>
       <c r="Z254" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F255" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3">
-        <v>102</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J255" s="3"/>
       <c r="K255" s="3"/>
-      <c r="L255" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M255" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N255" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O255" s="3">
-        <v>2017</v>
-      </c>
-      <c r="P255" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
-      <c r="R255" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S255" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="T255" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="U255" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V255" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W255" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X255" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y255" s="3" t="s">
-        <v>301</v>
-      </c>
+      <c r="R255" s="3"/>
+      <c r="S255" s="3"/>
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
+      <c r="Y255" s="3"/>
       <c r="Z255" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F256" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I256" s="3">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="J256" s="3" t="s">
         <v>19</v>
@@ -12323,64 +12331,49 @@
         <v>2015</v>
       </c>
       <c r="O256" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P256" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q256" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="Q256" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="R256" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="S256" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="T256" s="3" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="U256" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V256" s="3"/>
-      <c r="W256" s="3"/>
-      <c r="X256" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V256" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W256" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X256" s="3">
+        <v>2</v>
+      </c>
       <c r="Y256" s="3" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="Z256" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
-      <c r="O257" s="3"/>
-      <c r="P257" s="3"/>
-      <c r="Q257" s="3"/>
-      <c r="R257" s="3"/>
-      <c r="S257" s="3"/>
-      <c r="T257" s="3"/>
-      <c r="U257" s="3"/>
-      <c r="V257" s="3"/>
-      <c r="W257" s="3"/>
-      <c r="X257" s="3"/>
-      <c r="Y257" s="3"/>
-      <c r="Z257" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A54:X54"/>
     <mergeCell ref="A218:N218"/>
     <mergeCell ref="A232:Z232"/>
     <mergeCell ref="A64:T64"/>
@@ -12394,11 +12387,6 @@
     <mergeCell ref="A102:L102"/>
     <mergeCell ref="A139:U139"/>
     <mergeCell ref="A172:U172"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="A54:X54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21840" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20805" windowHeight="5175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="ViewTab" sheetId="3" r:id="rId3"/>
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="J230:P245"/>
 </workbook>
 </file>
 
@@ -1236,12 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,6 +1244,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1313,7 +1314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,7 +1349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,7 +1561,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2738,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J230" workbookViewId="0">
-      <selection activeCell="L240" sqref="L240"/>
+    <sheetView tabSelected="1" topLeftCell="J162" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:U172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2772,19 +2773,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2892,33 +2893,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -4270,22 +4271,22 @@
       <c r="AC31" s="12"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="16"/>
@@ -4423,27 +4424,27 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
@@ -4928,32 +4929,32 @@
       <c r="S52" s="12"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
@@ -5365,28 +5366,28 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
@@ -5562,34 +5563,34 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="26"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="26"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -10942,34 +10943,34 @@
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A232" s="26" t="s">
+      <c r="A232" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="26"/>
-      <c r="G232" s="26"/>
-      <c r="H232" s="26"/>
-      <c r="I232" s="26"/>
-      <c r="J232" s="26"/>
-      <c r="K232" s="26"/>
-      <c r="L232" s="26"/>
-      <c r="M232" s="26"/>
-      <c r="N232" s="26"/>
-      <c r="O232" s="26"/>
-      <c r="P232" s="26"/>
-      <c r="Q232" s="26"/>
-      <c r="R232" s="26"/>
-      <c r="S232" s="26"/>
-      <c r="T232" s="26"/>
-      <c r="U232" s="26"/>
-      <c r="V232" s="26"/>
-      <c r="W232" s="26"/>
-      <c r="X232" s="26"/>
-      <c r="Y232" s="26"/>
-      <c r="Z232" s="26"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="29"/>
+      <c r="H232" s="29"/>
+      <c r="I232" s="29"/>
+      <c r="J232" s="29"/>
+      <c r="K232" s="29"/>
+      <c r="L232" s="29"/>
+      <c r="M232" s="29"/>
+      <c r="N232" s="29"/>
+      <c r="O232" s="29"/>
+      <c r="P232" s="29"/>
+      <c r="Q232" s="29"/>
+      <c r="R232" s="29"/>
+      <c r="S232" s="29"/>
+      <c r="T232" s="29"/>
+      <c r="U232" s="29"/>
+      <c r="V232" s="29"/>
+      <c r="W232" s="29"/>
+      <c r="X232" s="29"/>
+      <c r="Y232" s="29"/>
+      <c r="Z232" s="29"/>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
@@ -12369,11 +12370,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="A54:X54"/>
     <mergeCell ref="A218:N218"/>
     <mergeCell ref="A232:Z232"/>
     <mergeCell ref="A64:T64"/>
@@ -12387,6 +12383,11 @@
     <mergeCell ref="A102:L102"/>
     <mergeCell ref="A139:U139"/>
     <mergeCell ref="A172:U172"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A54:X54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -2738,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3009,23 +3009,23 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>22222</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -3033,7 +3033,9 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
         <v>55</v>
@@ -3048,19 +3050,19 @@
         <v>2016</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="Y10" s="7" t="b">
         <v>1</v>
@@ -3072,7 +3074,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>83</v>
@@ -3080,15 +3082,17 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>20</v>
+      </c>
       <c r="I11" s="3">
-        <v>600</v>
+        <v>25352</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3100,28 +3104,28 @@
         <v>55</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R11" s="3">
         <v>2015</v>
       </c>
       <c r="S11" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Y11" s="7" t="b">
         <v>1</v>
@@ -3131,9 +3135,9 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -3144,14 +3148,16 @@
         <v>163</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -3170,19 +3176,19 @@
         <v>2016</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Y12" s="7" t="b">
         <v>1</v>
@@ -3194,7 +3200,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>83</v>
@@ -3202,15 +3208,15 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3231,19 +3237,19 @@
         <v>2016</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y13" s="7" t="b">
         <v>1</v>
@@ -3255,7 +3261,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>83</v>
@@ -3263,17 +3269,15 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>10</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>1200</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3294,19 +3298,19 @@
         <v>2016</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Y14" s="7" t="b">
         <v>1</v>
@@ -3318,7 +3322,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>83</v>
@@ -3329,14 +3333,12 @@
         <v>171</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>20</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>25352</v>
+        <v>8000</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3357,19 +3359,19 @@
         <v>2016</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Y15" s="7" t="b">
         <v>1</v>
@@ -3381,10 +3383,10 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3396,14 +3398,12 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3">
-        <v>330</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3422,19 +3422,19 @@
         <v>2016</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="Y16" s="7" t="b">
         <v>1</v>
@@ -3446,45 +3446,63 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
       <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S17" s="3">
         <v>2016</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3" t="b">
-        <v>0</v>
+      <c r="T17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y17" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -3493,23 +3511,23 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3517,10 +3535,18 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2015</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -3536,40 +3562,42 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>500</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3">
-        <v>2</v>
-      </c>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2018</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -3585,16 +3613,16 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3609,10 +3637,10 @@
       <c r="K20" s="3">
         <v>10</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>2</v>
       </c>
-      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
@@ -3625,23 +3653,13 @@
         <v>2015</v>
       </c>
       <c r="S20" s="3">
-        <v>2015</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
       <c r="Y20" s="3" t="b">
         <v>0</v>
       </c>
@@ -3652,7 +3670,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>144</v>
@@ -3692,25 +3710,25 @@
         <v>2015</v>
       </c>
       <c r="S21" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Y21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -3719,39 +3737,63 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="Y22" s="3" t="b">
         <v>1</v>
       </c>
@@ -3762,21 +3804,23 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3784,10 +3828,18 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2018</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -3803,7 +3855,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>78</v>
@@ -3817,46 +3869,32 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R24" s="3">
         <v>2015</v>
       </c>
       <c r="S24" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y24" s="7" t="b">
+        <v>2018</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Z24" s="12"/>
@@ -3866,7 +3904,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>78</v>
@@ -3874,24 +3912,22 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>10</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>22222</v>
+        <v>2000</v>
       </c>
       <c r="J25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
@@ -3907,19 +3943,19 @@
         <v>2016</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Y25" s="7" t="b">
         <v>1</v>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20805" windowHeight="5175" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20805" windowHeight="5175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -980,6 +980,30 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>InvalidPass</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>ahlamTest@gmail.com</t>
+  </si>
+  <si>
+    <t>ahlamTes1t@gmail.com</t>
+  </si>
+  <si>
+    <t>ahlamTest2@gmail.com</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -2181,16 +2205,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -2245,30 +2271,32 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
+      <c r="G3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="I3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2279,28 +2307,28 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
+      <c r="G4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="I4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2308,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
@@ -2317,101 +2345,198 @@
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>123456789</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
+        <v>123456789</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
+      <c r="G6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="I6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2738,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="22104" windowHeight="8664" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="9864" windowHeight="4668" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -2781,7 +2781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2862,10 +2862,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE262"/>
+  <dimension ref="A1:AL262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4612,7 +4612,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4929,7 +4929,7 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4950,7 +4950,7 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4971,8 +4971,8 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>138</v>
       </c>
@@ -4994,8 +4994,18 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
-    </row>
-    <row r="59" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+    </row>
+    <row r="59" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
@@ -5053,18 +5063,23 @@
       <c r="S59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-    </row>
-    <row r="60" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -5122,23 +5137,23 @@
       <c r="S60" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="T60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="X60" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="X60" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -5184,23 +5199,15 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="U61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="V61" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="W61" s="7" t="s">
-        <v>262</v>
-      </c>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
       <c r="X61" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -5264,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>5</v>
       </c>
@@ -5386,32 +5393,25 @@
       <c r="S64" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
+      <c r="T64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V64" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="W64" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="X64" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="T65" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="U65" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="V65" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="W65" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="X65" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>136</v>
       </c>
@@ -5433,8 +5433,12 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
-    </row>
-    <row r="69" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T68" s="22"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+    </row>
+    <row r="69" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
@@ -5492,12 +5496,11 @@
       <c r="S69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T69" s="22"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-    </row>
-    <row r="70" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T69" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -5541,11 +5544,11 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T70" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -5602,15 +5605,12 @@
         <v>261</v>
       </c>
       <c r="T71" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="T72" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>137</v>
       </c>
@@ -5632,8 +5632,15 @@
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
-    </row>
-    <row r="79" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+    </row>
+    <row r="79" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
@@ -5691,15 +5698,29 @@
       <c r="S79" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="T79" s="21"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="21"/>
-    </row>
-    <row r="80" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="W79" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="X79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z79" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1</v>
       </c>
@@ -5727,29 +5748,17 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V80" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="W80" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="X80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y80" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z80" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>3</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -5863,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>5</v>
       </c>
@@ -5915,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>6</v>
       </c>
@@ -5965,17 +5974,29 @@
       <c r="S85" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
+      <c r="T85" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W85" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X85" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y85" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Z85" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>7</v>
       </c>
@@ -6029,17 +6050,11 @@
         <v>268</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W86" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X86" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
       <c r="Y86" s="3" t="s">
         <v>243</v>
       </c>
@@ -6047,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>8</v>
       </c>
@@ -6083,23 +6098,17 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
-      <c r="T87" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U87" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
-      <c r="Y87" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="Y87" s="3"/>
       <c r="Z87" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>9</v>
       </c>
@@ -6134,10 +6143,10 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>10</v>
       </c>
@@ -6175,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>11</v>
       </c>
@@ -6223,17 +6232,29 @@
       <c r="S90" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
+      <c r="T90" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W90" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X90" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Z90" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>12</v>
       </c>
@@ -6267,29 +6288,19 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
-      <c r="T91" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="T91" s="3"/>
       <c r="U91" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W91" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X91" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
       <c r="Z91" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>13</v>
       </c>
@@ -6335,19 +6346,23 @@
       <c r="S92" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T92" s="3"/>
+      <c r="T92" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="U92" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
+      <c r="Y92" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>14</v>
       </c>
@@ -6394,22 +6409,28 @@
         <v>182</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W93" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X93" s="3">
+        <v>5</v>
+      </c>
       <c r="Y93" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Z93" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>15</v>
       </c>
@@ -6458,13 +6479,13 @@
         <v>185</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W94" s="3">
         <v>2016</v>
@@ -6473,13 +6494,13 @@
         <v>5</v>
       </c>
       <c r="Y94" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z94" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>16</v>
       </c>
@@ -6528,13 +6549,13 @@
         <v>188</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="U95" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W95" s="3">
         <v>2016</v>
@@ -6543,13 +6564,13 @@
         <v>5</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>17</v>
       </c>
@@ -6596,28 +6617,22 @@
         <v>191</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W96" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X96" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
       <c r="Y96" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Z96" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>18</v>
       </c>
@@ -6653,23 +6668,19 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
-      <c r="T97" s="3" t="s">
-        <v>288</v>
-      </c>
+      <c r="T97" s="3"/>
       <c r="U97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-      <c r="Y97" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="Y97" s="3"/>
       <c r="Z97" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>19</v>
       </c>
@@ -6715,19 +6726,23 @@
       <c r="S98" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T98" s="3"/>
+      <c r="T98" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="U98" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
+      <c r="Y98" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="Z98" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>20</v>
       </c>
@@ -6774,22 +6789,28 @@
         <v>182</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W99" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X99" s="3">
+        <v>5</v>
+      </c>
       <c r="Y99" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z99" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>21</v>
       </c>
@@ -6838,13 +6859,13 @@
         <v>185</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W100" s="3">
         <v>2016</v>
@@ -6853,13 +6874,13 @@
         <v>5</v>
       </c>
       <c r="Y100" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z100" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>22</v>
       </c>
@@ -6906,13 +6927,13 @@
         <v>188</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W101" s="3">
         <v>2016</v>
@@ -6921,13 +6942,13 @@
         <v>5</v>
       </c>
       <c r="Y101" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z101" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>23</v>
       </c>
@@ -6976,28 +6997,22 @@
         <v>191</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W102" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X102" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
       <c r="Y102" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z102" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7017,23 +7032,15 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
-      <c r="T103" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="U103" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
-      <c r="Y103" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z103" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+    </row>
+    <row r="104" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -7053,21 +7060,13 @@
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-      <c r="V104" s="3"/>
-      <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-    </row>
-    <row r="106" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+    </row>
+    <row r="105" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>139</v>
       </c>
@@ -7083,7 +7082,7 @@
       <c r="K106" s="28"/>
       <c r="L106" s="28"/>
     </row>
-    <row r="107" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>0</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>1</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -7197,9 +7196,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>300</v>
       </c>
@@ -7217,7 +7218,7 @@
       <c r="M114" s="28"/>
       <c r="N114" s="28"/>
     </row>
-    <row r="115" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>0</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>1</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -7341,8 +7342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>311</v>
       </c>
@@ -7360,7 +7362,7 @@
       <c r="M121" s="28"/>
       <c r="N121" s="28"/>
     </row>
-    <row r="122" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>0</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -7444,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -7500,7 +7502,7 @@
       <c r="M125" s="12"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -7516,7 +7518,7 @@
       <c r="M126" s="12"/>
       <c r="N126" s="14"/>
     </row>
-    <row r="127" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>312</v>
       </c>
@@ -7534,7 +7536,7 @@
       <c r="M127" s="28"/>
       <c r="N127" s="28"/>
     </row>
-    <row r="128" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>0</v>
       </c>
@@ -7578,7 +7580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -7658,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7674,7 +7676,7 @@
       <c r="M131" s="12"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -7690,7 +7692,7 @@
       <c r="M132" s="12"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -7706,7 +7708,7 @@
       <c r="M133" s="12"/>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -7722,7 +7724,7 @@
       <c r="M134" s="12"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -7738,7 +7740,7 @@
       <c r="M135" s="12"/>
       <c r="N135" s="14"/>
     </row>
-    <row r="136" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>302</v>
       </c>
@@ -7760,8 +7762,9 @@
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="20"/>
-    </row>
-    <row r="137" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T136" s="20"/>
+    </row>
+    <row r="137" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>0</v>
       </c>
@@ -7819,9 +7822,11 @@
       <c r="S137" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T137" s="20"/>
-    </row>
-    <row r="138" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T137" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -7875,11 +7880,11 @@
       <c r="S138" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T138" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2</v>
       </c>
@@ -7932,10 +7937,10 @@
         <v>150</v>
       </c>
       <c r="T139" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -7950,11 +7955,8 @@
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
       <c r="N140" s="14"/>
-      <c r="T140" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -7970,7 +7972,7 @@
       <c r="M141" s="12"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -7986,7 +7988,7 @@
       <c r="M142" s="12"/>
       <c r="N142" s="14"/>
     </row>
-    <row r="143" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>313</v>
       </c>
@@ -8008,8 +8010,10 @@
       <c r="Q143" s="20"/>
       <c r="R143" s="20"/>
       <c r="S143" s="20"/>
-    </row>
-    <row r="144" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T143" s="20"/>
+      <c r="U143" s="20"/>
+    </row>
+    <row r="144" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>0</v>
       </c>
@@ -8067,10 +8071,14 @@
       <c r="S144" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-    </row>
-    <row r="145" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T144" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U144" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -8104,14 +8112,13 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
-      <c r="T145" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U145" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T145" s="3"/>
+      <c r="U145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V145" s="3"/>
+    </row>
+    <row r="146" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2</v>
       </c>
@@ -8147,7 +8154,7 @@
       </c>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -8185,7 +8192,7 @@
       </c>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>4</v>
       </c>
@@ -8233,13 +8240,15 @@
       <c r="S148" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="T148" s="3"/>
+      <c r="T148" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="U148" s="3" t="b">
         <v>0</v>
       </c>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>5</v>
       </c>
@@ -8288,14 +8297,14 @@
         <v>153</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="U149" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -8325,15 +8334,13 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
-      <c r="T150" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="T150" s="3"/>
       <c r="U150" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>7</v>
       </c>
@@ -8367,7 +8374,7 @@
       </c>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>8</v>
       </c>
@@ -8413,13 +8420,15 @@
       <c r="S152" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="T152" s="3"/>
-      <c r="U152" s="3" t="b">
+      <c r="T152" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U152" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>9</v>
       </c>
@@ -8468,14 +8477,14 @@
         <v>176</v>
       </c>
       <c r="T153" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U153" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>10</v>
       </c>
@@ -8522,14 +8531,14 @@
         <v>198</v>
       </c>
       <c r="T154" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="U154" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>11</v>
       </c>
@@ -8576,14 +8585,14 @@
         <v>200</v>
       </c>
       <c r="T155" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U155" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>12</v>
       </c>
@@ -8630,14 +8639,14 @@
         <v>202</v>
       </c>
       <c r="T156" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U156" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>13</v>
       </c>
@@ -8686,14 +8695,14 @@
         <v>204</v>
       </c>
       <c r="T157" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U157" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>14</v>
       </c>
@@ -8744,14 +8753,14 @@
         <v>206</v>
       </c>
       <c r="T158" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U158" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>15</v>
       </c>
@@ -8800,14 +8809,14 @@
         <v>208</v>
       </c>
       <c r="T159" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U159" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>16</v>
       </c>
@@ -8856,14 +8865,14 @@
         <v>228</v>
       </c>
       <c r="T160" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="U160" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>17</v>
       </c>
@@ -8910,14 +8919,14 @@
         <v>230</v>
       </c>
       <c r="T161" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="U161" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>18</v>
       </c>
@@ -8964,14 +8973,14 @@
         <v>232</v>
       </c>
       <c r="T162" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="U162" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>19</v>
       </c>
@@ -9018,14 +9027,14 @@
         <v>234</v>
       </c>
       <c r="T163" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U163" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>20</v>
       </c>
@@ -9074,14 +9083,14 @@
         <v>236</v>
       </c>
       <c r="T164" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U164" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>21</v>
       </c>
@@ -9130,14 +9139,14 @@
         <v>238</v>
       </c>
       <c r="T165" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U165" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9157,15 +9166,11 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
-      <c r="T166" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="U166" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9189,7 +9194,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9213,7 +9218,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
     </row>
-    <row r="169" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -9233,11 +9238,9 @@
       <c r="Q169" s="12"/>
       <c r="R169" s="12"/>
       <c r="S169" s="12"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
-    </row>
-    <row r="170" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T169" s="14"/>
+    </row>
+    <row r="170" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -9259,7 +9262,7 @@
       <c r="S170" s="12"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -9281,7 +9284,7 @@
       <c r="S171" s="12"/>
       <c r="T171" s="14"/>
     </row>
-    <row r="172" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -9303,7 +9306,7 @@
       <c r="S172" s="12"/>
       <c r="T172" s="14"/>
     </row>
-    <row r="173" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -9325,7 +9328,7 @@
       <c r="S173" s="12"/>
       <c r="T173" s="14"/>
     </row>
-    <row r="174" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -9347,7 +9350,7 @@
       <c r="S174" s="12"/>
       <c r="T174" s="14"/>
     </row>
-    <row r="175" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -9369,7 +9372,7 @@
       <c r="S175" s="12"/>
       <c r="T175" s="14"/>
     </row>
-    <row r="176" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="20" t="s">
         <v>316</v>
       </c>
@@ -9391,9 +9394,10 @@
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
       <c r="S176" s="20"/>
-      <c r="T176" s="14"/>
-    </row>
-    <row r="177" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T176" s="20"/>
+      <c r="U176" s="20"/>
+    </row>
+    <row r="177" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>0</v>
       </c>
@@ -9451,10 +9455,14 @@
       <c r="S177" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T177" s="20"/>
-      <c r="U177" s="20"/>
-    </row>
-    <row r="178" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T177" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U177" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -9488,14 +9496,12 @@
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
-      <c r="T178" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U178" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T178" s="3"/>
+      <c r="U178" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>2</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>3</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>4</v>
       </c>
@@ -9615,12 +9621,14 @@
       <c r="S181" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="T181" s="3"/>
+      <c r="T181" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="U181" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>5</v>
       </c>
@@ -9669,13 +9677,13 @@
         <v>153</v>
       </c>
       <c r="T182" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="U182" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>6</v>
       </c>
@@ -9705,14 +9713,12 @@
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
-      <c r="T183" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="T183" s="3"/>
       <c r="U183" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>7</v>
       </c>
@@ -9745,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -9791,12 +9797,14 @@
       <c r="S185" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="T185" s="3"/>
-      <c r="U185" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T185" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U185" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>9</v>
       </c>
@@ -9845,13 +9853,13 @@
         <v>176</v>
       </c>
       <c r="T186" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U186" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>10</v>
       </c>
@@ -9898,13 +9906,13 @@
         <v>198</v>
       </c>
       <c r="T187" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="U187" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>11</v>
       </c>
@@ -9951,13 +9959,13 @@
         <v>200</v>
       </c>
       <c r="T188" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U188" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>12</v>
       </c>
@@ -10004,13 +10012,13 @@
         <v>202</v>
       </c>
       <c r="T189" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U189" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>13</v>
       </c>
@@ -10059,13 +10067,13 @@
         <v>204</v>
       </c>
       <c r="T190" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U190" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>14</v>
       </c>
@@ -10116,13 +10124,13 @@
         <v>206</v>
       </c>
       <c r="T191" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U191" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>15</v>
       </c>
@@ -10171,13 +10179,13 @@
         <v>208</v>
       </c>
       <c r="T192" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U192" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>16</v>
       </c>
@@ -10226,13 +10234,13 @@
         <v>228</v>
       </c>
       <c r="T193" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="U193" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>17</v>
       </c>
@@ -10279,13 +10287,13 @@
         <v>230</v>
       </c>
       <c r="T194" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="U194" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>18</v>
       </c>
@@ -10332,13 +10340,13 @@
         <v>232</v>
       </c>
       <c r="T195" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="U195" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>19</v>
       </c>
@@ -10385,13 +10393,13 @@
         <v>234</v>
       </c>
       <c r="T196" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U196" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>20</v>
       </c>
@@ -10440,13 +10448,13 @@
         <v>236</v>
       </c>
       <c r="T197" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U197" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>21</v>
       </c>
@@ -10495,13 +10503,13 @@
         <v>238</v>
       </c>
       <c r="T198" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U198" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10521,14 +10529,10 @@
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
-      <c r="T199" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="U199" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+    </row>
+    <row r="200" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10551,7 +10555,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
     </row>
-    <row r="201" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10574,7 +10578,7 @@
       <c r="T201" s="3"/>
       <c r="U201" s="3"/>
     </row>
-    <row r="202" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -10589,13 +10593,11 @@
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
       <c r="N202" s="14"/>
-      <c r="T202" s="3"/>
-      <c r="U202" s="3"/>
-    </row>
-    <row r="203" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>140</v>
       </c>
@@ -10611,7 +10613,7 @@
       <c r="K206" s="28"/>
       <c r="L206" s="28"/>
     </row>
-    <row r="207" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>0</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -10687,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -10725,8 +10727,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>141</v>
       </c>
@@ -10742,7 +10745,7 @@
       <c r="K214" s="28"/>
       <c r="L214" s="28"/>
     </row>
-    <row r="215" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>0</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -10818,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>2</v>
       </c>
@@ -10856,8 +10859,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>314</v>
       </c>
@@ -10875,7 +10879,7 @@
       <c r="M222" s="28"/>
       <c r="N222" s="28"/>
     </row>
-    <row r="223" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
         <v>0</v>
       </c>
@@ -10919,7 +10923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -10959,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -10999,8 +11003,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:38" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
         <v>315</v>
       </c>
@@ -11022,8 +11027,15 @@
       <c r="Q236" s="21"/>
       <c r="R236" s="21"/>
       <c r="S236" s="21"/>
-    </row>
-    <row r="237" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T236" s="21"/>
+      <c r="U236" s="21"/>
+      <c r="V236" s="21"/>
+      <c r="W236" s="21"/>
+      <c r="X236" s="21"/>
+      <c r="Y236" s="21"/>
+      <c r="Z236" s="21"/>
+    </row>
+    <row r="237" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>0</v>
       </c>
@@ -11081,15 +11093,29 @@
       <c r="S237" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="T237" s="21"/>
-      <c r="U237" s="21"/>
-      <c r="V237" s="21"/>
-      <c r="W237" s="21"/>
-      <c r="X237" s="21"/>
-      <c r="Y237" s="21"/>
-      <c r="Z237" s="21"/>
-    </row>
-    <row r="238" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T237" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U237" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V237" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="W237" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="X237" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y237" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z237" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>18</v>
       </c>
@@ -11133,29 +11159,19 @@
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
       <c r="S238" s="3"/>
-      <c r="T238" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U238" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V238" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="W238" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="X238" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y238" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z238" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T238" s="3"/>
+      <c r="U238" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+      <c r="Y238" s="3"/>
+      <c r="Z238" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>19</v>
       </c>
@@ -11201,19 +11217,23 @@
       <c r="S239" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T239" s="3"/>
+      <c r="T239" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="U239" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
-      <c r="Y239" s="3"/>
+      <c r="Y239" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="Z239" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>20</v>
       </c>
@@ -11260,22 +11280,28 @@
         <v>182</v>
       </c>
       <c r="T240" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U240" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V240" s="3"/>
-      <c r="W240" s="3"/>
-      <c r="X240" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W240" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X240" s="3">
+        <v>5</v>
+      </c>
       <c r="Y240" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z240" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>21</v>
       </c>
@@ -11324,13 +11350,13 @@
         <v>185</v>
       </c>
       <c r="T241" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U241" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V241" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W241" s="3">
         <v>2016</v>
@@ -11339,13 +11365,13 @@
         <v>5</v>
       </c>
       <c r="Y241" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z241" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>22</v>
       </c>
@@ -11392,13 +11418,13 @@
         <v>188</v>
       </c>
       <c r="T242" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U242" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V242" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W242" s="3">
         <v>2016</v>
@@ -11407,13 +11433,13 @@
         <v>5</v>
       </c>
       <c r="Y242" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z242" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>23</v>
       </c>
@@ -11462,28 +11488,22 @@
         <v>191</v>
       </c>
       <c r="T243" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U243" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V243" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W243" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X243" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
       <c r="Y243" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z243" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>12</v>
       </c>
@@ -11525,23 +11545,19 @@
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
-      <c r="T244" s="3" t="s">
-        <v>294</v>
-      </c>
+      <c r="T244" s="3"/>
       <c r="U244" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
-      <c r="Y244" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y244" s="3"/>
       <c r="Z244" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>13</v>
       </c>
@@ -11587,19 +11603,23 @@
       <c r="S245" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T245" s="3"/>
+      <c r="T245" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="U245" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
-      <c r="Y245" s="3"/>
+      <c r="Y245" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="Z245" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>14</v>
       </c>
@@ -11646,22 +11666,28 @@
         <v>182</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U246" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V246" s="3"/>
-      <c r="W246" s="3"/>
-      <c r="X246" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W246" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X246" s="3">
+        <v>5</v>
+      </c>
       <c r="Y246" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Z246" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>15</v>
       </c>
@@ -11710,13 +11736,13 @@
         <v>185</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="U247" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W247" s="3">
         <v>2016</v>
@@ -11725,13 +11751,13 @@
         <v>5</v>
       </c>
       <c r="Y247" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z247" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>16</v>
       </c>
@@ -11780,13 +11806,13 @@
         <v>188</v>
       </c>
       <c r="T248" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="U248" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V248" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W248" s="3">
         <v>2016</v>
@@ -11795,13 +11821,13 @@
         <v>5</v>
       </c>
       <c r="Y248" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Z248" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>17</v>
       </c>
@@ -11848,28 +11874,22 @@
         <v>191</v>
       </c>
       <c r="T249" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="U249" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V249" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W249" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X249" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
       <c r="Y249" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Z249" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>1</v>
       </c>
@@ -11897,23 +11917,17 @@
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
       <c r="S250" s="3"/>
-      <c r="T250" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="U250" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
-      <c r="Y250" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="Y250" s="3"/>
       <c r="Z250" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -11951,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>3</v>
       </c>
@@ -11989,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>4</v>
       </c>
@@ -12027,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>5</v>
       </c>
@@ -12079,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>6</v>
       </c>
@@ -12129,17 +12143,29 @@
       <c r="S255" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T255" s="3"/>
-      <c r="U255" s="3"/>
-      <c r="V255" s="3"/>
-      <c r="W255" s="3"/>
-      <c r="X255" s="3"/>
-      <c r="Y255" s="3"/>
+      <c r="T255" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U255" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W255" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X255" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y255" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Z255" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>7</v>
       </c>
@@ -12193,17 +12219,11 @@
         <v>268</v>
       </c>
       <c r="U256" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V256" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W256" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X256" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V256" s="3"/>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
       <c r="Y256" s="3" t="s">
         <v>243</v>
       </c>
@@ -12211,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>8</v>
       </c>
@@ -12247,23 +12267,17 @@
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="3"/>
-      <c r="T257" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U257" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
-      <c r="Y257" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="Y257" s="3"/>
       <c r="Z257" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>9</v>
       </c>
@@ -12306,10 +12320,10 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
       <c r="Z258" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>10</v>
       </c>
@@ -12347,7 +12361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>11</v>
       </c>
@@ -12395,53 +12409,43 @@
       <c r="S260" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="T260" s="3"/>
-      <c r="U260" s="3"/>
-      <c r="V260" s="3"/>
-      <c r="W260" s="3"/>
-      <c r="X260" s="3"/>
-      <c r="Y260" s="3"/>
+      <c r="T260" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U260" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W260" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X260" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y260" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Z260" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="T261" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U261" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V261" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W261" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X261" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y261" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z261" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A222:N222"/>
-    <mergeCell ref="A121:N121"/>
-    <mergeCell ref="A127:N127"/>
-    <mergeCell ref="A214:L214"/>
-    <mergeCell ref="A206:L206"/>
     <mergeCell ref="A114:N114"/>
     <mergeCell ref="A106:L106"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A40:N40"/>
     <mergeCell ref="A48:S48"/>
+    <mergeCell ref="A222:N222"/>
+    <mergeCell ref="A121:N121"/>
+    <mergeCell ref="A127:N127"/>
+    <mergeCell ref="A214:L214"/>
+    <mergeCell ref="A206:L206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="9864" windowHeight="4668" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="20196" windowHeight="8664" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5193,11 +5193,21 @@
       <c r="M61" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="N61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -5233,16 +5243,16 @@
         <v>3</v>
       </c>
       <c r="I62" s="3">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="J62" s="3">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="K62" s="3">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="L62" s="3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>248</v>
@@ -5279,7 +5289,7 @@
         <v>260</v>
       </c>
       <c r="C63" s="3">
-        <v>123</v>
+        <v>1234</v>
       </c>
       <c r="D63" s="3">
         <v>5000</v>
@@ -5315,194 +5325,178 @@
         <v>15</v>
       </c>
       <c r="O63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="P63" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>2015</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="X63" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+    </row>
+    <row r="68" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P63" s="3">
-        <v>2015</v>
-      </c>
-      <c r="Q63" s="3">
+      <c r="D69" s="3">
         <v>2014</v>
       </c>
-      <c r="R63" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3" t="b">
+      <c r="E69" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="3">
+        <v>100</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2014</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>5</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1234</v>
-      </c>
-      <c r="D64" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="3">
-        <v>10</v>
-      </c>
-      <c r="H64" s="3">
-        <v>3</v>
-      </c>
-      <c r="I64" s="3">
-        <v>12</v>
-      </c>
-      <c r="J64" s="3">
-        <v>30</v>
-      </c>
-      <c r="K64" s="3">
-        <v>6</v>
-      </c>
-      <c r="L64" s="3">
-        <v>2</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="P64" s="3">
-        <v>2015</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>2015</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="T64" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="U64" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="W64" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="X64" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-    </row>
-    <row r="69" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T69" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>263</v>
@@ -5535,203 +5529,193 @@
         <v>2015</v>
       </c>
       <c r="L70" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="T70" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+    </row>
+    <row r="78" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>2</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="B78" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R78" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H71" s="3">
-        <v>3</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K71" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L71" s="3">
-        <v>2015</v>
-      </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R71" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="S71" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="T71" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="21"/>
-      <c r="V78" s="21"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="21"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="21"/>
+      <c r="S78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z78" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="79" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3">
+        <v>1</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R79" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T79" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U79" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V79" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="W79" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="X79" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y79" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z79" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D80" s="3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -5760,16 +5744,16 @@
     </row>
     <row r="81" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="D81" s="3">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -5798,16 +5782,16 @@
     </row>
     <row r="82" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D82" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -5836,28 +5820,42 @@
     </row>
     <row r="83" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D83" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+      <c r="I83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O83" s="3">
+        <v>2014</v>
+      </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
@@ -5874,7 +5872,7 @@
     </row>
     <row r="84" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>144</v>
@@ -5896,37 +5894,57 @@
         <v>19</v>
       </c>
       <c r="K84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N84" s="3">
         <v>2015</v>
       </c>
       <c r="O84" s="3">
-        <v>2014</v>
-      </c>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
+        <v>2015</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W84" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X84" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y84" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Z84" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>144</v>
@@ -5948,7 +5966,7 @@
         <v>19</v>
       </c>
       <c r="K85" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>15</v>
@@ -5978,17 +5996,11 @@
         <v>268</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W85" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X85" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
       <c r="Y85" s="3" t="s">
         <v>243</v>
       </c>
@@ -5998,73 +6010,53 @@
     </row>
     <row r="86" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E86" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
       <c r="L86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N86" s="3">
         <v>2015</v>
       </c>
       <c r="O86" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U86" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-      <c r="Y86" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="Y86" s="3"/>
       <c r="Z86" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>78</v>
@@ -6082,18 +6074,10 @@
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N87" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O87" s="3">
-        <v>2014</v>
-      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -6105,12 +6089,12 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>78</v>
@@ -6118,13 +6102,13 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -6148,7 +6132,7 @@
     </row>
     <row r="89" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>78</v>
@@ -6160,103 +6144,111 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3">
+        <v>5</v>
+      </c>
       <c r="I89" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J89" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
+      <c r="L89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X89" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Z89" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="3">
-        <v>5</v>
-      </c>
+      <c r="H90" s="3"/>
       <c r="I90" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K90" s="3"/>
-      <c r="L90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N90" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O90" s="3">
-        <v>2015</v>
-      </c>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
       <c r="P90" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q90" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="R90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T90" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
       <c r="U90" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W90" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X90" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y90" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
       <c r="Z90" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>82</v>
@@ -6267,42 +6259,58 @@
         <v>163</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O91" s="3">
+        <v>2015</v>
+      </c>
       <c r="P91" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
+      <c r="R91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="U91" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
+      <c r="Y91" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="Z91" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>82</v>
@@ -6313,12 +6321,12 @@
         <v>163</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>19</v>
@@ -6337,26 +6345,32 @@
         <v>2015</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W92" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X92" s="3">
+        <v>5</v>
+      </c>
       <c r="Y92" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
@@ -6364,7 +6378,7 @@
     </row>
     <row r="93" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>82</v>
@@ -6372,15 +6386,17 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="3">
+        <v>2</v>
+      </c>
       <c r="I93" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>19</v>
@@ -6399,23 +6415,23 @@
         <v>2015</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="U93" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W93" s="3">
         <v>2016</v>
@@ -6424,7 +6440,7 @@
         <v>5</v>
       </c>
       <c r="Y93" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z93" s="3" t="b">
         <v>1</v>
@@ -6432,7 +6448,7 @@
     </row>
     <row r="94" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>82</v>
@@ -6443,11 +6459,11 @@
         <v>171</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I94" s="3">
         <v>102</v>
@@ -6469,23 +6485,23 @@
         <v>2015</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W94" s="3">
         <v>2016</v>
@@ -6494,7 +6510,7 @@
         <v>5</v>
       </c>
       <c r="Y94" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Z94" s="3" t="b">
         <v>1</v>
@@ -6502,7 +6518,7 @@
     </row>
     <row r="95" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>82</v>
@@ -6513,12 +6529,10 @@
         <v>171</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="3">
-        <v>20</v>
-      </c>
+      <c r="H95" s="3"/>
       <c r="I95" s="3">
         <v>102</v>
       </c>
@@ -6539,32 +6553,26 @@
         <v>2015</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W95" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X95" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
       <c r="Y95" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
@@ -6572,69 +6580,55 @@
     </row>
     <row r="96" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N96" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O96" s="3">
-        <v>2015</v>
-      </c>
+      <c r="K96" s="3">
+        <v>6</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
       <c r="P96" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>288</v>
-      </c>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
       <c r="U96" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
-      <c r="Y96" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="Y96" s="3"/>
       <c r="Z96" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>83</v>
@@ -6645,44 +6639,58 @@
         <v>163</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K97" s="3">
-        <v>6</v>
-      </c>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O97" s="3">
+        <v>2015</v>
+      </c>
       <c r="P97" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="R97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="U97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
+      <c r="Y97" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="Z97" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>83</v>
@@ -6693,12 +6701,12 @@
         <v>163</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>19</v>
@@ -6711,32 +6719,38 @@
         <v>16</v>
       </c>
       <c r="N98" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="O98" s="3">
         <v>2015</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W98" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X98" s="3">
+        <v>5</v>
+      </c>
       <c r="Y98" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z98" s="3" t="b">
         <v>1</v>
@@ -6744,7 +6758,7 @@
     </row>
     <row r="99" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>83</v>
@@ -6752,15 +6766,17 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3">
+        <v>2</v>
+      </c>
       <c r="I99" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>19</v>
@@ -6779,23 +6795,23 @@
         <v>2015</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U99" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W99" s="3">
         <v>2016</v>
@@ -6804,7 +6820,7 @@
         <v>5</v>
       </c>
       <c r="Y99" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z99" s="3" t="b">
         <v>1</v>
@@ -6812,7 +6828,7 @@
     </row>
     <row r="100" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>83</v>
@@ -6823,12 +6839,10 @@
         <v>171</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G100" s="3"/>
-      <c r="H100" s="3">
-        <v>2</v>
-      </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="3">
         <v>102</v>
       </c>
@@ -6843,29 +6857,29 @@
         <v>16</v>
       </c>
       <c r="N100" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="O100" s="3">
         <v>2015</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q100" s="3"/>
       <c r="R100" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W100" s="3">
         <v>2016</v>
@@ -6874,7 +6888,7 @@
         <v>5</v>
       </c>
       <c r="Y100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z100" s="3" t="b">
         <v>1</v>
@@ -6882,7 +6896,7 @@
     </row>
     <row r="101" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>83</v>
@@ -6893,10 +6907,12 @@
         <v>171</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3">
+        <v>2</v>
+      </c>
       <c r="I101" s="3">
         <v>102</v>
       </c>
@@ -6911,221 +6927,189 @@
         <v>16</v>
       </c>
       <c r="N101" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O101" s="3">
         <v>2015</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W101" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X101" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
       <c r="Y101" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z101" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>23</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="3">
-        <v>2</v>
-      </c>
-      <c r="I102" s="3">
-        <v>102</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O102" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
-      <c r="Y102" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z102" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-    </row>
-    <row r="104" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-    </row>
-    <row r="105" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+    </row>
+    <row r="104" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+    </row>
     <row r="106" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
+      <c r="A106" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="107" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3">
+        <v>1</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L107" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -7134,357 +7118,335 @@
         <v>2015</v>
       </c>
       <c r="E108" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L108" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
+    </row>
+    <row r="114" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="M114" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N114" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H115" s="3"/>
+      <c r="I115" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="L115" s="3"/>
+      <c r="M115" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L108" s="7" t="b">
+      <c r="N115" s="7" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>2</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E109" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L109" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
-      <c r="M114" s="28"/>
-      <c r="N114" s="28"/>
-    </row>
-    <row r="115" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I115" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J115" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K115" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L115" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="M115" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D116" s="3">
         <v>2015</v>
       </c>
       <c r="E116" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N116" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+    </row>
+    <row r="121" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L121" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="M121" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N121" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>1</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N116" s="7" t="b">
+      <c r="N122" s="7" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>2</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E117" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N117" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="28"/>
-    </row>
-    <row r="122" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J122" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K122" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L122" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="M122" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N122" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D123" s="3">
         <v>2015</v>
       </c>
       <c r="E123" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N123" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>2</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E124" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N124" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="14"/>
     </row>
     <row r="125" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
@@ -7503,162 +7465,162 @@
       <c r="N125" s="14"/>
     </row>
     <row r="126" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="14"/>
+      <c r="A126" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
     </row>
     <row r="127" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
-      <c r="M127" s="28"/>
-      <c r="N127" s="28"/>
+      <c r="A127" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J127" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L127" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="M127" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N127" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="128" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="3">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N128" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I128" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J128" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K128" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L128" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="M128" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N128" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D129" s="3">
         <v>2015</v>
       </c>
       <c r="E129" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N129" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>2</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E130" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N130" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="14"/>
     </row>
     <row r="131" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
@@ -7725,220 +7687,220 @@
       <c r="N134" s="14"/>
     </row>
     <row r="135" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="14"/>
+      <c r="A135" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="20"/>
+      <c r="O135" s="20"/>
+      <c r="P135" s="20"/>
+      <c r="Q135" s="20"/>
+      <c r="R135" s="20"/>
+      <c r="S135" s="20"/>
+      <c r="T135" s="20"/>
     </row>
     <row r="136" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="20"/>
-      <c r="O136" s="20"/>
-      <c r="P136" s="20"/>
-      <c r="Q136" s="20"/>
-      <c r="R136" s="20"/>
-      <c r="S136" s="20"/>
-      <c r="T136" s="20"/>
+      <c r="A136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R136" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="S136" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T136" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="137" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F137" s="3">
+        <v>8</v>
+      </c>
+      <c r="G137" s="3">
+        <v>10</v>
+      </c>
+      <c r="H137" s="3">
+        <v>5</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J137" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K137" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L137" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N137" s="3"/>
+      <c r="O137" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T137" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N137" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O137" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P137" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q137" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="R137" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="S137" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T137" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C138" s="3">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F138" s="3">
-        <v>8</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F138" s="3"/>
       <c r="G138" s="3">
         <v>10</v>
       </c>
       <c r="H138" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J138" s="19" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K138" s="3">
         <v>2015</v>
       </c>
       <c r="L138" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N138" s="3"/>
       <c r="O138" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R138" s="3"/>
       <c r="S138" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T138" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>2</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C139" s="3">
-        <v>200000</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3">
-        <v>10</v>
-      </c>
-      <c r="H139" s="3">
-        <v>2</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K139" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L139" s="3">
-        <v>2016</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N139" s="3"/>
-      <c r="O139" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P139" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q139" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="T139" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="14"/>
     </row>
     <row r="140" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
@@ -7973,138 +7935,158 @@
       <c r="N141" s="14"/>
     </row>
     <row r="142" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="14"/>
+      <c r="A142" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="20"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
     </row>
     <row r="143" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="20"/>
-      <c r="S143" s="20"/>
-      <c r="T143" s="20"/>
-      <c r="U143" s="20"/>
+      <c r="A143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P143" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R143" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S143" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T143" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U143" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="144" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3">
+        <v>200</v>
+      </c>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L144" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q144" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R144" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S144" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T144" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U144" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="V144" s="3"/>
     </row>
     <row r="145" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D145" s="3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L145" s="3">
-        <v>2016</v>
-      </c>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
@@ -8120,25 +8102,27 @@
     </row>
     <row r="146" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D146" s="3">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3">
-        <v>300</v>
-      </c>
-      <c r="J146" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J146" s="3">
+        <v>2</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -8156,16 +8140,16 @@
     </row>
     <row r="147" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D147" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -8177,16 +8161,34 @@
       <c r="J147" s="3">
         <v>2</v>
       </c>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N147" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="P147" s="3"/>
-      <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
+      <c r="Q147" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S147" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="U147" s="3" t="b">
         <v>0</v>
       </c>
@@ -8194,7 +8196,7 @@
     </row>
     <row r="148" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>144</v>
@@ -8225,80 +8227,60 @@
         <v>2015</v>
       </c>
       <c r="N148" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R148" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="S148" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="U148" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V148" s="3"/>
     </row>
     <row r="149" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D149" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3">
-        <v>500</v>
-      </c>
-      <c r="J149" s="3">
-        <v>2</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M149" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N149" s="3">
-        <v>2018</v>
-      </c>
-      <c r="O149" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
       <c r="P149" s="3"/>
-      <c r="Q149" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R149" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="S149" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T149" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
       <c r="U149" s="3" t="b">
         <v>1</v>
       </c>
@@ -8306,23 +8288,21 @@
     </row>
     <row r="150" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E150" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -8342,7 +8322,7 @@
     </row>
     <row r="151" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>78</v>
@@ -8356,27 +8336,47 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
+        <v>2000</v>
+      </c>
+      <c r="J151" s="3">
+        <v>1</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M151" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N151" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="P151" s="3"/>
-      <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
-      <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
-      <c r="U151" s="3" t="b">
+      <c r="Q151" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T151" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U151" s="7" t="b">
         <v>1</v>
       </c>
       <c r="V151" s="3"/>
     </row>
     <row r="152" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>78</v>
@@ -8384,16 +8384,18 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+      <c r="H152" s="3">
+        <v>10</v>
+      </c>
       <c r="I152" s="3">
-        <v>2000</v>
+        <v>22222</v>
       </c>
       <c r="J152" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>55</v>
@@ -8408,20 +8410,20 @@
         <v>2016</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="R152" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="S152" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="T152" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U152" s="7" t="b">
         <v>1</v>
@@ -8430,27 +8432,25 @@
     </row>
     <row r="153" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F153" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G153" s="3"/>
-      <c r="H153" s="3">
-        <v>10</v>
-      </c>
+      <c r="H153" s="3"/>
       <c r="I153" s="3">
-        <v>22222</v>
-      </c>
-      <c r="J153" s="3">
-        <v>2</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
         <v>55</v>
       </c>
@@ -8464,20 +8464,20 @@
         <v>2016</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P153" s="3"/>
       <c r="Q153" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="R153" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="T153" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="U153" s="7" t="b">
         <v>1</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="154" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>82</v>
@@ -8497,7 +8497,7 @@
         <v>163</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -8518,20 +8518,20 @@
         <v>2016</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P154" s="3"/>
       <c r="Q154" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T154" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U154" s="7" t="b">
         <v>1</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="155" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>82</v>
@@ -8551,7 +8551,7 @@
         <v>163</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -8572,20 +8572,20 @@
         <v>2016</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P155" s="3"/>
       <c r="Q155" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="R155" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T155" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U155" s="7" t="b">
         <v>1</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="156" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>82</v>
@@ -8602,13 +8602,15 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
+      <c r="H156" s="3">
+        <v>5</v>
+      </c>
       <c r="I156" s="3">
         <v>330</v>
       </c>
@@ -8626,20 +8628,20 @@
         <v>2016</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P156" s="3"/>
       <c r="Q156" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R156" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T156" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U156" s="7" t="b">
         <v>1</v>
@@ -8648,7 +8650,7 @@
     </row>
     <row r="157" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>82</v>
@@ -8659,16 +8661,18 @@
         <v>171</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I157" s="3">
         <v>330</v>
       </c>
-      <c r="J157" s="3"/>
+      <c r="J157" s="3">
+        <v>5</v>
+      </c>
       <c r="K157" s="3" t="s">
         <v>55</v>
       </c>
@@ -8682,20 +8686,20 @@
         <v>2016</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P157" s="3"/>
       <c r="Q157" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T157" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U157" s="7" t="b">
         <v>1</v>
@@ -8704,7 +8708,7 @@
     </row>
     <row r="158" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>82</v>
@@ -8715,17 +8719,15 @@
         <v>171</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="3">
-        <v>2</v>
-      </c>
+      <c r="H158" s="3"/>
       <c r="I158" s="3">
         <v>330</v>
       </c>
       <c r="J158" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>55</v>
@@ -8740,20 +8742,20 @@
         <v>2016</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T158" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U158" s="7" t="b">
         <v>1</v>
@@ -8762,26 +8764,26 @@
     </row>
     <row r="159" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="J159" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>55</v>
@@ -8796,20 +8798,20 @@
         <v>2016</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P159" s="3"/>
       <c r="Q159" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="R159" s="3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="T159" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="U159" s="7" t="b">
         <v>1</v>
@@ -8818,7 +8820,7 @@
     </row>
     <row r="160" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>83</v>
@@ -8829,16 +8831,14 @@
         <v>163</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3">
-        <v>500</v>
-      </c>
-      <c r="J160" s="3">
-        <v>2</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
         <v>55</v>
       </c>
@@ -8852,20 +8852,20 @@
         <v>2016</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P160" s="3"/>
       <c r="Q160" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R160" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S160" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T160" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="U160" s="7" t="b">
         <v>1</v>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="161" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>83</v>
@@ -8885,12 +8885,12 @@
         <v>163</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
@@ -8906,20 +8906,20 @@
         <v>2016</v>
       </c>
       <c r="O161" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P161" s="3"/>
       <c r="Q161" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R161" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S161" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="T161" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="U161" s="7" t="b">
         <v>1</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="162" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>83</v>
@@ -8936,15 +8936,15 @@
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
@@ -8960,20 +8960,20 @@
         <v>2016</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R162" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="S162" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="T162" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U162" s="7" t="b">
         <v>1</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="163" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>83</v>
@@ -8993,12 +8993,14 @@
         <v>171</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="H163" s="3">
+        <v>10</v>
+      </c>
       <c r="I163" s="3">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
@@ -9014,20 +9016,20 @@
         <v>2016</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P163" s="3"/>
       <c r="Q163" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R163" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T163" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U163" s="7" t="b">
         <v>1</v>
@@ -9036,7 +9038,7 @@
     </row>
     <row r="164" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>83</v>
@@ -9047,14 +9049,14 @@
         <v>171</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I164" s="3">
-        <v>1200</v>
+        <v>25352</v>
       </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
@@ -9070,20 +9072,20 @@
         <v>2016</v>
       </c>
       <c r="O164" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R164" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S164" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T164" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U164" s="7" t="b">
         <v>1</v>
@@ -9091,59 +9093,27 @@
       <c r="V164" s="3"/>
     </row>
     <row r="165" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
-        <v>21</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="3">
-        <v>20</v>
-      </c>
-      <c r="I165" s="3">
-        <v>25352</v>
-      </c>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M165" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N165" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O165" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
       <c r="P165" s="3"/>
-      <c r="Q165" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="R165" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="S165" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="T165" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="U165" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
     <row r="166" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
@@ -9195,28 +9165,26 @@
       <c r="V167" s="3"/>
     </row>
     <row r="168" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-      <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="14"/>
     </row>
     <row r="169" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
@@ -9351,144 +9319,157 @@
       <c r="T174" s="14"/>
     </row>
     <row r="175" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="14"/>
-      <c r="P175" s="12"/>
-      <c r="Q175" s="12"/>
-      <c r="R175" s="12"/>
-      <c r="S175" s="12"/>
-      <c r="T175" s="14"/>
+      <c r="A175" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="20"/>
+      <c r="O175" s="20"/>
+      <c r="P175" s="20"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+      <c r="T175" s="20"/>
+      <c r="U175" s="20"/>
     </row>
     <row r="176" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="20"/>
-      <c r="M176" s="20"/>
-      <c r="N176" s="20"/>
-      <c r="O176" s="20"/>
-      <c r="P176" s="20"/>
-      <c r="Q176" s="20"/>
-      <c r="R176" s="20"/>
-      <c r="S176" s="20"/>
-      <c r="T176" s="20"/>
-      <c r="U176" s="20"/>
+      <c r="A176" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M176" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P176" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R176" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S176" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T176" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U176" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="177" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3">
+        <v>200</v>
+      </c>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L177" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L177" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M177" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N177" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P177" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q177" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R177" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S177" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T177" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U177" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D178" s="3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J178" s="3"/>
-      <c r="K178" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L178" s="3">
-        <v>2016</v>
-      </c>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
@@ -9503,25 +9484,27 @@
     </row>
     <row r="179" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D179" s="3">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3">
-        <v>300</v>
-      </c>
-      <c r="J179" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J179" s="3">
+        <v>2</v>
+      </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -9538,16 +9521,16 @@
     </row>
     <row r="180" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D180" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -9559,23 +9542,41 @@
       <c r="J180" s="3">
         <v>2</v>
       </c>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
+      <c r="K180" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M180" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N180" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
+      <c r="Q180" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S180" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T180" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="U180" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>144</v>
@@ -9606,102 +9607,80 @@
         <v>2015</v>
       </c>
       <c r="N181" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P181" s="3"/>
       <c r="Q181" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R181" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T181" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="U181" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D182" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3">
-        <v>500</v>
-      </c>
-      <c r="J182" s="3">
-        <v>2</v>
-      </c>
-      <c r="K182" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M182" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N182" s="3">
-        <v>2018</v>
-      </c>
-      <c r="O182" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
       <c r="P182" s="3"/>
-      <c r="Q182" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R182" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="S182" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T182" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
       <c r="U182" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E183" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -9720,7 +9699,7 @@
     </row>
     <row r="184" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>78</v>
@@ -9734,26 +9713,46 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
+        <v>2000</v>
+      </c>
+      <c r="J184" s="3">
+        <v>1</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M184" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N184" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="P184" s="3"/>
-      <c r="Q184" s="3"/>
-      <c r="R184" s="3"/>
-      <c r="S184" s="3"/>
-      <c r="T184" s="3"/>
-      <c r="U184" s="3" t="b">
+      <c r="Q184" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S184" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T184" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U184" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>78</v>
@@ -9761,16 +9760,18 @@
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
+      <c r="H185" s="3">
+        <v>10</v>
+      </c>
       <c r="I185" s="3">
-        <v>2000</v>
+        <v>22222</v>
       </c>
       <c r="J185" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K185" s="3" t="s">
         <v>55</v>
@@ -9785,20 +9786,20 @@
         <v>2016</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P185" s="3"/>
       <c r="Q185" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="T185" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U185" s="7" t="b">
         <v>1</v>
@@ -9806,27 +9807,25 @@
     </row>
     <row r="186" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F186" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="3">
-        <v>10</v>
-      </c>
+      <c r="H186" s="3"/>
       <c r="I186" s="3">
-        <v>22222</v>
-      </c>
-      <c r="J186" s="3">
-        <v>2</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="J186" s="3"/>
       <c r="K186" s="3" t="s">
         <v>55</v>
       </c>
@@ -9840,20 +9839,20 @@
         <v>2016</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P186" s="3"/>
       <c r="Q186" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="R186" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="T186" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="U186" s="7" t="b">
         <v>1</v>
@@ -9861,7 +9860,7 @@
     </row>
     <row r="187" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>82</v>
@@ -9872,7 +9871,7 @@
         <v>163</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -9893,20 +9892,20 @@
         <v>2016</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P187" s="3"/>
       <c r="Q187" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="R187" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T187" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U187" s="7" t="b">
         <v>1</v>
@@ -9914,7 +9913,7 @@
     </row>
     <row r="188" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>82</v>
@@ -9925,7 +9924,7 @@
         <v>163</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -9946,20 +9945,20 @@
         <v>2016</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P188" s="3"/>
       <c r="Q188" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="R188" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T188" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U188" s="7" t="b">
         <v>1</v>
@@ -9967,7 +9966,7 @@
     </row>
     <row r="189" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>82</v>
@@ -9975,13 +9974,15 @@
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="H189" s="3">
+        <v>5</v>
+      </c>
       <c r="I189" s="3">
         <v>330</v>
       </c>
@@ -9999,20 +10000,20 @@
         <v>2016</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P189" s="3"/>
       <c r="Q189" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T189" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U189" s="7" t="b">
         <v>1</v>
@@ -10020,7 +10021,7 @@
     </row>
     <row r="190" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>82</v>
@@ -10031,16 +10032,18 @@
         <v>171</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I190" s="3">
         <v>330</v>
       </c>
-      <c r="J190" s="3"/>
+      <c r="J190" s="3">
+        <v>5</v>
+      </c>
       <c r="K190" s="3" t="s">
         <v>55</v>
       </c>
@@ -10054,20 +10057,20 @@
         <v>2016</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P190" s="3"/>
       <c r="Q190" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="R190" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T190" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U190" s="7" t="b">
         <v>1</v>
@@ -10075,7 +10078,7 @@
     </row>
     <row r="191" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>82</v>
@@ -10086,17 +10089,15 @@
         <v>171</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="3">
-        <v>2</v>
-      </c>
+      <c r="H191" s="3"/>
       <c r="I191" s="3">
         <v>330</v>
       </c>
       <c r="J191" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K191" s="3" t="s">
         <v>55</v>
@@ -10111,20 +10112,20 @@
         <v>2016</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P191" s="3"/>
       <c r="Q191" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T191" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U191" s="7" t="b">
         <v>1</v>
@@ -10132,26 +10133,26 @@
     </row>
     <row r="192" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="J192" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>55</v>
@@ -10166,20 +10167,20 @@
         <v>2016</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P192" s="3"/>
       <c r="Q192" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="R192" s="3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="T192" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="U192" s="7" t="b">
         <v>1</v>
@@ -10187,7 +10188,7 @@
     </row>
     <row r="193" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>83</v>
@@ -10198,16 +10199,14 @@
         <v>163</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3">
-        <v>500</v>
-      </c>
-      <c r="J193" s="3">
-        <v>2</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="J193" s="3"/>
       <c r="K193" s="3" t="s">
         <v>55</v>
       </c>
@@ -10221,20 +10220,20 @@
         <v>2016</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P193" s="3"/>
       <c r="Q193" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T193" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="U193" s="7" t="b">
         <v>1</v>
@@ -10242,7 +10241,7 @@
     </row>
     <row r="194" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>83</v>
@@ -10253,12 +10252,12 @@
         <v>163</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="J194" s="3"/>
       <c r="K194" s="3" t="s">
@@ -10274,20 +10273,20 @@
         <v>2016</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R194" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="T194" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="U194" s="7" t="b">
         <v>1</v>
@@ -10295,7 +10294,7 @@
     </row>
     <row r="195" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>83</v>
@@ -10303,15 +10302,15 @@
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3" t="s">
@@ -10327,20 +10326,20 @@
         <v>2016</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P195" s="3"/>
       <c r="Q195" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R195" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="T195" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U195" s="7" t="b">
         <v>1</v>
@@ -10348,7 +10347,7 @@
     </row>
     <row r="196" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>83</v>
@@ -10359,12 +10358,14 @@
         <v>171</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+      <c r="H196" s="3">
+        <v>10</v>
+      </c>
       <c r="I196" s="3">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3" t="s">
@@ -10380,20 +10381,20 @@
         <v>2016</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P196" s="3"/>
       <c r="Q196" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R196" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S196" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T196" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U196" s="7" t="b">
         <v>1</v>
@@ -10401,7 +10402,7 @@
     </row>
     <row r="197" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>83</v>
@@ -10412,14 +10413,14 @@
         <v>171</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I197" s="3">
-        <v>1200</v>
+        <v>25352</v>
       </c>
       <c r="J197" s="3"/>
       <c r="K197" s="3" t="s">
@@ -10435,79 +10436,47 @@
         <v>2016</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P197" s="3"/>
       <c r="Q197" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R197" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S197" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T197" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U197" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
-        <v>21</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="3">
-        <v>20</v>
-      </c>
-      <c r="I198" s="3">
-        <v>25352</v>
-      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M198" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N198" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O198" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
       <c r="P198" s="3"/>
-      <c r="Q198" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="R198" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="S198" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="T198" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="U198" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
     </row>
     <row r="199" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
@@ -10556,107 +10525,122 @@
       <c r="U200" s="3"/>
     </row>
     <row r="201" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
-      <c r="U201" s="3"/>
-    </row>
-    <row r="202" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="14"/>
-    </row>
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="14"/>
+    </row>
+    <row r="202" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="203" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="28"/>
+    </row>
     <row r="206" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="28"/>
-      <c r="H206" s="28"/>
-      <c r="I206" s="28"/>
-      <c r="J206" s="28"/>
-      <c r="K206" s="28"/>
-      <c r="L206" s="28"/>
+      <c r="A206" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G206" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I206" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J206" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K206" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="207" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="3">
+        <v>1</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E207" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L207" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E207" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F207" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G207" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H207" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I207" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J207" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K207" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L207" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>17</v>
@@ -10665,459 +10649,477 @@
         <v>2015</v>
       </c>
       <c r="E208" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G208" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L208" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="28"/>
+      <c r="I213" s="28"/>
+      <c r="J213" s="28"/>
+      <c r="K213" s="28"/>
+      <c r="L213" s="28"/>
+    </row>
+    <row r="214" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H214" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I214" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J214" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K214" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L214" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>1</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E215" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G215" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H215" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="I215" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="J215" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K208" s="3" t="s">
+      <c r="K215" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L208" s="7" t="b">
+      <c r="L215" s="7" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
-        <v>2</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D209" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E209" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K209" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L209" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B214" s="28"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="28"/>
-      <c r="G214" s="28"/>
-      <c r="H214" s="28"/>
-      <c r="I214" s="28"/>
-      <c r="J214" s="28"/>
-      <c r="K214" s="28"/>
-      <c r="L214" s="28"/>
-    </row>
-    <row r="215" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F215" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G215" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H215" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I215" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J215" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K215" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L215" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" s="3">
         <v>2015</v>
       </c>
       <c r="E216" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G216" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L216" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="28"/>
+      <c r="M221" s="28"/>
+      <c r="N221" s="28"/>
+    </row>
+    <row r="222" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E222" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J222" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K222" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L222" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="M222" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N222" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>1</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E223" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G223" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H216" s="7" t="s">
+      <c r="H223" s="3"/>
+      <c r="I223" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I216" s="3" t="s">
+      <c r="J223" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="K223" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K216" s="3" t="s">
+      <c r="L223" s="3"/>
+      <c r="M223" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L216" s="7" t="b">
+      <c r="N223" s="7" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
-        <v>2</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D217" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E217" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H217" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J217" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L217" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B222" s="28"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="28"/>
-      <c r="E222" s="28"/>
-      <c r="F222" s="28"/>
-      <c r="G222" s="28"/>
-      <c r="H222" s="28"/>
-      <c r="I222" s="28"/>
-      <c r="J222" s="28"/>
-      <c r="K222" s="28"/>
-      <c r="L222" s="28"/>
-      <c r="M222" s="28"/>
-      <c r="N222" s="28"/>
-    </row>
-    <row r="223" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E223" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F223" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G223" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I223" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J223" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K223" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L223" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="M223" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N223" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C224" s="19" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D224" s="3">
         <v>2015</v>
       </c>
       <c r="E224" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L224" s="3"/>
       <c r="M224" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N224" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="21"/>
+      <c r="K235" s="21"/>
+      <c r="L235" s="21"/>
+      <c r="M235" s="21"/>
+      <c r="N235" s="21"/>
+      <c r="O235" s="21"/>
+      <c r="P235" s="21"/>
+      <c r="Q235" s="21"/>
+      <c r="R235" s="21"/>
+      <c r="S235" s="21"/>
+      <c r="T235" s="21"/>
+      <c r="U235" s="21"/>
+      <c r="V235" s="21"/>
+      <c r="W235" s="21"/>
+      <c r="X235" s="21"/>
+      <c r="Y235" s="21"/>
+      <c r="Z235" s="21"/>
+    </row>
+    <row r="236" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
-        <v>2</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" s="3" t="s">
+      <c r="B236" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L236" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M236" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N236" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O236" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q236" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R236" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S236" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T236" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U236" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V236" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="W236" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="X236" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y236" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z236" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>18</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3">
+        <v>250</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="3">
+        <v>6</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M237" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D225" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E225" s="3">
+      <c r="N237" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O237" s="3">
         <v>2017</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H225" s="3"/>
-      <c r="I225" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J225" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K225" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N225" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="21"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="21"/>
-      <c r="J236" s="21"/>
-      <c r="K236" s="21"/>
-      <c r="L236" s="21"/>
-      <c r="M236" s="21"/>
-      <c r="N236" s="21"/>
-      <c r="O236" s="21"/>
-      <c r="P236" s="21"/>
-      <c r="Q236" s="21"/>
-      <c r="R236" s="21"/>
-      <c r="S236" s="21"/>
-      <c r="T236" s="21"/>
-      <c r="U236" s="21"/>
-      <c r="V236" s="21"/>
-      <c r="W236" s="21"/>
-      <c r="X236" s="21"/>
-      <c r="Y236" s="21"/>
-      <c r="Z236" s="21"/>
-    </row>
-    <row r="237" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G237" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H237" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I237" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K237" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L237" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M237" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N237" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O237" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P237" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q237" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R237" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S237" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T237" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U237" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V237" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="W237" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="X237" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y237" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z237" s="4" t="s">
-        <v>37</v>
+      <c r="P237" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+      <c r="Y237" s="3"/>
+      <c r="Z237" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>83</v>
@@ -11128,19 +11130,17 @@
         <v>163</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K238" s="3">
-        <v>6</v>
-      </c>
+      <c r="K238" s="3"/>
       <c r="L238" s="3" t="s">
         <v>17</v>
       </c>
@@ -11154,26 +11154,34 @@
         <v>2017</v>
       </c>
       <c r="P238" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q238" s="3"/>
-      <c r="R238" s="3"/>
-      <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
+      <c r="R238" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S238" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T238" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="U238" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
-      <c r="Y238" s="3"/>
+      <c r="Y238" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="Z238" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>83</v>
@@ -11184,12 +11192,12 @@
         <v>163</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>19</v>
@@ -11205,29 +11213,35 @@
         <v>2015</v>
       </c>
       <c r="O239" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q239" s="3"/>
       <c r="R239" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="T239" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V239" s="3"/>
-      <c r="W239" s="3"/>
-      <c r="X239" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W239" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X239" s="3">
+        <v>5</v>
+      </c>
       <c r="Y239" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z239" s="3" t="b">
         <v>1</v>
@@ -11235,7 +11249,7 @@
     </row>
     <row r="240" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>83</v>
@@ -11243,15 +11257,17 @@
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
+      <c r="H240" s="3">
+        <v>2</v>
+      </c>
       <c r="I240" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>19</v>
@@ -11270,23 +11286,23 @@
         <v>2015</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q240" s="3"/>
       <c r="R240" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="T240" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U240" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V240" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W240" s="3">
         <v>2016</v>
@@ -11295,7 +11311,7 @@
         <v>5</v>
       </c>
       <c r="Y240" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z240" s="3" t="b">
         <v>1</v>
@@ -11303,7 +11319,7 @@
     </row>
     <row r="241" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>83</v>
@@ -11314,12 +11330,10 @@
         <v>171</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G241" s="3"/>
-      <c r="H241" s="3">
-        <v>2</v>
-      </c>
+      <c r="H241" s="3"/>
       <c r="I241" s="3">
         <v>102</v>
       </c>
@@ -11337,26 +11351,26 @@
         <v>2015</v>
       </c>
       <c r="O241" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P241" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q241" s="3"/>
       <c r="R241" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T241" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U241" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V241" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W241" s="3">
         <v>2016</v>
@@ -11365,7 +11379,7 @@
         <v>5</v>
       </c>
       <c r="Y241" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z241" s="3" t="b">
         <v>1</v>
@@ -11373,7 +11387,7 @@
     </row>
     <row r="242" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>83</v>
@@ -11384,10 +11398,12 @@
         <v>171</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="H242" s="3">
+        <v>2</v>
+      </c>
       <c r="I242" s="3">
         <v>102</v>
       </c>
@@ -11405,35 +11421,29 @@
         <v>2015</v>
       </c>
       <c r="O242" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q242" s="3"/>
       <c r="R242" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T242" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U242" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W242" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X242" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
       <c r="Y242" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z242" s="3" t="b">
         <v>1</v>
@@ -11441,25 +11451,23 @@
     </row>
     <row r="243" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G243" s="3"/>
-      <c r="H243" s="3">
-        <v>2</v>
-      </c>
+      <c r="H243" s="3"/>
       <c r="I243" s="3">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="J243" s="3" t="s">
         <v>19</v>
@@ -11478,34 +11486,26 @@
         <v>2016</v>
       </c>
       <c r="P243" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="Q243" s="3"/>
-      <c r="R243" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S243" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="T243" s="3" t="s">
-        <v>294</v>
-      </c>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
       <c r="U243" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
-      <c r="Y243" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y243" s="3"/>
       <c r="Z243" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>82</v>
@@ -11516,12 +11516,12 @@
         <v>163</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>19</v>
@@ -11537,29 +11537,37 @@
         <v>2015</v>
       </c>
       <c r="O244" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q244" s="3"/>
-      <c r="R244" s="3"/>
-      <c r="S244" s="3"/>
-      <c r="T244" s="3"/>
+      <c r="R244" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="U244" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
-      <c r="Y244" s="3"/>
+      <c r="Y244" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="Z244" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>82</v>
@@ -11570,12 +11578,12 @@
         <v>163</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>19</v>
@@ -11594,26 +11602,32 @@
         <v>2015</v>
       </c>
       <c r="P245" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q245" s="3"/>
       <c r="R245" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="S245" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="T245" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U245" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V245" s="3"/>
-      <c r="W245" s="3"/>
-      <c r="X245" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W245" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X245" s="3">
+        <v>5</v>
+      </c>
       <c r="Y245" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Z245" s="3" t="b">
         <v>1</v>
@@ -11621,7 +11635,7 @@
     </row>
     <row r="246" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>82</v>
@@ -11629,15 +11643,17 @@
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
+      <c r="H246" s="3">
+        <v>2</v>
+      </c>
       <c r="I246" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>19</v>
@@ -11656,23 +11672,23 @@
         <v>2015</v>
       </c>
       <c r="P246" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q246" s="3"/>
       <c r="R246" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="U246" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V246" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="W246" s="3">
         <v>2016</v>
@@ -11681,7 +11697,7 @@
         <v>5</v>
       </c>
       <c r="Y246" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z246" s="3" t="b">
         <v>1</v>
@@ -11689,7 +11705,7 @@
     </row>
     <row r="247" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>82</v>
@@ -11700,11 +11716,11 @@
         <v>171</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G247" s="3"/>
       <c r="H247" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I247" s="3">
         <v>102</v>
@@ -11726,23 +11742,23 @@
         <v>2015</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q247" s="3"/>
       <c r="R247" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S247" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="U247" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="W247" s="3">
         <v>2016</v>
@@ -11751,7 +11767,7 @@
         <v>5</v>
       </c>
       <c r="Y247" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Z247" s="3" t="b">
         <v>1</v>
@@ -11759,7 +11775,7 @@
     </row>
     <row r="248" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>82</v>
@@ -11770,12 +11786,10 @@
         <v>171</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G248" s="3"/>
-      <c r="H248" s="3">
-        <v>20</v>
-      </c>
+      <c r="H248" s="3"/>
       <c r="I248" s="3">
         <v>102</v>
       </c>
@@ -11796,32 +11810,26 @@
         <v>2015</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q248" s="3"/>
       <c r="R248" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S248" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T248" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="U248" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W248" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X248" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
       <c r="Y248" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Z248" s="3" t="b">
         <v>1</v>
@@ -11829,78 +11837,54 @@
     </row>
     <row r="249" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="3">
-        <v>102</v>
-      </c>
-      <c r="J249" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
       <c r="K249" s="3"/>
-      <c r="L249" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M249" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N249" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O249" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P249" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
-      <c r="R249" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S249" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="T249" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="U249" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
-      <c r="Y249" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="Y249" s="3"/>
       <c r="Z249" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D250" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -11929,16 +11913,16 @@
     </row>
     <row r="251" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D251" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -11967,13 +11951,13 @@
     </row>
     <row r="252" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D252" s="3">
         <v>2018</v>
@@ -12005,28 +11989,42 @@
     </row>
     <row r="253" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D253" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
+      <c r="I253" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="3">
+        <v>2</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N253" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O253" s="3">
+        <v>2014</v>
+      </c>
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
@@ -12043,7 +12041,7 @@
     </row>
     <row r="254" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>144</v>
@@ -12065,37 +12063,57 @@
         <v>19</v>
       </c>
       <c r="K254" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L254" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N254" s="3">
         <v>2015</v>
       </c>
       <c r="O254" s="3">
-        <v>2014</v>
-      </c>
-      <c r="P254" s="3"/>
-      <c r="Q254" s="3"/>
-      <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
-      <c r="U254" s="3"/>
-      <c r="V254" s="3"/>
-      <c r="W254" s="3"/>
-      <c r="X254" s="3"/>
-      <c r="Y254" s="3"/>
+        <v>2015</v>
+      </c>
+      <c r="P254" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q254" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R254" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S254" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T254" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U254" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V254" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W254" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X254" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y254" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Z254" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>144</v>
@@ -12117,7 +12135,7 @@
         <v>19</v>
       </c>
       <c r="K255" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L255" s="3" t="s">
         <v>15</v>
@@ -12147,17 +12165,11 @@
         <v>268</v>
       </c>
       <c r="U255" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V255" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W255" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X255" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
       <c r="Y255" s="3" t="s">
         <v>243</v>
       </c>
@@ -12165,75 +12177,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D256" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E256" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K256" s="3">
-        <v>1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
       <c r="L256" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N256" s="3">
         <v>2015</v>
       </c>
       <c r="O256" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P256" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q256" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="R256" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S256" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T256" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U256" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="P256" s="3"/>
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3"/>
+      <c r="S256" s="3"/>
+      <c r="T256" s="3"/>
+      <c r="U256" s="3"/>
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
-      <c r="Y256" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="Y256" s="3"/>
       <c r="Z256" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>78</v>
@@ -12255,13 +12247,13 @@
         <v>15</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N257" s="3">
         <v>2015</v>
       </c>
       <c r="O257" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
@@ -12274,12 +12266,12 @@
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
       <c r="Z257" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>78</v>
@@ -12287,28 +12279,20 @@
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
-      <c r="L258" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M258" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N258" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O258" s="3">
-        <v>2015</v>
-      </c>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
@@ -12325,7 +12309,7 @@
     </row>
     <row r="259" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>78</v>
@@ -12337,115 +12321,78 @@
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
+      <c r="H259" s="3">
+        <v>5</v>
+      </c>
       <c r="I259" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J259" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
-      <c r="O259" s="3"/>
-      <c r="P259" s="3"/>
-      <c r="Q259" s="3"/>
-      <c r="R259" s="3"/>
-      <c r="S259" s="3"/>
-      <c r="T259" s="3"/>
-      <c r="U259" s="3"/>
-      <c r="V259" s="3"/>
-      <c r="W259" s="3"/>
-      <c r="X259" s="3"/>
-      <c r="Y259" s="3"/>
+      <c r="L259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N259" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O259" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q259" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R259" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S259" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T259" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U259" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W259" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X259" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y259" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="Z259" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <v>11</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3">
-        <v>5</v>
-      </c>
-      <c r="I260" s="3">
-        <v>300</v>
-      </c>
-      <c r="J260" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M260" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N260" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O260" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P260" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q260" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="R260" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="S260" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T260" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U260" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V260" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W260" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X260" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y260" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z260" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="260" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="261" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="262" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A114:N114"/>
-    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A221:N221"/>
+    <mergeCell ref="A120:N120"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A213:L213"/>
+    <mergeCell ref="A205:L205"/>
+    <mergeCell ref="A113:N113"/>
+    <mergeCell ref="A105:L105"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A40:N40"/>
     <mergeCell ref="A48:S48"/>
-    <mergeCell ref="A222:N222"/>
-    <mergeCell ref="A121:N121"/>
-    <mergeCell ref="A127:N127"/>
-    <mergeCell ref="A214:L214"/>
-    <mergeCell ref="A206:L206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="20196" windowHeight="8664" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22110" windowHeight="5475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <oleSize ref="A1:Q17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>a1234567</t>
   </si>
 </sst>
 </file>
@@ -1588,21 +1591,21 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,7 +1628,7 @@
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2208,18 +2211,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2507,11 +2510,11 @@
       <c r="F10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5</v>
+      <c r="G10" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>0</v>
@@ -2549,14 +2552,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2864,40 +2867,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="28.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
-    <col min="14" max="14" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.59765625" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.59765625" customWidth="1"/>
-    <col min="24" max="24" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.625" customWidth="1"/>
+    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.625" customWidth="1"/>
+    <col min="24" max="24" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>146</v>
       </c>
@@ -2912,7 +2915,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>145</v>
       </c>
@@ -3050,7 +3053,7 @@
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3136,7 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3198,7 +3201,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>21</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -3446,7 +3449,7 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -3507,7 +3510,7 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -3570,7 +3573,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3635,7 +3638,7 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3686,7 +3689,7 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -3737,7 +3740,7 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3794,7 +3797,7 @@
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -3861,7 +3864,7 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -3928,7 +3931,7 @@
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -3979,7 +3982,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
@@ -4028,7 +4031,7 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -4091,7 +4094,7 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>10</v>
       </c>
@@ -4152,7 +4155,7 @@
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -4213,7 +4216,7 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>12</v>
       </c>
@@ -4274,7 +4277,7 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -4337,7 +4340,7 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4400,7 +4403,7 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -4431,7 +4434,7 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>105</v>
       </c>
@@ -4452,7 +4455,7 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>112</v>
       </c>
@@ -4612,7 +4615,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4675,7 @@
       </c>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4929,7 +4932,7 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4950,7 +4953,7 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4971,8 +4974,8 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>138</v>
       </c>
@@ -5005,7 +5008,7 @@
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
     </row>
-    <row r="59" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -5355,9 +5358,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>136</v>
       </c>
@@ -5384,7 +5387,7 @@
       <c r="V67" s="16"/>
       <c r="W67" s="16"/>
     </row>
-    <row r="68" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>0</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -5554,9 +5557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>137</v>
       </c>
@@ -5586,7 +5589,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>5</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>7</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>8</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>9</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>10</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>11</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>13</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>14</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>15</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>16</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>17</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>18</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>19</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>20</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>21</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>22</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>23</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6986,7 +6989,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -7011,8 +7014,8 @@
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
     </row>
-    <row r="104" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>139</v>
       </c>
@@ -7028,7 +7031,7 @@
       <c r="K105" s="28"/>
       <c r="L105" s="28"/>
     </row>
-    <row r="106" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>0</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>1</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -7142,11 +7145,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>300</v>
       </c>
@@ -7164,7 +7167,7 @@
       <c r="M113" s="28"/>
       <c r="N113" s="28"/>
     </row>
-    <row r="114" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -7288,9 +7291,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>311</v>
       </c>
@@ -7308,7 +7311,7 @@
       <c r="M120" s="28"/>
       <c r="N120" s="28"/>
     </row>
-    <row r="121" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>1</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -7448,7 +7451,7 @@
       <c r="M124" s="12"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -7464,7 +7467,7 @@
       <c r="M125" s="12"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>312</v>
       </c>
@@ -7482,7 +7485,7 @@
       <c r="M126" s="28"/>
       <c r="N126" s="28"/>
     </row>
-    <row r="127" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>0</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>1</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -7622,7 +7625,7 @@
       <c r="M130" s="12"/>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7638,7 +7641,7 @@
       <c r="M131" s="12"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -7654,7 +7657,7 @@
       <c r="M132" s="12"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -7670,7 +7673,7 @@
       <c r="M133" s="12"/>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -7686,7 +7689,7 @@
       <c r="M134" s="12"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
         <v>302</v>
       </c>
@@ -7710,7 +7713,7 @@
       <c r="S135" s="20"/>
       <c r="T135" s="20"/>
     </row>
-    <row r="136" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>0</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -7902,7 +7905,7 @@
       <c r="M139" s="12"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -7918,7 +7921,7 @@
       <c r="M140" s="12"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -7934,7 +7937,7 @@
       <c r="M141" s="12"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>313</v>
       </c>
@@ -7959,7 +7962,7 @@
       <c r="T142" s="20"/>
       <c r="U142" s="20"/>
     </row>
-    <row r="143" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8064,7 +8067,7 @@
       </c>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -8100,7 +8103,7 @@
       </c>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -8138,7 +8141,7 @@
       </c>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>4</v>
       </c>
@@ -8194,7 +8197,7 @@
       </c>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>5</v>
       </c>
@@ -8250,7 +8253,7 @@
       </c>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -8286,7 +8289,7 @@
       </c>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -8320,7 +8323,7 @@
       </c>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>8</v>
       </c>
@@ -8374,7 +8377,7 @@
       </c>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>9</v>
       </c>
@@ -8430,7 +8433,7 @@
       </c>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>10</v>
       </c>
@@ -8484,7 +8487,7 @@
       </c>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>11</v>
       </c>
@@ -8538,7 +8541,7 @@
       </c>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>12</v>
       </c>
@@ -8592,7 +8595,7 @@
       </c>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>13</v>
       </c>
@@ -8648,7 +8651,7 @@
       </c>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>14</v>
       </c>
@@ -8706,7 +8709,7 @@
       </c>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>15</v>
       </c>
@@ -8762,7 +8765,7 @@
       </c>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>16</v>
       </c>
@@ -8818,7 +8821,7 @@
       </c>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>17</v>
       </c>
@@ -8872,7 +8875,7 @@
       </c>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>18</v>
       </c>
@@ -8926,7 +8929,7 @@
       </c>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>19</v>
       </c>
@@ -8980,7 +8983,7 @@
       </c>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>20</v>
       </c>
@@ -9036,7 +9039,7 @@
       </c>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>21</v>
       </c>
@@ -9092,7 +9095,7 @@
       </c>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9116,7 +9119,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9140,7 +9143,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9164,7 +9167,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -9186,7 +9189,7 @@
       <c r="S168" s="12"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -9208,7 +9211,7 @@
       <c r="S169" s="12"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -9230,7 +9233,7 @@
       <c r="S170" s="12"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -9252,7 +9255,7 @@
       <c r="S171" s="12"/>
       <c r="T171" s="14"/>
     </row>
-    <row r="172" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -9274,7 +9277,7 @@
       <c r="S172" s="12"/>
       <c r="T172" s="14"/>
     </row>
-    <row r="173" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -9296,7 +9299,7 @@
       <c r="S173" s="12"/>
       <c r="T173" s="14"/>
     </row>
-    <row r="174" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -9318,7 +9321,7 @@
       <c r="S174" s="12"/>
       <c r="T174" s="14"/>
     </row>
-    <row r="175" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A175" s="20" t="s">
         <v>316</v>
       </c>
@@ -9343,7 +9346,7 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>0</v>
       </c>
@@ -9408,7 +9411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2</v>
       </c>
@@ -9482,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>3</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>4</v>
       </c>
@@ -9574,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>5</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>6</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>7</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>9</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>10</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>11</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>13</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>14</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>15</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>16</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>17</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>18</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>19</v>
       </c>
@@ -10345,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>20</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>21</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10478,7 +10481,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
     </row>
-    <row r="199" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10501,7 +10504,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
     </row>
-    <row r="200" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10524,7 +10527,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
     </row>
-    <row r="201" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -10540,10 +10543,10 @@
       <c r="M201" s="12"/>
       <c r="N201" s="14"/>
     </row>
-    <row r="202" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
     <row r="204" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>140</v>
       </c>
@@ -10559,7 +10562,7 @@
       <c r="K205" s="28"/>
       <c r="L205" s="28"/>
     </row>
-    <row r="206" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>0</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -10673,9 +10676,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
         <v>141</v>
       </c>
@@ -10691,7 +10694,7 @@
       <c r="K213" s="28"/>
       <c r="L213" s="28"/>
     </row>
-    <row r="214" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>0</v>
       </c>
@@ -10729,7 +10732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -10767,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2</v>
       </c>
@@ -10805,9 +10808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>314</v>
       </c>
@@ -10825,7 +10828,7 @@
       <c r="M221" s="28"/>
       <c r="N221" s="28"/>
     </row>
-    <row r="222" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>0</v>
       </c>
@@ -10869,7 +10872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>1</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -10949,9 +10952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
         <v>315</v>
       </c>
@@ -10981,7 +10984,7 @@
       <c r="Y235" s="21"/>
       <c r="Z235" s="21"/>
     </row>
-    <row r="236" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>0</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>18</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>19</v>
       </c>
@@ -11179,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>20</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>21</v>
       </c>
@@ -11317,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>22</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>23</v>
       </c>
@@ -11449,7 +11452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>12</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>14</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>15</v>
       </c>
@@ -11703,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>16</v>
       </c>
@@ -11773,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>17</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -11873,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>2</v>
       </c>
@@ -11911,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>3</v>
       </c>
@@ -11949,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>4</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>5</v>
       </c>
@@ -12039,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>6</v>
       </c>
@@ -12111,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>7</v>
       </c>
@@ -12223,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>9</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>10</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>11</v>
       </c>
@@ -12377,22 +12380,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A221:N221"/>
-    <mergeCell ref="A120:N120"/>
-    <mergeCell ref="A126:N126"/>
-    <mergeCell ref="A213:L213"/>
-    <mergeCell ref="A205:L205"/>
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="A105:L105"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A40:N40"/>
     <mergeCell ref="A48:S48"/>
+    <mergeCell ref="A221:N221"/>
+    <mergeCell ref="A120:N120"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A213:L213"/>
+    <mergeCell ref="A205:L205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22110" windowHeight="5475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22110" windowHeight="5475" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q17"/>
+  <oleSize ref="A1:J37"/>
 </workbook>
 </file>
 
@@ -2211,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="F225" workbookViewId="0">
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3573,7 +3573,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
     </row>
-    <row r="18" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
-    <row r="20" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
     </row>
-    <row r="21" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
     </row>
-    <row r="23" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
     </row>
-    <row r="24" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>7</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
     </row>
-    <row r="26" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>10</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
     </row>
-    <row r="27" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>12</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
-    <row r="30" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="37" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -4434,7 +4434,7 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="40" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>105</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
         <v>112</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:38" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:38" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4932,7 +4932,7 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4953,7 +4953,7 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4974,8 +4974,8 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>138</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
     </row>
-    <row r="59" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -5358,8 +5358,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>136</v>
@@ -5387,7 +5387,7 @@
       <c r="V67" s="16"/>
       <c r="W67" s="16"/>
     </row>
-    <row r="68" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>0</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -5557,9 +5557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>137</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>5</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>7</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>8</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>9</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>10</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>11</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>13</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>14</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>15</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>16</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>17</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>18</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>19</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>20</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>21</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>22</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>23</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6989,7 +6989,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -7014,8 +7014,8 @@
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
     </row>
-    <row r="104" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
         <v>139</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="K105" s="28"/>
       <c r="L105" s="28"/>
     </row>
-    <row r="106" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>0</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>1</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -7145,11 +7145,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="28" t="s">
         <v>300</v>
       </c>
@@ -7167,7 +7167,7 @@
       <c r="M113" s="28"/>
       <c r="N113" s="28"/>
     </row>
-    <row r="114" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -7291,9 +7291,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
         <v>311</v>
       </c>
@@ -7311,7 +7311,7 @@
       <c r="M120" s="28"/>
       <c r="N120" s="28"/>
     </row>
-    <row r="121" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>0</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>1</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>2</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -7451,7 +7451,7 @@
       <c r="M124" s="12"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -7467,7 +7467,7 @@
       <c r="M125" s="12"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="28" t="s">
         <v>312</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="M126" s="28"/>
       <c r="N126" s="28"/>
     </row>
-    <row r="127" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>0</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>1</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -7625,7 +7625,7 @@
       <c r="M130" s="12"/>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7641,7 +7641,7 @@
       <c r="M131" s="12"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -7657,7 +7657,7 @@
       <c r="M132" s="12"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -7673,7 +7673,7 @@
       <c r="M133" s="12"/>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -7689,7 +7689,7 @@
       <c r="M134" s="12"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>302</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="S135" s="20"/>
       <c r="T135" s="20"/>
     </row>
-    <row r="136" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>2</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="M139" s="12"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -7921,7 +7921,7 @@
       <c r="M140" s="12"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -7937,7 +7937,7 @@
       <c r="M141" s="12"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>313</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="T142" s="20"/>
       <c r="U142" s="20"/>
     </row>
-    <row r="143" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>4</v>
       </c>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>5</v>
       </c>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>8</v>
       </c>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>9</v>
       </c>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>10</v>
       </c>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>11</v>
       </c>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>12</v>
       </c>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>13</v>
       </c>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>14</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>15</v>
       </c>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>16</v>
       </c>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>17</v>
       </c>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>18</v>
       </c>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>19</v>
       </c>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>20</v>
       </c>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>21</v>
       </c>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9119,7 +9119,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9143,7 +9143,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9167,7 +9167,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -9189,7 +9189,7 @@
       <c r="S168" s="12"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -9211,7 +9211,7 @@
       <c r="S169" s="12"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -9233,7 +9233,7 @@
       <c r="S170" s="12"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -9255,7 +9255,7 @@
       <c r="S171" s="12"/>
       <c r="T171" s="14"/>
     </row>
-    <row r="172" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -9277,7 +9277,7 @@
       <c r="S172" s="12"/>
       <c r="T172" s="14"/>
     </row>
-    <row r="173" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -9299,7 +9299,7 @@
       <c r="S173" s="12"/>
       <c r="T173" s="14"/>
     </row>
-    <row r="174" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -9321,7 +9321,7 @@
       <c r="S174" s="12"/>
       <c r="T174" s="14"/>
     </row>
-    <row r="175" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>316</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>0</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>2</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>3</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>4</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>5</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>6</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>7</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>9</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>10</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>11</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>13</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>14</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>15</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>16</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>17</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>18</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>19</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>20</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>21</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10481,7 +10481,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
     </row>
-    <row r="199" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10504,7 +10504,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
     </row>
-    <row r="200" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10527,7 +10527,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
     </row>
-    <row r="201" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -10543,10 +10543,10 @@
       <c r="M201" s="12"/>
       <c r="N201" s="14"/>
     </row>
-    <row r="202" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="28" t="s">
         <v>140</v>
       </c>
@@ -10562,7 +10562,7 @@
       <c r="K205" s="28"/>
       <c r="L205" s="28"/>
     </row>
-    <row r="206" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>0</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -10676,9 +10676,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="28" t="s">
         <v>141</v>
       </c>
@@ -10694,7 +10694,7 @@
       <c r="K213" s="28"/>
       <c r="L213" s="28"/>
     </row>
-    <row r="214" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>0</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>2</v>
       </c>
@@ -10808,9 +10808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="28" t="s">
         <v>314</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="M221" s="28"/>
       <c r="N221" s="28"/>
     </row>
-    <row r="222" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18" t="s">
         <v>0</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>1</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -10952,9 +10952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21" t="s">
         <v>315</v>
       </c>
@@ -10984,7 +10984,7 @@
       <c r="Y235" s="21"/>
       <c r="Z235" s="21"/>
     </row>
-    <row r="236" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>0</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>18</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>19</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>20</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>21</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>22</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>23</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>12</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>13</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>14</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>15</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>16</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>17</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>2</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>3</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>4</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>5</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>6</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>7</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>9</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>10</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>11</v>
       </c>
@@ -12380,22 +12380,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:38" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A221:N221"/>
+    <mergeCell ref="A120:N120"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A213:L213"/>
+    <mergeCell ref="A205:L205"/>
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="A105:L105"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A40:N40"/>
     <mergeCell ref="A48:S48"/>
-    <mergeCell ref="A221:N221"/>
-    <mergeCell ref="A120:N120"/>
-    <mergeCell ref="A126:N126"/>
-    <mergeCell ref="A213:L213"/>
-    <mergeCell ref="A205:L205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -13,7 +13,6 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J37"/>
 </workbook>
 </file>
 
@@ -1214,7 +1213,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1244,6 +1243,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1588,7 +1590,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1609,24 +1611,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2226,18 +2228,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2563,15 +2565,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2865,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL262"/>
+  <dimension ref="A1:AE259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F225" workbookViewId="0">
-      <selection activeCell="L236" sqref="L236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2901,19 +2903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3021,33 +3023,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -3136,92 +3138,76 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
     </row>
-    <row r="10" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>10</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>22222</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3">
-        <v>2</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="R10" s="3">
         <v>2015</v>
       </c>
       <c r="S10" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y10" s="7" t="b">
-        <v>1</v>
+        <v>2015</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>20</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>25352</v>
+        <v>300</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3230,7 +3216,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>16</v>
@@ -3239,46 +3225,36 @@
         <v>2015</v>
       </c>
       <c r="S11" s="3">
-        <v>2017</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y11" s="7" t="b">
-        <v>1</v>
+        <v>2018</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
@@ -3287,161 +3263,167 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R12" s="3">
         <v>2015</v>
       </c>
       <c r="S12" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y12" s="7" t="b">
-        <v>1</v>
+        <v>2018</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
     </row>
-    <row r="13" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>600</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R13" s="3">
         <v>2015</v>
       </c>
       <c r="S13" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y13" s="7" t="b">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
     </row>
-    <row r="14" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="D14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R14" s="3">
         <v>2015</v>
       </c>
       <c r="S14" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y14" s="7" t="b">
+        <v>153</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Z14" s="12"/>
@@ -3449,25 +3431,25 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3476,33 +3458,23 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R15" s="3">
         <v>2015</v>
       </c>
       <c r="S15" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y15" s="7" t="b">
+        <v>2018</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Z15" s="12"/>
@@ -3512,31 +3484,33 @@
     </row>
     <row r="16" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
         <v>10</v>
       </c>
       <c r="I16" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>22222</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
         <v>55</v>
@@ -3551,19 +3525,19 @@
         <v>2016</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="Y16" s="7" t="b">
         <v>1</v>
@@ -3573,12 +3547,12 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3586,18 +3560,16 @@
         <v>171</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I17" s="3">
-        <v>330</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
+        <v>25352</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3607,28 +3579,28 @@
         <v>55</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R17" s="3">
         <v>2015</v>
       </c>
       <c r="S17" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="Y17" s="7" t="b">
         <v>1</v>
@@ -3638,76 +3610,88 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>200</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="R18" s="3">
         <v>2015</v>
       </c>
       <c r="S18" s="3">
-        <v>2015</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="b">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y18" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3716,214 +3700,218 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R19" s="3">
         <v>2015</v>
       </c>
       <c r="S19" s="3">
-        <v>2018</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="b">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y19" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3">
-        <v>2</v>
-      </c>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R20" s="3">
         <v>2015</v>
       </c>
       <c r="S20" s="3">
-        <v>2018</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="b">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y20" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R21" s="3">
         <v>2015</v>
       </c>
       <c r="S21" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y21" s="3" t="b">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y21" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
       <c r="I22" s="3">
-        <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R22" s="3">
         <v>2015</v>
       </c>
       <c r="S22" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y22" s="3" t="b">
+        <v>236</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z22" s="12"/>
@@ -3933,48 +3921,62 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
       <c r="I23" s="3">
-        <v>200</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R23" s="3">
         <v>2015</v>
       </c>
       <c r="S23" s="3">
-        <v>2018</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="b">
+        <v>2016</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Z23" s="12"/>
@@ -4435,22 +4437,22 @@
       <c r="AC37" s="12"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="16"/>
@@ -4588,34 +4590,34 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
       <c r="T48" s="15"/>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -4675,7 +4677,7 @@
       </c>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -4793,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4932,7 +4934,7 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4953,7 +4955,7 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4974,8 +4976,7 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>138</v>
       </c>
@@ -5008,7 +5009,7 @@
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
     </row>
-    <row r="59" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -5358,9 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>136</v>
       </c>
@@ -5387,7 +5386,7 @@
       <c r="V67" s="16"/>
       <c r="W67" s="16"/>
     </row>
-    <row r="68" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>0</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -5557,9 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>137</v>
       </c>
@@ -5589,7 +5586,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
@@ -5669,7 +5666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -5821,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>5</v>
       </c>
@@ -5873,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>7</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>8</v>
       </c>
@@ -6057,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>9</v>
       </c>
@@ -6095,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>10</v>
       </c>
@@ -6133,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>11</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -6249,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>13</v>
       </c>
@@ -6311,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>14</v>
       </c>
@@ -6379,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>15</v>
       </c>
@@ -6449,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>16</v>
       </c>
@@ -6519,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>17</v>
       </c>
@@ -6581,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>18</v>
       </c>
@@ -6629,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>19</v>
       </c>
@@ -6691,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>20</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>21</v>
       </c>
@@ -6829,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>22</v>
       </c>
@@ -6897,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>23</v>
       </c>
@@ -6961,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6989,7 +6986,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -7014,24 +7011,23 @@
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
     </row>
-    <row r="104" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="28" t="s">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-    </row>
-    <row r="106" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>0</v>
       </c>
@@ -7069,7 +7065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>1</v>
       </c>
@@ -7107,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -7145,29 +7141,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="28" t="s">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="28"/>
-      <c r="N113" s="28"/>
-    </row>
-    <row r="114" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -7251,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -7291,27 +7283,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="28" t="s">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="28"/>
-    </row>
-    <row r="121" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>0</v>
       </c>
@@ -7355,7 +7345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>1</v>
       </c>
@@ -7395,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>2</v>
       </c>
@@ -7435,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -7451,7 +7441,7 @@
       <c r="M124" s="12"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -7467,25 +7457,25 @@
       <c r="M125" s="12"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="28" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
-      <c r="M126" s="28"/>
-      <c r="N126" s="28"/>
-    </row>
-    <row r="127" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>0</v>
       </c>
@@ -7529,7 +7519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>1</v>
       </c>
@@ -7569,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -7609,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -7625,7 +7615,7 @@
       <c r="M130" s="12"/>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7641,7 +7631,7 @@
       <c r="M131" s="12"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -7657,7 +7647,7 @@
       <c r="M132" s="12"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -7673,7 +7663,7 @@
       <c r="M133" s="12"/>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -7689,7 +7679,7 @@
       <c r="M134" s="12"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>302</v>
       </c>
@@ -7713,7 +7703,7 @@
       <c r="S135" s="20"/>
       <c r="T135" s="20"/>
     </row>
-    <row r="136" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -7833,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>2</v>
       </c>
@@ -7889,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -7905,7 +7895,7 @@
       <c r="M139" s="12"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -7921,7 +7911,7 @@
       <c r="M140" s="12"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -7937,7 +7927,7 @@
       <c r="M141" s="12"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>313</v>
       </c>
@@ -7962,7 +7952,7 @@
       <c r="T142" s="20"/>
       <c r="U142" s="20"/>
     </row>
-    <row r="143" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +8017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8067,7 +8057,7 @@
       </c>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -8103,7 +8093,7 @@
       </c>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>3</v>
       </c>
@@ -8141,7 +8131,7 @@
       </c>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>4</v>
       </c>
@@ -8197,7 +8187,7 @@
       </c>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>5</v>
       </c>
@@ -8253,7 +8243,7 @@
       </c>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -8289,7 +8279,7 @@
       </c>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -8323,7 +8313,7 @@
       </c>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>8</v>
       </c>
@@ -8377,7 +8367,7 @@
       </c>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>9</v>
       </c>
@@ -8433,7 +8423,7 @@
       </c>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>10</v>
       </c>
@@ -8487,7 +8477,7 @@
       </c>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>11</v>
       </c>
@@ -8541,7 +8531,7 @@
       </c>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>12</v>
       </c>
@@ -8595,7 +8585,7 @@
       </c>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>13</v>
       </c>
@@ -8651,7 +8641,7 @@
       </c>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>14</v>
       </c>
@@ -8709,7 +8699,7 @@
       </c>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>15</v>
       </c>
@@ -8765,7 +8755,7 @@
       </c>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>16</v>
       </c>
@@ -8821,7 +8811,7 @@
       </c>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>17</v>
       </c>
@@ -8875,7 +8865,7 @@
       </c>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>18</v>
       </c>
@@ -8929,7 +8919,7 @@
       </c>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>19</v>
       </c>
@@ -8983,7 +8973,7 @@
       </c>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>20</v>
       </c>
@@ -9039,7 +9029,7 @@
       </c>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>21</v>
       </c>
@@ -9095,7 +9085,7 @@
       </c>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9119,7 +9109,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9143,7 +9133,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9167,7 +9157,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -9189,7 +9179,7 @@
       <c r="S168" s="12"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -9211,7 +9201,7 @@
       <c r="S169" s="12"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -9233,7 +9223,7 @@
       <c r="S170" s="12"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -9255,7 +9245,7 @@
       <c r="S171" s="12"/>
       <c r="T171" s="14"/>
     </row>
-    <row r="172" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -9277,7 +9267,7 @@
       <c r="S172" s="12"/>
       <c r="T172" s="14"/>
     </row>
-    <row r="173" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -9299,7 +9289,7 @@
       <c r="S173" s="12"/>
       <c r="T173" s="14"/>
     </row>
-    <row r="174" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -9321,7 +9311,7 @@
       <c r="S174" s="12"/>
       <c r="T174" s="14"/>
     </row>
-    <row r="175" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>316</v>
       </c>
@@ -9346,7 +9336,7 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>0</v>
       </c>
@@ -9411,7 +9401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -9450,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>2</v>
       </c>
@@ -9485,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>3</v>
       </c>
@@ -9522,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>4</v>
       </c>
@@ -9577,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>5</v>
       </c>
@@ -9632,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>6</v>
       </c>
@@ -9667,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>7</v>
       </c>
@@ -9700,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -9753,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>9</v>
       </c>
@@ -9808,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>10</v>
       </c>
@@ -9861,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>11</v>
       </c>
@@ -9914,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -9967,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>13</v>
       </c>
@@ -10022,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>14</v>
       </c>
@@ -10079,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>15</v>
       </c>
@@ -10134,7 +10124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>16</v>
       </c>
@@ -10189,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>17</v>
       </c>
@@ -10242,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>18</v>
       </c>
@@ -10295,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>19</v>
       </c>
@@ -10348,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>20</v>
       </c>
@@ -10403,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>21</v>
       </c>
@@ -10458,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10481,7 +10471,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
     </row>
-    <row r="199" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10504,7 +10494,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
     </row>
-    <row r="200" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10527,7 +10517,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
     </row>
-    <row r="201" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -10543,26 +10533,24 @@
       <c r="M201" s="12"/>
       <c r="N201" s="14"/>
     </row>
-    <row r="202" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="28" t="s">
+    <row r="204" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A205" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
-      <c r="L205" s="28"/>
-    </row>
-    <row r="206" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="29"/>
+      <c r="F205" s="29"/>
+      <c r="G205" s="29"/>
+      <c r="H205" s="29"/>
+      <c r="I205" s="29"/>
+      <c r="J205" s="29"/>
+      <c r="K205" s="29"/>
+      <c r="L205" s="29"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>0</v>
       </c>
@@ -10600,7 +10588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -10638,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -10676,25 +10664,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="28" t="s">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="28"/>
-      <c r="H213" s="28"/>
-      <c r="I213" s="28"/>
-      <c r="J213" s="28"/>
-      <c r="K213" s="28"/>
-      <c r="L213" s="28"/>
-    </row>
-    <row r="214" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>0</v>
       </c>
@@ -10732,7 +10718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -10770,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>2</v>
       </c>
@@ -10808,27 +10794,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="28" t="s">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="28"/>
-      <c r="E221" s="28"/>
-      <c r="F221" s="28"/>
-      <c r="G221" s="28"/>
-      <c r="H221" s="28"/>
-      <c r="I221" s="28"/>
-      <c r="J221" s="28"/>
-      <c r="K221" s="28"/>
-      <c r="L221" s="28"/>
-      <c r="M221" s="28"/>
-      <c r="N221" s="28"/>
-    </row>
-    <row r="222" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29"/>
+      <c r="F221" s="29"/>
+      <c r="G221" s="29"/>
+      <c r="H221" s="29"/>
+      <c r="I221" s="29"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="29"/>
+      <c r="L221" s="29"/>
+      <c r="M221" s="29"/>
+      <c r="N221" s="29"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="18" t="s">
         <v>0</v>
       </c>
@@ -10872,7 +10856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>1</v>
       </c>
@@ -10912,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -10952,39 +10936,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="21" t="s">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A235" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
-      <c r="H235" s="21"/>
-      <c r="I235" s="21"/>
-      <c r="J235" s="21"/>
-      <c r="K235" s="21"/>
-      <c r="L235" s="21"/>
-      <c r="M235" s="21"/>
-      <c r="N235" s="21"/>
-      <c r="O235" s="21"/>
-      <c r="P235" s="21"/>
-      <c r="Q235" s="21"/>
-      <c r="R235" s="21"/>
-      <c r="S235" s="21"/>
-      <c r="T235" s="21"/>
-      <c r="U235" s="21"/>
-      <c r="V235" s="21"/>
-      <c r="W235" s="21"/>
-      <c r="X235" s="21"/>
-      <c r="Y235" s="21"/>
-      <c r="Z235" s="21"/>
-    </row>
-    <row r="236" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="23"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="23"/>
+      <c r="O235" s="23"/>
+      <c r="P235" s="23"/>
+      <c r="Q235" s="23"/>
+      <c r="R235" s="23"/>
+      <c r="S235" s="23"/>
+      <c r="T235" s="23"/>
+      <c r="U235" s="23"/>
+      <c r="V235" s="23"/>
+      <c r="W235" s="23"/>
+      <c r="X235" s="23"/>
+      <c r="Y235" s="23"/>
+      <c r="Z235" s="23"/>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>0</v>
       </c>
@@ -11064,358 +11046,238 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
-      <c r="I237" s="3">
-        <v>250</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K237" s="3">
-        <v>6</v>
-      </c>
-      <c r="L237" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M237" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N237" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O237" s="3">
-        <v>2017</v>
-      </c>
-      <c r="P237" s="3" t="s">
-        <v>274</v>
-      </c>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
-      <c r="U237" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="U237" s="3"/>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
       <c r="Z237" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
-      <c r="I238" s="3">
-        <v>100</v>
-      </c>
-      <c r="J238" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
       <c r="K238" s="3"/>
-      <c r="L238" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M238" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N238" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O238" s="3">
-        <v>2017</v>
-      </c>
-      <c r="P238" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
-      <c r="R238" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S238" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T238" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="U238" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="3"/>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
-      <c r="Y238" s="3" t="s">
-        <v>295</v>
-      </c>
+      <c r="Y238" s="3"/>
       <c r="Z238" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
-      <c r="I239" s="3">
-        <v>101</v>
-      </c>
-      <c r="J239" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
       <c r="K239" s="3"/>
-      <c r="L239" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M239" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N239" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O239" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P239" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
-      <c r="R239" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="S239" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T239" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="U239" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V239" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W239" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X239" s="3">
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="3"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
+      <c r="Y239" s="3"/>
+      <c r="Z239" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>4</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3"/>
+      <c r="Z240" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
         <v>5</v>
       </c>
-      <c r="Y239" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z239" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3">
-        <v>21</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3">
-        <v>2</v>
-      </c>
-      <c r="I240" s="3">
-        <v>102</v>
-      </c>
-      <c r="J240" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M240" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N240" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O240" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P240" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q240" s="3"/>
-      <c r="R240" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S240" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="T240" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="U240" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V240" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W240" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X240" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y240" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z240" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3">
-        <v>22</v>
-      </c>
       <c r="B241" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3">
-        <v>102</v>
+        <v>1000</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K241" s="3"/>
+      <c r="K241" s="3">
+        <v>2</v>
+      </c>
       <c r="L241" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N241" s="3">
         <v>2015</v>
       </c>
       <c r="O241" s="3">
-        <v>2017</v>
-      </c>
-      <c r="P241" s="3" t="s">
-        <v>284</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
-      <c r="R241" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S241" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="T241" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="U241" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V241" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W241" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X241" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y241" s="3" t="s">
-        <v>298</v>
-      </c>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
       <c r="Z241" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="3">
-        <v>2</v>
-      </c>
+      <c r="H242" s="3"/>
       <c r="I242" s="3">
-        <v>102</v>
+        <v>1000</v>
       </c>
       <c r="J242" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K242" s="3"/>
+      <c r="K242" s="3">
+        <v>3</v>
+      </c>
       <c r="L242" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M242" s="3" t="s">
         <v>16</v>
@@ -11424,60 +11286,70 @@
         <v>2015</v>
       </c>
       <c r="O242" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q242" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="Q242" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="R242" s="3" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="T242" s="3" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="U242" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V242" s="3"/>
-      <c r="W242" s="3"/>
-      <c r="X242" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W242" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X242" s="3">
+        <v>5</v>
+      </c>
       <c r="Y242" s="3" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="Z242" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J243" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K243" s="3"/>
+      <c r="K243" s="3">
+        <v>1</v>
+      </c>
       <c r="L243" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M243" s="3" t="s">
         <v>16</v>
@@ -11486,32 +11358,42 @@
         <v>2015</v>
       </c>
       <c r="O243" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P243" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q243" s="3"/>
-      <c r="R243" s="3"/>
-      <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R243" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T243" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="U243" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
-      <c r="Y243" s="3"/>
+      <c r="Y243" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="Z243" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -11519,17 +11401,19 @@
         <v>163</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K244" s="3"/>
+      <c r="K244" s="3">
+        <v>6</v>
+      </c>
       <c r="L244" s="3" t="s">
         <v>17</v>
       </c>
@@ -11540,40 +11424,32 @@
         <v>2015</v>
       </c>
       <c r="O244" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q244" s="3"/>
-      <c r="R244" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S244" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T244" s="3" t="s">
-        <v>276</v>
-      </c>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
       <c r="U244" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
-      <c r="Y244" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="Y244" s="3"/>
       <c r="Z244" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -11581,12 +11457,12 @@
         <v>163</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>19</v>
@@ -11602,61 +11478,53 @@
         <v>2015</v>
       </c>
       <c r="O245" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P245" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q245" s="3"/>
       <c r="R245" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S245" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T245" s="3" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="U245" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V245" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W245" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X245" s="3">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
       <c r="Y245" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Z245" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G246" s="3"/>
-      <c r="H246" s="3">
-        <v>2</v>
-      </c>
+      <c r="H246" s="3"/>
       <c r="I246" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>19</v>
@@ -11675,23 +11543,23 @@
         <v>2015</v>
       </c>
       <c r="P246" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q246" s="3"/>
       <c r="R246" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="U246" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V246" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="W246" s="3">
         <v>2016</v>
@@ -11700,18 +11568,18 @@
         <v>5</v>
       </c>
       <c r="Y246" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Z246" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -11719,11 +11587,11 @@
         <v>171</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G247" s="3"/>
       <c r="H247" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I247" s="3">
         <v>102</v>
@@ -11745,23 +11613,23 @@
         <v>2015</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q247" s="3"/>
       <c r="R247" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S247" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="U247" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="W247" s="3">
         <v>2016</v>
@@ -11770,18 +11638,18 @@
         <v>5</v>
       </c>
       <c r="Y247" s="3" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Z247" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -11789,7 +11657,7 @@
         <v>171</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
@@ -11810,266 +11678,386 @@
         <v>2015</v>
       </c>
       <c r="O248" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q248" s="3"/>
       <c r="R248" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S248" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T248" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="U248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W248" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X248" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y248" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z248" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>23</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3">
+        <v>2</v>
+      </c>
+      <c r="I249" s="3">
+        <v>102</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N249" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O249" s="3">
+        <v>2016</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S248" s="3" t="s">
+      <c r="S249" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="T248" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="U248" s="3" t="s">
+      <c r="T249" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="U249" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V248" s="3"/>
-      <c r="W248" s="3"/>
-      <c r="X248" s="3"/>
-      <c r="Y248" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z248" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="3">
-        <v>1</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D249" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3"/>
-      <c r="Q249" s="3"/>
-      <c r="R249" s="3"/>
-      <c r="S249" s="3"/>
-      <c r="T249" s="3"/>
-      <c r="U249" s="3"/>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
-      <c r="Y249" s="3"/>
+      <c r="Y249" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="Z249" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D250" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
+      <c r="I250" s="3">
+        <v>250</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-      <c r="P250" s="3"/>
+      <c r="L250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N250" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O250" s="3">
+        <v>2016</v>
+      </c>
+      <c r="P250" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
       <c r="S250" s="3"/>
       <c r="T250" s="3"/>
-      <c r="U250" s="3"/>
+      <c r="U250" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
       <c r="Z250" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D251" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
+      <c r="I251" s="3">
+        <v>100</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
-      <c r="P251" s="3"/>
+      <c r="L251" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N251" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O251" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P251" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="Q251" s="3"/>
-      <c r="R251" s="3"/>
-      <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
-      <c r="U251" s="3"/>
+      <c r="R251" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S251" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T251" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="U251" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
-      <c r="Y251" s="3"/>
+      <c r="Y251" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="Z251" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D252" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
+      <c r="I252" s="3">
+        <v>101</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
-      <c r="O252" s="3"/>
-      <c r="P252" s="3"/>
+      <c r="L252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="Q252" s="3"/>
-      <c r="R252" s="3"/>
-      <c r="S252" s="3"/>
-      <c r="T252" s="3"/>
-      <c r="U252" s="3"/>
-      <c r="V252" s="3"/>
-      <c r="W252" s="3"/>
-      <c r="X252" s="3"/>
-      <c r="Y252" s="3"/>
+      <c r="R252" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S252" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T252" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W252" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X252" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y252" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="Z252" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D253" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
+      <c r="H253" s="3">
+        <v>2</v>
+      </c>
       <c r="I253" s="3">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K253" s="3">
-        <v>2</v>
-      </c>
+      <c r="K253" s="3"/>
       <c r="L253" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N253" s="3">
         <v>2015</v>
       </c>
       <c r="O253" s="3">
-        <v>2014</v>
-      </c>
-      <c r="P253" s="3"/>
+        <v>2015</v>
+      </c>
+      <c r="P253" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="Q253" s="3"/>
-      <c r="R253" s="3"/>
-      <c r="S253" s="3"/>
-      <c r="T253" s="3"/>
-      <c r="U253" s="3"/>
-      <c r="V253" s="3"/>
-      <c r="W253" s="3"/>
-      <c r="X253" s="3"/>
-      <c r="Y253" s="3"/>
+      <c r="R253" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S253" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T253" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="U253" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V253" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W253" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X253" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y253" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="Z253" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D254" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
+      <c r="H254" s="3">
+        <v>20</v>
+      </c>
       <c r="I254" s="3">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="J254" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K254" s="3">
-        <v>3</v>
-      </c>
+      <c r="K254" s="3"/>
       <c r="L254" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M254" s="3" t="s">
         <v>16</v>
@@ -12081,67 +12069,63 @@
         <v>2015</v>
       </c>
       <c r="P254" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q254" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="Q254" s="3"/>
       <c r="R254" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="S254" s="3" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="T254" s="3" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="U254" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V254" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W254" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="X254" s="3">
         <v>5</v>
       </c>
       <c r="Y254" s="3" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="Z254" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D255" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="J255" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K255" s="3">
-        <v>1</v>
-      </c>
+      <c r="K255" s="3"/>
       <c r="L255" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M255" s="3" t="s">
         <v>16</v>
@@ -12153,19 +12137,17 @@
         <v>2015</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q255" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="Q255" s="3"/>
       <c r="R255" s="3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="S255" s="3" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="T255" s="3" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="U255" s="3" t="s">
         <v>29</v>
@@ -12174,13 +12156,13 @@
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
       <c r="Y255" s="3" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="Z255" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -12226,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>9</v>
       </c>
@@ -12272,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>10</v>
       </c>
@@ -12310,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>11</v>
       </c>
@@ -12380,22 +12362,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:38" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A221:N221"/>
-    <mergeCell ref="A120:N120"/>
-    <mergeCell ref="A126:N126"/>
-    <mergeCell ref="A213:L213"/>
-    <mergeCell ref="A205:L205"/>
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="A105:L105"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A40:N40"/>
     <mergeCell ref="A48:S48"/>
+    <mergeCell ref="A221:N221"/>
+    <mergeCell ref="A120:N120"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A213:L213"/>
+    <mergeCell ref="A205:L205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22110" windowHeight="5475" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22110" windowHeight="5055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBudget" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1260,6 +1261,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,9 +1271,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2863,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2897,19 +2898,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3017,33 +3018,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -3227,7 +3228,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3537,7 +3538,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5484,34 +5485,34 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="31"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="31"/>
-      <c r="Z76" s="31"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -7855,29 +7856,29 @@
       <c r="N140" s="14"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="31"/>
-      <c r="N141" s="31"/>
-      <c r="O141" s="31"/>
-      <c r="P141" s="31"/>
-      <c r="Q141" s="31"/>
-      <c r="R141" s="31"/>
-      <c r="S141" s="31"/>
-      <c r="T141" s="31"/>
-      <c r="U141" s="31"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="28"/>
+      <c r="P141" s="28"/>
+      <c r="Q141" s="28"/>
+      <c r="R141" s="28"/>
+      <c r="S141" s="28"/>
+      <c r="T141" s="28"/>
+      <c r="U141" s="28"/>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
@@ -9239,29 +9240,29 @@
       <c r="T173" s="14"/>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A174" s="31" t="s">
+      <c r="A174" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
-      <c r="H174" s="31"/>
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="31"/>
-      <c r="L174" s="31"/>
-      <c r="M174" s="31"/>
-      <c r="N174" s="31"/>
-      <c r="O174" s="31"/>
-      <c r="P174" s="31"/>
-      <c r="Q174" s="31"/>
-      <c r="R174" s="31"/>
-      <c r="S174" s="31"/>
-      <c r="T174" s="31"/>
-      <c r="U174" s="31"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="28"/>
+      <c r="M174" s="28"/>
+      <c r="N174" s="28"/>
+      <c r="O174" s="28"/>
+      <c r="P174" s="28"/>
+      <c r="Q174" s="28"/>
+      <c r="R174" s="28"/>
+      <c r="S174" s="28"/>
+      <c r="T174" s="28"/>
+      <c r="U174" s="28"/>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
@@ -10864,34 +10865,34 @@
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A234" s="31" t="s">
+      <c r="A234" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="31"/>
-      <c r="G234" s="31"/>
-      <c r="H234" s="31"/>
-      <c r="I234" s="31"/>
-      <c r="J234" s="31"/>
-      <c r="K234" s="31"/>
-      <c r="L234" s="31"/>
-      <c r="M234" s="31"/>
-      <c r="N234" s="31"/>
-      <c r="O234" s="31"/>
-      <c r="P234" s="31"/>
-      <c r="Q234" s="31"/>
-      <c r="R234" s="31"/>
-      <c r="S234" s="31"/>
-      <c r="T234" s="31"/>
-      <c r="U234" s="31"/>
-      <c r="V234" s="31"/>
-      <c r="W234" s="31"/>
-      <c r="X234" s="31"/>
-      <c r="Y234" s="31"/>
-      <c r="Z234" s="31"/>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
+      <c r="H234" s="28"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
+      <c r="K234" s="28"/>
+      <c r="L234" s="28"/>
+      <c r="M234" s="28"/>
+      <c r="N234" s="28"/>
+      <c r="O234" s="28"/>
+      <c r="P234" s="28"/>
+      <c r="Q234" s="28"/>
+      <c r="R234" s="28"/>
+      <c r="S234" s="28"/>
+      <c r="T234" s="28"/>
+      <c r="U234" s="28"/>
+      <c r="V234" s="28"/>
+      <c r="W234" s="28"/>
+      <c r="X234" s="28"/>
+      <c r="Y234" s="28"/>
+      <c r="Z234" s="28"/>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
@@ -12307,6 +12308,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A112:N112"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A47:S47"/>
+    <mergeCell ref="A76:Z76"/>
     <mergeCell ref="A234:Z234"/>
     <mergeCell ref="A220:N220"/>
     <mergeCell ref="A119:N119"/>
@@ -12315,13 +12323,6 @@
     <mergeCell ref="A204:L204"/>
     <mergeCell ref="A174:U174"/>
     <mergeCell ref="A141:U141"/>
-    <mergeCell ref="A112:N112"/>
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A47:S47"/>
-    <mergeCell ref="A76:Z76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -13,7 +13,6 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1261,9 +1260,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,6 +1267,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,7 +1584,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2864,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2898,19 +2897,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3018,33 +3017,33 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -5485,34 +5484,34 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="31"/>
+      <c r="X76" s="31"/>
+      <c r="Y76" s="31"/>
+      <c r="Z76" s="31"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -7856,29 +7855,29 @@
       <c r="N140" s="14"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="28" t="s">
+      <c r="A141" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="28"/>
-      <c r="O141" s="28"/>
-      <c r="P141" s="28"/>
-      <c r="Q141" s="28"/>
-      <c r="R141" s="28"/>
-      <c r="S141" s="28"/>
-      <c r="T141" s="28"/>
-      <c r="U141" s="28"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
+      <c r="Q141" s="31"/>
+      <c r="R141" s="31"/>
+      <c r="S141" s="31"/>
+      <c r="T141" s="31"/>
+      <c r="U141" s="31"/>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
@@ -9240,29 +9239,29 @@
       <c r="T173" s="14"/>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A174" s="28" t="s">
+      <c r="A174" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="28"/>
-      <c r="L174" s="28"/>
-      <c r="M174" s="28"/>
-      <c r="N174" s="28"/>
-      <c r="O174" s="28"/>
-      <c r="P174" s="28"/>
-      <c r="Q174" s="28"/>
-      <c r="R174" s="28"/>
-      <c r="S174" s="28"/>
-      <c r="T174" s="28"/>
-      <c r="U174" s="28"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
+      <c r="I174" s="31"/>
+      <c r="J174" s="31"/>
+      <c r="K174" s="31"/>
+      <c r="L174" s="31"/>
+      <c r="M174" s="31"/>
+      <c r="N174" s="31"/>
+      <c r="O174" s="31"/>
+      <c r="P174" s="31"/>
+      <c r="Q174" s="31"/>
+      <c r="R174" s="31"/>
+      <c r="S174" s="31"/>
+      <c r="T174" s="31"/>
+      <c r="U174" s="31"/>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
@@ -10865,34 +10864,34 @@
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B234" s="28"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="28"/>
-      <c r="H234" s="28"/>
-      <c r="I234" s="28"/>
-      <c r="J234" s="28"/>
-      <c r="K234" s="28"/>
-      <c r="L234" s="28"/>
-      <c r="M234" s="28"/>
-      <c r="N234" s="28"/>
-      <c r="O234" s="28"/>
-      <c r="P234" s="28"/>
-      <c r="Q234" s="28"/>
-      <c r="R234" s="28"/>
-      <c r="S234" s="28"/>
-      <c r="T234" s="28"/>
-      <c r="U234" s="28"/>
-      <c r="V234" s="28"/>
-      <c r="W234" s="28"/>
-      <c r="X234" s="28"/>
-      <c r="Y234" s="28"/>
-      <c r="Z234" s="28"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="31"/>
+      <c r="G234" s="31"/>
+      <c r="H234" s="31"/>
+      <c r="I234" s="31"/>
+      <c r="J234" s="31"/>
+      <c r="K234" s="31"/>
+      <c r="L234" s="31"/>
+      <c r="M234" s="31"/>
+      <c r="N234" s="31"/>
+      <c r="O234" s="31"/>
+      <c r="P234" s="31"/>
+      <c r="Q234" s="31"/>
+      <c r="R234" s="31"/>
+      <c r="S234" s="31"/>
+      <c r="T234" s="31"/>
+      <c r="U234" s="31"/>
+      <c r="V234" s="31"/>
+      <c r="W234" s="31"/>
+      <c r="X234" s="31"/>
+      <c r="Y234" s="31"/>
+      <c r="Z234" s="31"/>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
@@ -12308,13 +12307,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A112:N112"/>
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A47:S47"/>
-    <mergeCell ref="A76:Z76"/>
     <mergeCell ref="A234:Z234"/>
     <mergeCell ref="A220:N220"/>
     <mergeCell ref="A119:N119"/>
@@ -12323,6 +12315,13 @@
     <mergeCell ref="A204:L204"/>
     <mergeCell ref="A174:U174"/>
     <mergeCell ref="A141:U141"/>
+    <mergeCell ref="A112:N112"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A47:S47"/>
+    <mergeCell ref="A76:Z76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="322">
   <si>
     <t>id</t>
   </si>
@@ -1245,6 +1245,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,9 +1255,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE252"/>
+  <dimension ref="A1:AE251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2791,19 +2791,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2876,33 +2876,33 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
@@ -5248,34 +5248,34 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
-      <c r="X73" s="31"/>
-      <c r="Y73" s="31"/>
-      <c r="Z73" s="31"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
@@ -7619,29 +7619,29 @@
       <c r="N137" s="14"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="31"/>
-      <c r="L138" s="31"/>
-      <c r="M138" s="31"/>
-      <c r="N138" s="31"/>
-      <c r="O138" s="31"/>
-      <c r="P138" s="31"/>
-      <c r="Q138" s="31"/>
-      <c r="R138" s="31"/>
-      <c r="S138" s="31"/>
-      <c r="T138" s="31"/>
-      <c r="U138" s="31"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="28"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="28"/>
+      <c r="O138" s="28"/>
+      <c r="P138" s="28"/>
+      <c r="Q138" s="28"/>
+      <c r="R138" s="28"/>
+      <c r="S138" s="28"/>
+      <c r="T138" s="28"/>
+      <c r="U138" s="28"/>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
@@ -9003,29 +9003,29 @@
       <c r="T170" s="14"/>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="31"/>
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="31"/>
-      <c r="M171" s="31"/>
-      <c r="N171" s="31"/>
-      <c r="O171" s="31"/>
-      <c r="P171" s="31"/>
-      <c r="Q171" s="31"/>
-      <c r="R171" s="31"/>
-      <c r="S171" s="31"/>
-      <c r="T171" s="31"/>
-      <c r="U171" s="31"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28"/>
+      <c r="O171" s="28"/>
+      <c r="P171" s="28"/>
+      <c r="Q171" s="28"/>
+      <c r="R171" s="28"/>
+      <c r="S171" s="28"/>
+      <c r="T171" s="28"/>
+      <c r="U171" s="28"/>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
@@ -10588,34 +10588,34 @@
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A230" s="31" t="s">
+      <c r="A230" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="31"/>
-      <c r="E230" s="31"/>
-      <c r="F230" s="31"/>
-      <c r="G230" s="31"/>
-      <c r="H230" s="31"/>
-      <c r="I230" s="31"/>
-      <c r="J230" s="31"/>
-      <c r="K230" s="31"/>
-      <c r="L230" s="31"/>
-      <c r="M230" s="31"/>
-      <c r="N230" s="31"/>
-      <c r="O230" s="31"/>
-      <c r="P230" s="31"/>
-      <c r="Q230" s="31"/>
-      <c r="R230" s="31"/>
-      <c r="S230" s="31"/>
-      <c r="T230" s="31"/>
-      <c r="U230" s="31"/>
-      <c r="V230" s="31"/>
-      <c r="W230" s="31"/>
-      <c r="X230" s="31"/>
-      <c r="Y230" s="31"/>
-      <c r="Z230" s="31"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="28"/>
+      <c r="M230" s="28"/>
+      <c r="N230" s="28"/>
+      <c r="O230" s="28"/>
+      <c r="P230" s="28"/>
+      <c r="Q230" s="28"/>
+      <c r="R230" s="28"/>
+      <c r="S230" s="28"/>
+      <c r="T230" s="28"/>
+      <c r="U230" s="28"/>
+      <c r="V230" s="28"/>
+      <c r="W230" s="28"/>
+      <c r="X230" s="28"/>
+      <c r="Y230" s="28"/>
+      <c r="Z230" s="28"/>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
@@ -11777,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>19</v>
       </c>
@@ -11801,13 +11801,13 @@
         <v>14</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N250" s="3">
         <v>2015</v>
       </c>
       <c r="O250" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
@@ -11820,7 +11820,7 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
       <c r="Z250" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
@@ -11833,18 +11833,22 @@
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
+      <c r="H251" s="3">
+        <v>5</v>
+      </c>
       <c r="I251" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J251" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M251" s="3" t="s">
         <v>15</v>
@@ -11855,92 +11859,50 @@
       <c r="O251" s="3">
         <v>2015</v>
       </c>
-      <c r="P251" s="3"/>
-      <c r="Q251" s="3"/>
-      <c r="R251" s="3"/>
-      <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
-      <c r="U251" s="3"/>
-      <c r="V251" s="3"/>
-      <c r="W251" s="3"/>
-      <c r="X251" s="3"/>
-      <c r="Y251" s="3"/>
+      <c r="P251" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q251" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R251" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S251" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T251" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="U251" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W251" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X251" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y251" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="Z251" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A252" s="3">
-        <v>21</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3">
-        <v>5</v>
-      </c>
-      <c r="I252" s="3">
-        <v>300</v>
-      </c>
-      <c r="J252" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M252" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N252" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O252" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P252" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q252" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="R252" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="S252" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="T252" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="U252" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V252" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W252" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X252" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y252" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z252" s="3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A109:N109"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A44:S44"/>
+    <mergeCell ref="A73:Z73"/>
+    <mergeCell ref="A54:X54"/>
     <mergeCell ref="A230:Z230"/>
     <mergeCell ref="A217:N217"/>
     <mergeCell ref="A116:N116"/>
@@ -11949,14 +11911,6 @@
     <mergeCell ref="A201:L201"/>
     <mergeCell ref="A171:U171"/>
     <mergeCell ref="A138:U138"/>
-    <mergeCell ref="A109:N109"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="A44:S44"/>
-    <mergeCell ref="A73:Z73"/>
-    <mergeCell ref="A54:X54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/resources/CreateBudget_TC.xlsx
+++ b/src/main/java/resources/CreateBudget_TC.xlsx
@@ -13,6 +13,7 @@
     <sheet name="BudgetaForm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1271,9 +1272,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1609,7 +1607,7 @@
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1803,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1897,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2115,7 +2113,7 @@
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
@@ -2129,7 +2127,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2193,7 +2191,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2225,7 +2223,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2287,7 +2285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2381,7 +2379,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2413,7 +2411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F11" s="12"/>
     </row>
   </sheetData>
@@ -2452,7 +2450,7 @@
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>81</v>
       </c>
@@ -2463,7 +2461,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2502,7 +2500,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2518,7 +2516,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2534,7 +2532,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2548,7 +2546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2562,7 +2560,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2590,7 +2588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2632,7 +2630,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2646,7 +2644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2755,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE251"/>
+  <dimension ref="A1:AE252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2788,7 @@
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>143</v>
       </c>
@@ -2805,7 +2803,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>142</v>
       </c>
@@ -2908,7 +2906,7 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4782,7 +4780,7 @@
         <v>255</v>
       </c>
       <c r="C56" s="3">
-        <v>123</v>
+        <v>1234</v>
       </c>
       <c r="D56" s="3">
         <v>5000</v>
@@ -4812,13 +4810,13 @@
         <v>2</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="P56" s="3">
         <v>2015</v>
@@ -4833,16 +4831,16 @@
         <v>244</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="V56" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W56" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X56" s="3" t="b">
         <v>1</v>
@@ -4874,42 +4872,52 @@
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="J57" s="3">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="K57" s="3">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="L57" s="3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="P57" s="3">
         <v>2015</v>
       </c>
       <c r="Q57" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="X57" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -4938,16 +4946,16 @@
         <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="J58" s="3">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="K58" s="3">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="L58" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>243</v>
@@ -4984,7 +4992,7 @@
         <v>255</v>
       </c>
       <c r="C59" s="3">
-        <v>1234</v>
+        <v>123</v>
       </c>
       <c r="D59" s="3">
         <v>5000</v>
@@ -5020,176 +5028,118 @@
         <v>14</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="P59" s="3">
         <v>2015</v>
       </c>
       <c r="Q59" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="U59" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="W59" s="7" t="s">
-        <v>256</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
       <c r="X59" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O64" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="P65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q64" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R64" s="4" t="s">
+      <c r="R65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S64" s="4" t="s">
+      <c r="S65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T64" s="4" t="s">
+      <c r="T65" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" s="3">
-        <v>100</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H65" s="3">
-        <v>3</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L65" s="3">
-        <v>2014</v>
-      </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>258</v>
@@ -5222,191 +5172,201 @@
         <v>2015</v>
       </c>
       <c r="L66" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M66" s="3"/>
-      <c r="N66" s="3" t="s">
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="3">
+        <v>100</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="P67" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="Q67" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R66" s="3" t="s">
+      <c r="R67" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="S67" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="T66" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
+      <c r="T67" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O74" s="4" t="s">
+      <c r="O75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="P75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q74" s="4" t="s">
+      <c r="Q75" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R74" s="4" t="s">
+      <c r="R75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S74" s="4" t="s">
+      <c r="S75" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T74" s="4" t="s">
+      <c r="T75" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="U74" s="4" t="s">
+      <c r="U75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="V74" s="4" t="s">
+      <c r="V75" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="W74" s="4" t="s">
+      <c r="W75" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="X74" s="4" t="s">
+      <c r="X75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Y74" s="4" t="s">
+      <c r="Y75" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Z74" s="4" t="s">
+      <c r="Z75" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>1</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D76" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -5435,16 +5395,16 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="D77" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -5473,16 +5433,16 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D78" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -5511,42 +5471,28 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D79" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="3">
-        <v>2</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N79" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O79" s="3">
-        <v>2014</v>
-      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
@@ -5563,7 +5509,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>141</v>
@@ -5585,57 +5531,37 @@
         <v>18</v>
       </c>
       <c r="K80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N80" s="3">
         <v>2015</v>
       </c>
       <c r="O80" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T80" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="U80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W80" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X80" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y80" s="3" t="s">
-        <v>238</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
       <c r="Z80" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>141</v>
@@ -5657,7 +5583,7 @@
         <v>18</v>
       </c>
       <c r="K81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>14</v>
@@ -5687,11 +5613,17 @@
         <v>263</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W81" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X81" s="3">
+        <v>5</v>
+      </c>
       <c r="Y81" s="3" t="s">
         <v>238</v>
       </c>
@@ -5701,53 +5633,73 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
       <c r="L82" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N82" s="3">
         <v>2015</v>
       </c>
       <c r="O82" s="3">
-        <v>2014</v>
-      </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
+        <v>2015</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
+      <c r="Y82" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="Z82" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>75</v>
@@ -5765,10 +5717,18 @@
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+      <c r="L83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O83" s="3">
+        <v>2014</v>
+      </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
@@ -5780,12 +5740,12 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>75</v>
@@ -5793,13 +5753,13 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -5823,7 +5783,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>75</v>
@@ -5835,111 +5795,103 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3">
-        <v>5</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="3">
-        <v>300</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N85" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O85" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P85" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q85" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="T85" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="U85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W85" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X85" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y85" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
       <c r="Z85" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>267</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="H86" s="3">
+        <v>5</v>
+      </c>
       <c r="I86" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
+      <c r="L86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O86" s="3">
+        <v>2015</v>
+      </c>
       <c r="P86" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="U86" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W86" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X86" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y86" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="Z86" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>79</v>
@@ -5950,58 +5902,42 @@
         <v>159</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K87" s="3"/>
-      <c r="L87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N87" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O87" s="3">
-        <v>2015</v>
-      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
       <c r="P87" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="T87" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
       <c r="U87" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
-      <c r="Y87" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="Y87" s="3"/>
       <c r="Z87" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>79</v>
@@ -6012,12 +5948,12 @@
         <v>159</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>18</v>
@@ -6036,32 +5972,26 @@
         <v>2015</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W88" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X88" s="3">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
       <c r="Y88" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z88" s="3" t="b">
         <v>1</v>
@@ -6069,7 +5999,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>79</v>
@@ -6077,17 +6007,15 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="3">
-        <v>2</v>
-      </c>
+      <c r="H89" s="3"/>
       <c r="I89" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>18</v>
@@ -6106,23 +6034,23 @@
         <v>2015</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="W89" s="3">
         <v>2016</v>
@@ -6131,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Z89" s="3" t="b">
         <v>1</v>
@@ -6139,7 +6067,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>79</v>
@@ -6150,11 +6078,11 @@
         <v>167</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I90" s="3">
         <v>102</v>
@@ -6176,23 +6104,23 @@
         <v>2015</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="U90" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="W90" s="3">
         <v>2016</v>
@@ -6201,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Z90" s="3" t="b">
         <v>1</v>
@@ -6209,7 +6137,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>79</v>
@@ -6220,10 +6148,12 @@
         <v>167</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3">
+        <v>20</v>
+      </c>
       <c r="I91" s="3">
         <v>102</v>
       </c>
@@ -6244,26 +6174,32 @@
         <v>2015</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W91" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X91" s="3">
+        <v>5</v>
+      </c>
       <c r="Y91" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z91" s="3" t="b">
         <v>1</v>
@@ -6271,55 +6207,69 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K92" s="3">
-        <v>6</v>
-      </c>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O92" s="3">
+        <v>2015</v>
+      </c>
       <c r="P92" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
+      <c r="R92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="U92" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
+      <c r="Y92" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>80</v>
@@ -6330,58 +6280,44 @@
         <v>159</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N93" s="3">
-        <v>2018</v>
-      </c>
-      <c r="O93" s="3">
-        <v>2015</v>
-      </c>
+      <c r="K93" s="3">
+        <v>6</v>
+      </c>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
       <c r="P93" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>285</v>
-      </c>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
       <c r="U93" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
-      <c r="Y93" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="Y93" s="3"/>
       <c r="Z93" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>80</v>
@@ -6392,12 +6328,12 @@
         <v>159</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>18</v>
@@ -6410,38 +6346,32 @@
         <v>15</v>
       </c>
       <c r="N94" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="O94" s="3">
         <v>2015</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W94" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X94" s="3">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
       <c r="Y94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z94" s="3" t="b">
         <v>1</v>
@@ -6449,7 +6379,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>80</v>
@@ -6457,17 +6387,15 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="3">
-        <v>2</v>
-      </c>
+      <c r="H95" s="3"/>
       <c r="I95" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>18</v>
@@ -6486,23 +6414,23 @@
         <v>2015</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U95" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="W95" s="3">
         <v>2016</v>
@@ -6511,7 +6439,7 @@
         <v>5</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
@@ -6519,7 +6447,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>80</v>
@@ -6530,10 +6458,12 @@
         <v>167</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="H96" s="3">
+        <v>2</v>
+      </c>
       <c r="I96" s="3">
         <v>102</v>
       </c>
@@ -6548,29 +6478,29 @@
         <v>15</v>
       </c>
       <c r="N96" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="O96" s="3">
         <v>2015</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="W96" s="3">
         <v>2016</v>
@@ -6579,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z96" s="3" t="b">
         <v>1</v>
@@ -6587,7 +6517,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>80</v>
@@ -6598,12 +6528,10 @@
         <v>167</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3">
-        <v>2</v>
-      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="3">
         <v>102</v>
       </c>
@@ -6618,188 +6546,220 @@
         <v>15</v>
       </c>
       <c r="N97" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="O97" s="3">
         <v>2015</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W97" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X97" s="3">
+        <v>5</v>
+      </c>
       <c r="Y97" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z97" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="3">
+        <v>23</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="H98" s="3">
+        <v>2</v>
+      </c>
+      <c r="I98" s="3">
+        <v>102</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
+      <c r="L98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N98" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O98" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
+      <c r="R98" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
+      <c r="Y98" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z98" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="L103" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>1</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E103" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L103" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>16</v>
@@ -6808,329 +6768,351 @@
         <v>2015</v>
       </c>
       <c r="E104" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L104" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>2</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L104" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A109" s="27" t="s">
+      <c r="L105" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A110" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A110" s="18" t="s">
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B111" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C111" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D111" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E111" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F110" s="18" t="s">
+      <c r="F111" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G111" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H111" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I110" s="18" t="s">
+      <c r="I111" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J110" s="18" t="s">
+      <c r="J111" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K110" s="18" t="s">
+      <c r="K111" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L110" s="18" t="s">
+      <c r="L111" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="M110" s="18" t="s">
+      <c r="M111" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N110" s="18" t="s">
+      <c r="N111" s="18" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>1</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E111" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N111" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="D112" s="3">
         <v>2015</v>
       </c>
       <c r="E112" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>2</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N112" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="27" t="s">
+      <c r="N113" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="27"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="18" t="s">
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B118" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C118" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D118" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E118" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F117" s="18" t="s">
+      <c r="F118" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="18" t="s">
+      <c r="G118" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H118" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="18" t="s">
+      <c r="I118" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J117" s="18" t="s">
+      <c r="J118" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="18" t="s">
+      <c r="K118" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L117" s="18" t="s">
+      <c r="L118" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="M117" s="18" t="s">
+      <c r="M118" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N117" s="18" t="s">
+      <c r="N118" s="18" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>1</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E118" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N118" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="D119" s="3">
         <v>2015</v>
       </c>
       <c r="E119" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N119" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>2</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N119" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="14"/>
+      <c r="N120" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
@@ -7149,162 +7131,162 @@
       <c r="N121" s="14"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="27"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B124" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C124" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D124" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E124" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F124" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G124" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H124" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I123" s="18" t="s">
+      <c r="I124" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J123" s="18" t="s">
+      <c r="J124" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K123" s="18" t="s">
+      <c r="K124" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L123" s="18" t="s">
+      <c r="L124" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="M123" s="18" t="s">
+      <c r="M124" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N123" s="18" t="s">
+      <c r="N124" s="18" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>1</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D124" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E124" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N124" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="D125" s="3">
         <v>2015</v>
       </c>
       <c r="E125" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>2</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N125" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="14"/>
+      <c r="N126" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
@@ -7371,220 +7353,220 @@
       <c r="N130" s="14"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
-      <c r="O131" s="20"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="20"/>
-      <c r="R131" s="20"/>
-      <c r="S131" s="20"/>
-      <c r="T131" s="20"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="20"/>
+      <c r="R132" s="20"/>
+      <c r="S132" s="20"/>
+      <c r="T132" s="20"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F133" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G133" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="H133" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I132" s="4" t="s">
+      <c r="I133" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="J133" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K133" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L132" s="4" t="s">
+      <c r="L133" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M132" s="4" t="s">
+      <c r="M133" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N132" s="4" t="s">
+      <c r="N133" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O132" s="4" t="s">
+      <c r="O133" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P132" s="4" t="s">
+      <c r="P133" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q132" s="4" t="s">
+      <c r="Q133" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R132" s="4" t="s">
+      <c r="R133" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="S132" s="4" t="s">
+      <c r="S133" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T132" s="4" t="s">
+      <c r="T133" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>1</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C133" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F133" s="3">
-        <v>8</v>
-      </c>
-      <c r="G133" s="3">
-        <v>10</v>
-      </c>
-      <c r="H133" s="3">
-        <v>5</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J133" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="K133" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L133" s="3">
-        <v>2015</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N133" s="3"/>
-      <c r="O133" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P133" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q133" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="T133" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C134" s="3">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F134" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="F134" s="3">
+        <v>8</v>
+      </c>
       <c r="G134" s="3">
         <v>10</v>
       </c>
       <c r="H134" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="J134" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="K134" s="3">
         <v>2015</v>
       </c>
       <c r="L134" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N134" s="3"/>
       <c r="O134" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R134" s="3"/>
       <c r="S134" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3">
+        <v>10</v>
+      </c>
+      <c r="H135" s="3">
+        <v>2</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L135" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N135" s="3"/>
+      <c r="O135" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P135" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T134" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="14"/>
+      <c r="T135" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
@@ -7619,158 +7601,138 @@
       <c r="N137" s="14"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="14"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A139" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="28"/>
-      <c r="L138" s="28"/>
-      <c r="M138" s="28"/>
-      <c r="N138" s="28"/>
-      <c r="O138" s="28"/>
-      <c r="P138" s="28"/>
-      <c r="Q138" s="28"/>
-      <c r="R138" s="28"/>
-      <c r="S138" s="28"/>
-      <c r="T138" s="28"/>
-      <c r="U138" s="28"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="28"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="28"/>
+      <c r="O139" s="28"/>
+      <c r="P139" s="28"/>
+      <c r="Q139" s="28"/>
+      <c r="R139" s="28"/>
+      <c r="S139" s="28"/>
+      <c r="T139" s="28"/>
+      <c r="U139" s="28"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F140" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G140" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H140" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I139" s="4" t="s">
+      <c r="I140" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J140" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K140" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L139" s="4" t="s">
+      <c r="L140" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M139" s="4" t="s">
+      <c r="M140" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N139" s="4" t="s">
+      <c r="N140" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O139" s="4" t="s">
+      <c r="O140" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P139" s="4" t="s">
+      <c r="P140" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q139" s="4" t="s">
+      <c r="Q140" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R139" s="4" t="s">
+      <c r="R140" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S139" s="4" t="s">
+      <c r="S140" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T139" s="4" t="s">
+      <c r="T140" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U139" s="4" t="s">
+      <c r="U140" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>1</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3">
-        <v>200</v>
-      </c>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L140" s="3">
-        <v>2016</v>
-      </c>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
-      <c r="U140" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V140" s="3"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D141" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
+      <c r="K141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" s="3">
+        <v>2016</v>
+      </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
@@ -7786,27 +7748,25 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="D142" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3">
-        <v>500</v>
-      </c>
-      <c r="J142" s="3">
-        <v>2</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -7824,16 +7784,16 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D143" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -7845,34 +7805,16 @@
       <c r="J143" s="3">
         <v>2</v>
       </c>
-      <c r="K143" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M143" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N143" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O143" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
       <c r="P143" s="3"/>
-      <c r="Q143" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R143" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S143" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T143" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
       <c r="U143" s="3" t="b">
         <v>0</v>
       </c>
@@ -7880,7 +7822,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>141</v>
@@ -7911,60 +7853,80 @@
         <v>2015</v>
       </c>
       <c r="N144" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R144" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T144" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U144" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V144" s="3"/>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D145" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3">
-        <v>200</v>
-      </c>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J145" s="3">
+        <v>2</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M145" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N145" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P145" s="3"/>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
+      <c r="Q145" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="U145" s="3" t="b">
         <v>1</v>
       </c>
@@ -7972,21 +7934,23 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -8006,7 +7970,7 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>75</v>
@@ -8020,47 +7984,27 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J147" s="3">
-        <v>1</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M147" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N147" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O147" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
       <c r="P147" s="3"/>
-      <c r="Q147" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="R147" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S147" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T147" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="U147" s="7" t="b">
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V147" s="3"/>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>75</v>
@@ -8068,18 +8012,16 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="3">
-        <v>10</v>
-      </c>
+      <c r="H148" s="3"/>
       <c r="I148" s="3">
-        <v>22222</v>
+        <v>2000</v>
       </c>
       <c r="J148" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>52</v>
@@ -8094,20 +8036,20 @@
         <v>2016</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R148" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="S148" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="T148" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U148" s="7" t="b">
         <v>1</v>
@@ -8116,25 +8058,27 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
+      <c r="H149" s="3">
+        <v>10</v>
+      </c>
       <c r="I149" s="3">
-        <v>330</v>
-      </c>
-      <c r="J149" s="3"/>
+        <v>22222</v>
+      </c>
+      <c r="J149" s="3">
+        <v>2</v>
+      </c>
       <c r="K149" s="3" t="s">
         <v>52</v>
       </c>
@@ -8148,20 +8092,20 @@
         <v>2016</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P149" s="3"/>
       <c r="Q149" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="R149" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="S149" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="T149" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="U149" s="7" t="b">
         <v>1</v>
@@ -8170,7 +8114,7 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>79</v>
@@ -8181,7 +8125,7 @@
         <v>159</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -8202,20 +8146,20 @@
         <v>2016</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P150" s="3"/>
       <c r="Q150" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R150" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S150" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T150" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U150" s="7" t="b">
         <v>1</v>
@@ -8224,7 +8168,7 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>79</v>
@@ -8235,7 +8179,7 @@
         <v>159</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -8256,20 +8200,20 @@
         <v>2016</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P151" s="3"/>
       <c r="Q151" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R151" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S151" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T151" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U151" s="7" t="b">
         <v>1</v>
@@ -8278,7 +8222,7 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>79</v>
@@ -8286,15 +8230,13 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G152" s="3"/>
-      <c r="H152" s="3">
-        <v>5</v>
-      </c>
+      <c r="H152" s="3"/>
       <c r="I152" s="3">
         <v>330</v>
       </c>
@@ -8312,20 +8254,20 @@
         <v>2016</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R152" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S152" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T152" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U152" s="7" t="b">
         <v>1</v>
@@ -8334,7 +8276,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>79</v>
@@ -8345,18 +8287,16 @@
         <v>167</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I153" s="3">
         <v>330</v>
       </c>
-      <c r="J153" s="3">
-        <v>5</v>
-      </c>
+      <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
         <v>52</v>
       </c>
@@ -8370,20 +8310,20 @@
         <v>2016</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P153" s="3"/>
       <c r="Q153" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R153" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T153" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U153" s="7" t="b">
         <v>1</v>
@@ -8392,7 +8332,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>79</v>
@@ -8403,15 +8343,17 @@
         <v>167</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
+      <c r="H154" s="3">
+        <v>2</v>
+      </c>
       <c r="I154" s="3">
         <v>330</v>
       </c>
       <c r="J154" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K154" s="3" t="s">
         <v>52</v>
@@ -8426,20 +8368,20 @@
         <v>2016</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P154" s="3"/>
       <c r="Q154" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T154" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U154" s="7" t="b">
         <v>1</v>
@@ -8448,26 +8390,26 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="J155" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>52</v>
@@ -8482,20 +8424,20 @@
         <v>2016</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P155" s="3"/>
       <c r="Q155" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="R155" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="T155" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="U155" s="7" t="b">
         <v>1</v>
@@ -8504,7 +8446,7 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>80</v>
@@ -8515,14 +8457,16 @@
         <v>159</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3">
-        <v>600</v>
-      </c>
-      <c r="J156" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J156" s="3">
+        <v>2</v>
+      </c>
       <c r="K156" s="3" t="s">
         <v>52</v>
       </c>
@@ -8536,20 +8480,20 @@
         <v>2016</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P156" s="3"/>
       <c r="Q156" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R156" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T156" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U156" s="7" t="b">
         <v>1</v>
@@ -8558,7 +8502,7 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>80</v>
@@ -8569,12 +8513,12 @@
         <v>159</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3">
-        <v>7000</v>
+        <v>600</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3" t="s">
@@ -8590,20 +8534,20 @@
         <v>2016</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P157" s="3"/>
       <c r="Q157" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T157" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U157" s="7" t="b">
         <v>1</v>
@@ -8612,7 +8556,7 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>80</v>
@@ -8620,15 +8564,15 @@
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3" t="s">
@@ -8644,20 +8588,20 @@
         <v>2016</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T158" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U158" s="7" t="b">
         <v>1</v>
@@ -8666,7 +8610,7 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>80</v>
@@ -8677,14 +8621,12 @@
         <v>167</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="3">
-        <v>10</v>
-      </c>
+      <c r="H159" s="3"/>
       <c r="I159" s="3">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3" t="s">
@@ -8700,20 +8642,20 @@
         <v>2016</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P159" s="3"/>
       <c r="Q159" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R159" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T159" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U159" s="7" t="b">
         <v>1</v>
@@ -8722,7 +8664,7 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>80</v>
@@ -8733,14 +8675,14 @@
         <v>167</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I160" s="3">
-        <v>25352</v>
+        <v>1200</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
@@ -8756,20 +8698,20 @@
         <v>2016</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P160" s="3"/>
       <c r="Q160" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R160" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S160" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T160" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U160" s="7" t="b">
         <v>1</v>
@@ -8777,27 +8719,59 @@
       <c r="V160" s="3"/>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="3">
+        <v>21</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
+      <c r="H161" s="3">
+        <v>20</v>
+      </c>
+      <c r="I161" s="3">
+        <v>25352</v>
+      </c>
       <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
+      <c r="K161" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M161" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N161" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="P161" s="3"/>
-      <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-      <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
-      <c r="U161" s="3"/>
+      <c r="Q161" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="T161" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="U161" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="V161" s="3"/>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.2">
@@ -8849,26 +8823,28 @@
       <c r="V163" s="3"/>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="14"/>
-      <c r="P164" s="12"/>
-      <c r="Q164" s="12"/>
-      <c r="R164" s="12"/>
-      <c r="S164" s="12"/>
-      <c r="T164" s="14"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
@@ -9003,157 +8979,144 @@
       <c r="T170" s="14"/>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A171" s="28" t="s">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="14"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="14"/>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A172" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="28"/>
-      <c r="O171" s="28"/>
-      <c r="P171" s="28"/>
-      <c r="Q171" s="28"/>
-      <c r="R171" s="28"/>
-      <c r="S171" s="28"/>
-      <c r="T171" s="28"/>
-      <c r="U171" s="28"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="28"/>
+      <c r="M172" s="28"/>
+      <c r="N172" s="28"/>
+      <c r="O172" s="28"/>
+      <c r="P172" s="28"/>
+      <c r="Q172" s="28"/>
+      <c r="R172" s="28"/>
+      <c r="S172" s="28"/>
+      <c r="T172" s="28"/>
+      <c r="U172" s="28"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B173" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D173" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E173" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F173" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="G173" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H172" s="4" t="s">
+      <c r="H173" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I172" s="4" t="s">
+      <c r="I173" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J172" s="4" t="s">
+      <c r="J173" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K172" s="4" t="s">
+      <c r="K173" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L172" s="4" t="s">
+      <c r="L173" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M172" s="4" t="s">
+      <c r="M173" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N172" s="4" t="s">
+      <c r="N173" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O172" s="4" t="s">
+      <c r="O173" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P172" s="4" t="s">
+      <c r="P173" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q172" s="4" t="s">
+      <c r="Q173" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R172" s="4" t="s">
+      <c r="R173" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S172" s="4" t="s">
+      <c r="S173" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T172" s="4" t="s">
+      <c r="T173" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U172" s="4" t="s">
+      <c r="U173" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A173" s="3">
-        <v>1</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3">
-        <v>200</v>
-      </c>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L173" s="3">
-        <v>2016</v>
-      </c>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-      <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
-      <c r="U173" s="3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D174" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
+      <c r="K174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L174" s="3">
+        <v>2016</v>
+      </c>
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
@@ -9168,27 +9131,25 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="D175" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3">
-        <v>500</v>
-      </c>
-      <c r="J175" s="3">
-        <v>2</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -9205,16 +9166,16 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D176" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -9226,41 +9187,23 @@
       <c r="J176" s="3">
         <v>2</v>
       </c>
-      <c r="K176" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M176" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N176" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O176" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
       <c r="P176" s="3"/>
-      <c r="Q176" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R176" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S176" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T176" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
       <c r="U176" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>141</v>
@@ -9291,80 +9234,102 @@
         <v>2015</v>
       </c>
       <c r="N177" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P177" s="3"/>
       <c r="Q177" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R177" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T177" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U177" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D178" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3">
-        <v>200</v>
-      </c>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
-      <c r="M178" s="3"/>
-      <c r="N178" s="3"/>
-      <c r="O178" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J178" s="3">
+        <v>2</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M178" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N178" s="3">
+        <v>2018</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P178" s="3"/>
-      <c r="Q178" s="3"/>
-      <c r="R178" s="3"/>
-      <c r="S178" s="3"/>
-      <c r="T178" s="3"/>
+      <c r="Q178" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S178" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="U178" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -9383,7 +9348,7 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>75</v>
@@ -9397,46 +9362,26 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J180" s="3">
-        <v>1</v>
-      </c>
-      <c r="K180" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L180" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M180" s="3">
-        <v>2015</v>
-      </c>
-      <c r="N180" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O180" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
       <c r="P180" s="3"/>
-      <c r="Q180" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="R180" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S180" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T180" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="U180" s="7" t="b">
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>75</v>
@@ -9444,18 +9389,16 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="3">
-        <v>10</v>
-      </c>
+      <c r="H181" s="3"/>
       <c r="I181" s="3">
-        <v>22222</v>
+        <v>2000</v>
       </c>
       <c r="J181" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>52</v>
@@ -9470,20 +9413,20 @@
         <v>2016</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P181" s="3"/>
       <c r="Q181" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R181" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="T181" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U181" s="7" t="b">
         <v>1</v>
@@ -9491,25 +9434,27 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F182" s="3"/>
       <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
+      <c r="H182" s="3">
+        <v>10</v>
+      </c>
       <c r="I182" s="3">
-        <v>330</v>
-      </c>
-      <c r="J182" s="3"/>
+        <v>22222</v>
+      </c>
+      <c r="J182" s="3">
+        <v>2</v>
+      </c>
       <c r="K182" s="3" t="s">
         <v>52</v>
       </c>
@@ -9523,20 +9468,20 @@
         <v>2016</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P182" s="3"/>
       <c r="Q182" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="R182" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="S182" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="T182" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="U182" s="7" t="b">
         <v>1</v>
@@ -9544,7 +9489,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>79</v>
@@ -9555,7 +9500,7 @@
         <v>159</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -9576,20 +9521,20 @@
         <v>2016</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P183" s="3"/>
       <c r="Q183" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R183" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T183" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U183" s="7" t="b">
         <v>1</v>
@@ -9597,7 +9542,7 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>79</v>
@@ -9608,7 +9553,7 @@
         <v>159</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -9629,20 +9574,20 @@
         <v>2016</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P184" s="3"/>
       <c r="Q184" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R184" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S184" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T184" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U184" s="7" t="b">
         <v>1</v>
@@ -9650,7 +9595,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>79</v>
@@ -9658,15 +9603,13 @@
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="3">
-        <v>5</v>
-      </c>
+      <c r="H185" s="3"/>
       <c r="I185" s="3">
         <v>330</v>
       </c>
@@ -9684,20 +9627,20 @@
         <v>2016</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P185" s="3"/>
       <c r="Q185" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T185" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U185" s="7" t="b">
         <v>1</v>
@@ -9705,7 +9648,7 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>79</v>
@@ -9716,18 +9659,16 @@
         <v>167</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I186" s="3">
         <v>330</v>
       </c>
-      <c r="J186" s="3">
-        <v>5</v>
-      </c>
+      <c r="J186" s="3"/>
       <c r="K186" s="3" t="s">
         <v>52</v>
       </c>
@@ -9741,20 +9682,20 @@
         <v>2016</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P186" s="3"/>
       <c r="Q186" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R186" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T186" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U186" s="7" t="b">
         <v>1</v>
@@ -9762,7 +9703,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>79</v>
@@ -9773,15 +9714,17 @@
         <v>167</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="H187" s="3">
+        <v>2</v>
+      </c>
       <c r="I187" s="3">
         <v>330</v>
       </c>
       <c r="J187" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K187" s="3" t="s">
         <v>52</v>
@@ -9796,20 +9739,20 @@
         <v>2016</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P187" s="3"/>
       <c r="Q187" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R187" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T187" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U187" s="7" t="b">
         <v>1</v>
@@ -9817,26 +9760,26 @@
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="J188" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>52</v>
@@ -9851,20 +9794,20 @@
         <v>2016</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P188" s="3"/>
       <c r="Q188" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="R188" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="T188" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="U188" s="7" t="b">
         <v>1</v>
@@ -9872,7 +9815,7 @@
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>80</v>
@@ -9883,14 +9826,16 @@
         <v>159</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3">
-        <v>600</v>
-      </c>
-      <c r="J189" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J189" s="3">
+        <v>2</v>
+      </c>
       <c r="K189" s="3" t="s">
         <v>52</v>
       </c>
@@ -9904,20 +9849,20 @@
         <v>2016</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P189" s="3"/>
       <c r="Q189" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T189" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U189" s="7" t="b">
         <v>1</v>
@@ -9925,7 +9870,7 @@
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>80</v>
@@ -9936,12 +9881,12 @@
         <v>159</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3">
-        <v>7000</v>
+        <v>600</v>
       </c>
       <c r="J190" s="3"/>
       <c r="K190" s="3" t="s">
@@ -9957,20 +9902,20 @@
         <v>2016</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P190" s="3"/>
       <c r="Q190" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R190" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T190" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U190" s="7" t="b">
         <v>1</v>
@@ -9978,7 +9923,7 @@
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>80</v>
@@ -9986,15 +9931,15 @@
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3" t="s">
@@ -10010,20 +9955,20 @@
         <v>2016</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P191" s="3"/>
       <c r="Q191" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T191" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U191" s="7" t="b">
         <v>1</v>
@@ -10031,7 +9976,7 @@
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>80</v>
@@ -10042,14 +9987,12 @@
         <v>167</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="3">
-        <v>10</v>
-      </c>
+      <c r="H192" s="3"/>
       <c r="I192" s="3">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3" t="s">
@@ -10065,20 +10008,20 @@
         <v>2016</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P192" s="3"/>
       <c r="Q192" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R192" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T192" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U192" s="7" t="b">
         <v>1</v>
@@ -10086,7 +10029,7 @@
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>80</v>
@@ -10097,14 +10040,14 @@
         <v>167</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I193" s="3">
-        <v>25352</v>
+        <v>1200</v>
       </c>
       <c r="J193" s="3"/>
       <c r="K193" s="3" t="s">
@@ -10120,47 +10063,79 @@
         <v>2016</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P193" s="3"/>
       <c r="Q193" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T193" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U193" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="3">
+        <v>21</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
+      <c r="H194" s="3">
+        <v>20</v>
+      </c>
+      <c r="I194" s="3">
+        <v>25352</v>
+      </c>
       <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
+      <c r="K194" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M194" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N194" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="P194" s="3"/>
-      <c r="Q194" s="3"/>
-      <c r="R194" s="3"/>
-      <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
-      <c r="U194" s="3"/>
+      <c r="Q194" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S194" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="T194" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="U194" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
@@ -10209,120 +10184,105 @@
       <c r="U196" s="3"/>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="N197" s="14"/>
-    </row>
-    <row r="200" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A201" s="27" t="s">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="14"/>
+    </row>
+    <row r="201" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A202" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A202" s="10" t="s">
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="27"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B203" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D203" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E203" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F202" s="10" t="s">
+      <c r="F203" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G202" s="10" t="s">
+      <c r="G203" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H202" s="10" t="s">
+      <c r="H203" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I202" s="10" t="s">
+      <c r="I203" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J202" s="10" t="s">
+      <c r="J203" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K202" s="10" t="s">
+      <c r="K203" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L202" s="4" t="s">
+      <c r="L203" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
-        <v>1</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E203" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H203" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I203" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J203" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K203" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L203" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>16</v>
@@ -10331,430 +10291,422 @@
         <v>2015</v>
       </c>
       <c r="E204" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G204" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L204" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>2</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H205" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I204" s="3" t="s">
+      <c r="I205" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="J205" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K204" s="3" t="s">
+      <c r="K205" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L204" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A209" s="27" t="s">
+      <c r="L205" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="27"/>
-      <c r="K209" s="27"/>
-      <c r="L209" s="27"/>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A210" s="10" t="s">
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B211" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C211" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D211" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="E211" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F210" s="10" t="s">
+      <c r="F211" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G210" s="10" t="s">
+      <c r="G211" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H210" s="10" t="s">
+      <c r="H211" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I210" s="10" t="s">
+      <c r="I211" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J210" s="10" t="s">
+      <c r="J211" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K210" s="10" t="s">
+      <c r="K211" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L210" s="4" t="s">
+      <c r="L211" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A211" s="3">
-        <v>1</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E211" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I211" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K211" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L211" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D212" s="3">
         <v>2015</v>
       </c>
       <c r="E212" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L212" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>2</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H212" s="7" t="s">
+      <c r="H213" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I212" s="3" t="s">
+      <c r="I213" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J212" s="3" t="s">
+      <c r="J213" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K212" s="3" t="s">
+      <c r="K213" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L212" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A217" s="27" t="s">
+      <c r="L213" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
-      <c r="L217" s="27"/>
-      <c r="M217" s="27"/>
-      <c r="N217" s="27"/>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A218" s="18" t="s">
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="27"/>
+      <c r="K218" s="27"/>
+      <c r="L218" s="27"/>
+      <c r="M218" s="27"/>
+      <c r="N218" s="27"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B219" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C219" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D219" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E218" s="18" t="s">
+      <c r="E219" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F218" s="18" t="s">
+      <c r="F219" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G218" s="18" t="s">
+      <c r="G219" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H218" s="4" t="s">
+      <c r="H219" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I218" s="18" t="s">
+      <c r="I219" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J218" s="18" t="s">
+      <c r="J219" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K218" s="18" t="s">
+      <c r="K219" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L218" s="18" t="s">
+      <c r="L219" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="M218" s="18" t="s">
+      <c r="M219" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N218" s="18" t="s">
+      <c r="N219" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A219" s="3">
-        <v>1</v>
-      </c>
-      <c r="B219" s="3" t="s">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>1</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D219" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E219" s="3">
+      <c r="D220" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E220" s="3">
         <v>2017</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F220" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G219" s="3" t="s">
+      <c r="G220" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H219" s="3"/>
-      <c r="I219" s="7" t="s">
+      <c r="H220" s="3"/>
+      <c r="I220" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="J220" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K219" s="3" t="s">
+      <c r="K220" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3" t="s">
+      <c r="L220" s="3"/>
+      <c r="M220" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N219" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A230" s="28" t="s">
+      <c r="N220" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A231" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="B230" s="28"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
-      <c r="F230" s="28"/>
-      <c r="G230" s="28"/>
-      <c r="H230" s="28"/>
-      <c r="I230" s="28"/>
-      <c r="J230" s="28"/>
-      <c r="K230" s="28"/>
-      <c r="L230" s="28"/>
-      <c r="M230" s="28"/>
-      <c r="N230" s="28"/>
-      <c r="O230" s="28"/>
-      <c r="P230" s="28"/>
-      <c r="Q230" s="28"/>
-      <c r="R230" s="28"/>
-      <c r="S230" s="28"/>
-      <c r="T230" s="28"/>
-      <c r="U230" s="28"/>
-      <c r="V230" s="28"/>
-      <c r="W230" s="28"/>
-      <c r="X230" s="28"/>
-      <c r="Y230" s="28"/>
-      <c r="Z230" s="28"/>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+      <c r="B231" s="28"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
+      <c r="H231" s="28"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="28"/>
+      <c r="L231" s="28"/>
+      <c r="M231" s="28"/>
+      <c r="N231" s="28"/>
+      <c r="O231" s="28"/>
+      <c r="P231" s="28"/>
+      <c r="Q231" s="28"/>
+      <c r="R231" s="28"/>
+      <c r="S231" s="28"/>
+      <c r="T231" s="28"/>
+      <c r="U231" s="28"/>
+      <c r="V231" s="28"/>
+      <c r="W231" s="28"/>
+      <c r="X231" s="28"/>
+      <c r="Y231" s="28"/>
+      <c r="Z231" s="28"/>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B232" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C232" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D232" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="E232" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="F232" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G231" s="11" t="s">
+      <c r="G232" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H231" s="4" t="s">
+      <c r="H232" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I231" s="4" t="s">
+      <c r="I232" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J231" s="4" t="s">
+      <c r="J232" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K231" s="4" t="s">
+      <c r="K232" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L231" s="4" t="s">
+      <c r="L232" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M231" s="4" t="s">
+      <c r="M232" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N231" s="4" t="s">
+      <c r="N232" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O231" s="4" t="s">
+      <c r="O232" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P231" s="4" t="s">
+      <c r="P232" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q231" s="4" t="s">
+      <c r="Q232" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R231" s="4" t="s">
+      <c r="R232" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S231" s="4" t="s">
+      <c r="S232" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T231" s="4" t="s">
+      <c r="T232" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="U231" s="4" t="s">
+      <c r="U232" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="V231" s="4" t="s">
+      <c r="V232" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="W231" s="4" t="s">
+      <c r="W232" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="X231" s="4" t="s">
+      <c r="X232" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Y231" s="4" t="s">
+      <c r="Y232" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Z231" s="4" t="s">
+      <c r="Z232" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A232" s="3">
-        <v>1</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D232" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M232" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N232" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O232" s="3">
-        <v>2017</v>
-      </c>
-      <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
-      <c r="R232" s="3"/>
-      <c r="S232" s="3"/>
-      <c r="T232" s="3"/>
-      <c r="U232" s="3"/>
-      <c r="V232" s="3"/>
-      <c r="W232" s="3"/>
-      <c r="X232" s="3"/>
-      <c r="Y232" s="3"/>
-      <c r="Z232" s="3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D233" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
@@ -10791,16 +10743,16 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="D234" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -10809,10 +10761,18 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
+      <c r="L234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N234" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O234" s="3">
+        <v>2017</v>
+      </c>
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
@@ -10829,13 +10789,13 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D235" s="3">
         <v>2018</v>
@@ -10867,79 +10827,45 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D236" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
-      <c r="I236" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J236" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K236" s="3">
-        <v>3</v>
-      </c>
-      <c r="L236" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M236" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N236" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O236" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P236" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q236" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="R236" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S236" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T236" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="U236" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V236" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W236" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X236" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y236" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+      <c r="Y236" s="3"/>
       <c r="Z236" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>141</v>
@@ -10961,7 +10887,7 @@
         <v>18</v>
       </c>
       <c r="K237" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L237" s="3" t="s">
         <v>14</v>
@@ -10991,11 +10917,17 @@
         <v>263</v>
       </c>
       <c r="U237" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V237" s="3"/>
-      <c r="W237" s="3"/>
-      <c r="X237" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W237" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X237" s="3">
+        <v>5</v>
+      </c>
       <c r="Y237" s="3" t="s">
         <v>238</v>
       </c>
@@ -11005,32 +10937,32 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K238" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M238" s="3" t="s">
         <v>15</v>
@@ -11039,29 +10971,39 @@
         <v>2015</v>
       </c>
       <c r="O238" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P238" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q238" s="3"/>
-      <c r="R238" s="3"/>
-      <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="Q238" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R238" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S238" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T238" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="U238" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
-      <c r="Y238" s="3"/>
+      <c r="Y238" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="Z238" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>80</v>
@@ -11072,17 +11014,19 @@
         <v>159</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K239" s="3"/>
+      <c r="K239" s="3">
+        <v>6</v>
+      </c>
       <c r="L239" s="3" t="s">
         <v>16</v>
       </c>
@@ -11096,34 +11040,26 @@
         <v>2017</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q239" s="3"/>
-      <c r="R239" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="S239" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="T239" s="3" t="s">
-        <v>285</v>
-      </c>
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
       <c r="U239" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
-      <c r="Y239" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="Y239" s="3"/>
       <c r="Z239" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>80</v>
@@ -11134,12 +11070,12 @@
         <v>159</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>18</v>
@@ -11155,35 +11091,29 @@
         <v>2015</v>
       </c>
       <c r="O240" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q240" s="3"/>
       <c r="R240" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="T240" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U240" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V240" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W240" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X240" s="3">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
       <c r="Y240" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z240" s="3" t="b">
         <v>1</v>
@@ -11191,7 +11121,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>80</v>
@@ -11199,17 +11129,15 @@
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G241" s="3"/>
-      <c r="H241" s="3">
-        <v>2</v>
-      </c>
+      <c r="H241" s="3"/>
       <c r="I241" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>18</v>
@@ -11228,23 +11156,23 @@
         <v>2015</v>
       </c>
       <c r="P241" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q241" s="3"/>
       <c r="R241" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T241" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U241" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V241" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="W241" s="3">
         <v>2016</v>
@@ -11253,7 +11181,7 @@
         <v>5</v>
       </c>
       <c r="Y241" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z241" s="3" t="b">
         <v>1</v>
@@ -11261,7 +11189,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>80</v>
@@ -11272,10 +11200,12 @@
         <v>167</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="H242" s="3">
+        <v>2</v>
+      </c>
       <c r="I242" s="3">
         <v>102</v>
       </c>
@@ -11293,26 +11223,26 @@
         <v>2015</v>
       </c>
       <c r="O242" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q242" s="3"/>
       <c r="R242" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T242" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U242" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V242" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="W242" s="3">
         <v>2016</v>
@@ -11321,7 +11251,7 @@
         <v>5</v>
       </c>
       <c r="Y242" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z242" s="3" t="b">
         <v>1</v>
@@ -11329,7 +11259,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>80</v>
@@ -11340,12 +11270,10 @@
         <v>167</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G243" s="3"/>
-      <c r="H243" s="3">
-        <v>2</v>
-      </c>
+      <c r="H243" s="3"/>
       <c r="I243" s="3">
         <v>102</v>
       </c>
@@ -11363,29 +11291,35 @@
         <v>2015</v>
       </c>
       <c r="O243" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P243" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q243" s="3"/>
       <c r="R243" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S243" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T243" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U243" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V243" s="3"/>
-      <c r="W243" s="3"/>
-      <c r="X243" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W243" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X243" s="3">
+        <v>5</v>
+      </c>
       <c r="Y243" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z243" s="3" t="b">
         <v>1</v>
@@ -11393,23 +11327,25 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
+      <c r="H244" s="3">
+        <v>2</v>
+      </c>
       <c r="I244" s="3">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>18</v>
@@ -11428,26 +11364,34 @@
         <v>2016</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q244" s="3"/>
-      <c r="R244" s="3"/>
-      <c r="S244" s="3"/>
-      <c r="T244" s="3"/>
+      <c r="R244" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="U244" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
-      <c r="Y244" s="3"/>
+      <c r="Y244" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="Z244" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>79</v>
@@ -11458,12 +11402,12 @@
         <v>159</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>18</v>
@@ -11479,37 +11423,29 @@
         <v>2015</v>
       </c>
       <c r="O245" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P245" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q245" s="3"/>
-      <c r="R245" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="S245" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="T245" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="R245" s="3"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
       <c r="U245" s="3" t="s">
         <v>28</v>
       </c>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
-      <c r="Y245" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="Y245" s="3"/>
       <c r="Z245" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>79</v>
@@ -11520,12 +11456,12 @@
         <v>159</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>18</v>
@@ -11544,32 +11480,26 @@
         <v>2015</v>
       </c>
       <c r="P246" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q246" s="3"/>
       <c r="R246" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U246" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V246" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W246" s="3">
-        <v>2016</v>
-      </c>
-      <c r="X246" s="3">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
       <c r="Y246" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z246" s="3" t="b">
         <v>1</v>
@@ -11577,7 +11507,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>79</v>
@@ -11585,17 +11515,15 @@
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G247" s="3"/>
-      <c r="H247" s="3">
-        <v>2</v>
-      </c>
+      <c r="H247" s="3"/>
       <c r="I247" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J247" s="3" t="s">
         <v>18</v>
@@ -11614,23 +11542,23 @@
         <v>2015</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q247" s="3"/>
       <c r="R247" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S247" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U247" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="W247" s="3">
         <v>2016</v>
@@ -11639,7 +11567,7 @@
         <v>5</v>
       </c>
       <c r="Y247" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Z247" s="3" t="b">
         <v>1</v>
@@ -11647,7 +11575,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>79</v>
@@ -11658,11 +11586,11 @@
         <v>167</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G248" s="3"/>
       <c r="H248" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I248" s="3">
         <v>102</v>
@@ -11684,23 +11612,23 @@
         <v>2015</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q248" s="3"/>
       <c r="R248" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S248" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T248" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="U248" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V248" s="3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="W248" s="3">
         <v>2016</v>
@@ -11709,7 +11637,7 @@
         <v>5</v>
       </c>
       <c r="Y248" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Z248" s="3" t="b">
         <v>1</v>
@@ -11717,7 +11645,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>79</v>
@@ -11728,10 +11656,12 @@
         <v>167</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="H249" s="3">
+        <v>20</v>
+      </c>
       <c r="I249" s="3">
         <v>102</v>
       </c>
@@ -11752,26 +11682,32 @@
         <v>2015</v>
       </c>
       <c r="P249" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q249" s="3"/>
       <c r="R249" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S249" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T249" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U249" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V249" s="3"/>
-      <c r="W249" s="3"/>
-      <c r="X249" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W249" s="3">
+        <v>2016</v>
+      </c>
+      <c r="X249" s="3">
+        <v>5</v>
+      </c>
       <c r="Y249" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z249" s="3" t="b">
         <v>1</v>
@@ -11779,26 +11715,30 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F250" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J250" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M250" s="3" t="s">
         <v>15</v>
@@ -11809,23 +11749,35 @@
       <c r="O250" s="3">
         <v>2015</v>
       </c>
-      <c r="P250" s="3"/>
+      <c r="P250" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="Q250" s="3"/>
-      <c r="R250" s="3"/>
-      <c r="S250" s="3"/>
-      <c r="T250" s="3"/>
-      <c r="U250" s="3"/>
+      <c r="R250" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S250" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T250" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U250" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
-      <c r="Y250" s="3"/>
+      <c r="Y250" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="Z250" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>75</v>
@@ -11833,22 +11785,18 @@
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
-      <c r="H251" s="3">
-        <v>5</v>
-      </c>
+      <c r="H251" s="3"/>
       <c r="I251" s="3">
-        <v>300</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M251" s="3" t="s">
         <v>15</v>
@@ -11859,58 +11807,108 @@
       <c r="O251" s="3">
         <v>2015</v>
       </c>
-      <c r="P251" s="3" t="s">
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>20</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3">
+        <v>5</v>
+      </c>
+      <c r="I252" s="3">
+        <v>300</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="P252" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="Q251" s="3" t="s">
+      <c r="Q252" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R251" s="3" t="s">
+      <c r="R252" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="S251" s="3" t="s">
+      <c r="S252" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="T251" s="3" t="s">
+      <c r="T252" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="U251" s="3" t="s">
+      <c r="U252" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V251" s="3" t="s">
+      <c r="V252" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W251" s="3">
-        <v>2015</v>
-      </c>
-      <c r="X251" s="3">
+      <c r="W252" s="3">
+        <v>2015</v>
+      </c>
+      <c r="X252" s="3">
         <v>2</v>
       </c>
-      <c r="Y251" s="3" t="s">
+      <c r="Y252" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Z251" s="3" t="b">
+      <c r="Z252" s="3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A109:N109"/>
-    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A110:N110"/>
+    <mergeCell ref="A102:L102"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A7:Y7"/>
     <mergeCell ref="A37:N37"/>
     <mergeCell ref="A44:S44"/>
-    <mergeCell ref="A73:Z73"/>
+    <mergeCell ref="A74:Z74"/>
     <mergeCell ref="A54:X54"/>
-    <mergeCell ref="A230:Z230"/>
-    <mergeCell ref="A217:N217"/>
-    <mergeCell ref="A116:N116"/>
-    <mergeCell ref="A122:N122"/>
-    <mergeCell ref="A209:L209"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="A171:U171"/>
-    <mergeCell ref="A138:U138"/>
+    <mergeCell ref="A231:Z231"/>
+    <mergeCell ref="A218:N218"/>
+    <mergeCell ref="A117:N117"/>
+    <mergeCell ref="A123:N123"/>
+    <mergeCell ref="A210:L210"/>
+    <mergeCell ref="A202:L202"/>
+    <mergeCell ref="A172:U172"/>
+    <mergeCell ref="A139:U139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
